--- a/imagenes_drive.xlsx
+++ b/imagenes_drive.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
   <si>
     <t>nombre</t>
   </si>
@@ -33,6 +33,66 @@
     <t>link_vista</t>
   </si>
   <si>
+    <t>evol1000.png</t>
+  </si>
+  <si>
+    <t>1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k</t>
+  </si>
+  <si>
+    <t>evol0330.png</t>
+  </si>
+  <si>
+    <t>1_woEN7ahCyphJcQooMGZU51SaSrhcw2H</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_woEN7ahCyphJcQooMGZU51SaSrhcw2H/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1_woEN7ahCyphJcQooMGZU51SaSrhcw2H</t>
+  </si>
+  <si>
+    <t>PERFA0261.png</t>
+  </si>
+  <si>
+    <t>1WUt0ka-yyFo63FTM49NWDYNDNiO_04gm</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WUt0ka-yyFo63FTM49NWDYNDNiO_04gm/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1WUt0ka-yyFo63FTM49NWDYNDNiO_04gm</t>
+  </si>
+  <si>
+    <t>logo-ferremax.png</t>
+  </si>
+  <si>
+    <t>1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq</t>
+  </si>
+  <si>
+    <t>login-bg.png</t>
+  </si>
+  <si>
+    <t>1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn</t>
+  </si>
+  <si>
     <t>evol0088.webp</t>
   </si>
   <si>
@@ -225,6 +285,15 @@
     <t>https://drive.google.com/uc?export=view&amp;id=18PywtpchMGSXpToC9emFelBbnkIO851b</t>
   </si>
   <si>
+    <t>1FZ2sujtzzwh8q9gK9EYWkPQbxd1-_zlu</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FZ2sujtzzwh8q9gK9EYWkPQbxd1-_zlu/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1FZ2sujtzzwh8q9gK9EYWkPQbxd1-_zlu</t>
+  </si>
+  <si>
     <t>evol3970.jpg</t>
   </si>
   <si>
@@ -249,18 +318,6 @@
     <t>https://drive.google.com/uc?export=view&amp;id=1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn</t>
   </si>
   <si>
-    <t>evol1000.jpg</t>
-  </si>
-  <si>
-    <t>1JOGeDQIZAeeyagdPYV6jq8CvQ-i0BNwl</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1JOGeDQIZAeeyagdPYV6jq8CvQ-i0BNwl/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=view&amp;id=1JOGeDQIZAeeyagdPYV6jq8CvQ-i0BNwl</t>
-  </si>
-  <si>
     <t>evol0174.jpg</t>
   </si>
   <si>
@@ -331,97 +388,13 @@
   </si>
   <si>
     <t>https://drive.google.com/uc?export=view&amp;id=1OFRhg3wSMFQ6TYNMMxMweX1JIEsXmKdY</t>
-  </si>
-  <si>
-    <t>precio</t>
-  </si>
-  <si>
-    <t>articulo</t>
-  </si>
-  <si>
-    <t>descripcion</t>
-  </si>
-  <si>
-    <t>CEPILLO MANU.CURVO BCE.Mgo.Pvc NEON</t>
-  </si>
-  <si>
-    <t>CEPILLO MANUAL ACE.4x19 C/Cab. NEON</t>
-  </si>
-  <si>
-    <t>SOPORTE P/LED LCD Artic.14a52"DUBAI</t>
-  </si>
-  <si>
-    <t>ARCO.SIERRA JUNIORS C/Hja      NEON</t>
-  </si>
-  <si>
-    <t>ANTEOJOS PP C/Patill.Reg.Gris  NEON</t>
-  </si>
-  <si>
-    <t>LLAVE/MANDRIL 13mm.P/TALADRO ROTTWEILER</t>
-  </si>
-  <si>
-    <t>ESCUADRA MAGNETICA 5" PROF.    NEON</t>
-  </si>
-  <si>
-    <t>DISCO DIAMANT.TURBO 115mmROTTWEILER</t>
-  </si>
-  <si>
-    <t>MARTILLO GALPONERO PROF.C/MAD. ONZA</t>
-  </si>
-  <si>
-    <t>TRAMPA P/LAUCHA  DE MADERA     NEON</t>
-  </si>
-  <si>
-    <t>KIT RIEGO 1 PISTOLA 7 FUN. 2 ACOPLES</t>
-  </si>
-  <si>
-    <t>GRAMPA P/ENGRA.DE 8mm(cj.1000u)NEON</t>
-  </si>
-  <si>
-    <t>CANDADO DORADO ESPEJADO  32mm.DUBAI</t>
-  </si>
-  <si>
-    <t>CIERRE VAIVEN a RODILLO        NEON</t>
-  </si>
-  <si>
-    <t>SIERRA CIRC.40 dte/WDIAx113mmROTTWEILE</t>
-  </si>
-  <si>
-    <t>ARCO.SIERRA PUÑO PVC/PINT.EPOX.NEON</t>
-  </si>
-  <si>
-    <t>TACHA BRONCEADx0.75gr.Cjx100un NEON</t>
-  </si>
-  <si>
-    <t>VIDRIO P/SOLDAR RECTAN.TRANSP. NEON</t>
-  </si>
-  <si>
-    <t>TIJERA CORTATUBO.FUS.AGUA 42mmROTTWAILER</t>
-  </si>
-  <si>
-    <t>MECHA P/FAROL A GAS/500bujias  NEON</t>
-  </si>
-  <si>
-    <t>DISCO FLAP O/ALU.grno 60x115ROTTWAILLER</t>
-  </si>
-  <si>
-    <t>LAPIZ.CARPINT.24cmLARGOx12unROTTWEILLER</t>
-  </si>
-  <si>
-    <t>ANTEOJOS POLICARBONATO TRANSP. NEON</t>
-  </si>
-  <si>
-    <t>DESTORNILLADOR PHILIPS (5x100) KETTLER</t>
-  </si>
-  <si>
-    <t>DISCO DIAMANT.CONTI 115mmROTTWEILER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,14 +406,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -478,16 +443,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,23 +750,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="4" width="29.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="47.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="76.7109375" customWidth="1"/>
+    <col min="4" max="4" width="82.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,17 +777,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -843,18 +791,8 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="str">
-        <f t="shared" ref="E2:E26" si="0">LEFT(A2,FIND(".",A2)-1)</f>
-        <v>evol0088</v>
-      </c>
-      <c r="F2">
-        <v>1665.69</v>
-      </c>
-      <c r="G2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -867,18 +805,8 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evol0330</v>
-      </c>
-      <c r="F3">
-        <v>2807.99</v>
-      </c>
-      <c r="G3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -891,18 +819,8 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evol3089</v>
-      </c>
-      <c r="F4">
-        <v>23479.66</v>
-      </c>
-      <c r="G4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -915,18 +833,8 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evol0025</v>
-      </c>
-      <c r="F5">
-        <v>1417.01</v>
-      </c>
-      <c r="G5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -939,18 +847,8 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evol3245</v>
-      </c>
-      <c r="F6">
-        <v>2487.14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -963,18 +861,8 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evol1970</v>
-      </c>
-      <c r="F7">
-        <v>1195.78</v>
-      </c>
-      <c r="G7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -987,18 +875,8 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evol115la</v>
-      </c>
-      <c r="F8">
-        <v>11709.88</v>
-      </c>
-      <c r="G8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1011,18 +889,8 @@
       <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evo115tu</v>
-      </c>
-      <c r="F9">
-        <v>3984.87</v>
-      </c>
-      <c r="G9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1035,18 +903,8 @@
       <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evol0028</v>
-      </c>
-      <c r="F10">
-        <v>8059.31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1059,18 +917,8 @@
       <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evol3510</v>
-      </c>
-      <c r="F11">
-        <v>1053.1600000000001</v>
-      </c>
-      <c r="G11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1083,18 +931,8 @@
       <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evorieg153</v>
-      </c>
-      <c r="F12">
-        <v>9655.6820000000007</v>
-      </c>
-      <c r="G12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1107,18 +945,8 @@
       <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evol0070</v>
-      </c>
-      <c r="F13">
-        <v>962.22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1131,18 +959,8 @@
       <c r="D14" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evol2530</v>
-      </c>
-      <c r="F14">
-        <v>1971.38</v>
-      </c>
-      <c r="G14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1155,18 +973,8 @@
       <c r="D15" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evol0107</v>
-      </c>
-      <c r="F15">
-        <v>377.35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1179,18 +987,8 @@
       <c r="D16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evol0435</v>
-      </c>
-      <c r="F16">
-        <v>4482.91</v>
-      </c>
-      <c r="G16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -1203,18 +1001,8 @@
       <c r="D17" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evol0111</v>
-      </c>
-      <c r="F17">
-        <v>4102.0200000000004</v>
-      </c>
-      <c r="G17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -1227,18 +1015,8 @@
       <c r="D18" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evol3970</v>
-      </c>
-      <c r="F18">
-        <v>1015.16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -1251,18 +1029,8 @@
       <c r="D19" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evol0177</v>
-      </c>
-      <c r="F19">
-        <v>239.18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -1275,18 +1043,8 @@
       <c r="D20" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evol1000</v>
-      </c>
-      <c r="F20">
-        <v>9779.93</v>
-      </c>
-      <c r="G20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -1299,18 +1057,8 @@
       <c r="D21" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evol0174</v>
-      </c>
-      <c r="F21">
-        <v>105.351</v>
-      </c>
-      <c r="G21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -1323,115 +1071,135 @@
       <c r="D22" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evol2205</v>
-      </c>
-      <c r="F22">
-        <v>1118.2</v>
-      </c>
-      <c r="G22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
         <v>88</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>89</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>90</v>
       </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evol1361</v>
-      </c>
-      <c r="F23">
-        <v>533.08000000000004</v>
-      </c>
-      <c r="G23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>92</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>93</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>94</v>
       </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evol3210</v>
-      </c>
-      <c r="F24">
-        <v>2166.81</v>
-      </c>
-      <c r="G24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>96</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>97</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>98</v>
       </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evol5530</v>
-      </c>
-      <c r="F25">
-        <v>1872.17</v>
-      </c>
-      <c r="G25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>100</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>101</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>102</v>
       </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>evo115co</v>
-      </c>
-      <c r="F26">
-        <v>3359.43</v>
-      </c>
-      <c r="G26" t="s">
-        <v>131</v>
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/imagenes_drive.xlsx
+++ b/imagenes_drive.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7815" windowHeight="5205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>nombre</t>
   </si>
@@ -33,6 +33,18 @@
     <t>link_vista</t>
   </si>
   <si>
+    <t>evol0088.png</t>
+  </si>
+  <si>
+    <t>1nfI5VLK3uGqGq2WeJTrgiggCfpxO2nW9</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nfI5VLK3uGqGq2WeJTrgiggCfpxO2nW9/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1nfI5VLK3uGqGq2WeJTrgiggCfpxO2nW9</t>
+  </si>
+  <si>
     <t>evol1000.png</t>
   </si>
   <si>
@@ -94,15 +106,6 @@
   </si>
   <si>
     <t>evol0088.webp</t>
-  </si>
-  <si>
-    <t>1wU3WSWy2QtVqepB5lBClIlXkK_xWANWB</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1wU3WSWy2QtVqepB5lBClIlXkK_xWANWB/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=view&amp;id=1wU3WSWy2QtVqepB5lBClIlXkK_xWANWB</t>
   </si>
   <si>
     <t>evol0330.jpg</t>
@@ -406,6 +409,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -753,15 +757,12 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="76.7109375" customWidth="1"/>
-    <col min="4" max="4" width="82.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -864,342 +865,341 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/imagenes_drive.xlsx
+++ b/imagenes_drive.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7815" windowHeight="5205"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>nombre</t>
   </si>
@@ -33,6 +33,54 @@
     <t>link_vista</t>
   </si>
   <si>
+    <t>EGWX 01.png</t>
+  </si>
+  <si>
+    <t>1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ</t>
+  </si>
+  <si>
+    <t>EGWX 02.png</t>
+  </si>
+  <si>
+    <t>1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H</t>
+  </si>
+  <si>
+    <t>PX120314.png</t>
+  </si>
+  <si>
+    <t>1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l</t>
+  </si>
+  <si>
+    <t>PROBOT41.png</t>
+  </si>
+  <si>
+    <t>1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_</t>
+  </si>
+  <si>
     <t>evol0088.png</t>
   </si>
   <si>
@@ -81,6 +129,30 @@
     <t>https://drive.google.com/uc?export=view&amp;id=1WUt0ka-yyFo63FTM49NWDYNDNiO_04gm</t>
   </si>
   <si>
+    <t>GAG12103AR.jpg</t>
+  </si>
+  <si>
+    <t>19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM</t>
+  </si>
+  <si>
+    <t>TOR01522.jpg</t>
+  </si>
+  <si>
+    <t>1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx</t>
+  </si>
+  <si>
     <t>logo-ferremax.png</t>
   </si>
   <si>
@@ -105,9 +177,6 @@
     <t>https://drive.google.com/uc?export=view&amp;id=1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn</t>
   </si>
   <si>
-    <t>evol0088.webp</t>
-  </si>
-  <si>
     <t>evol0330.jpg</t>
   </si>
   <si>
@@ -216,9 +285,6 @@
     <t>https://drive.google.com/uc?export=view&amp;id=1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV</t>
   </si>
   <si>
-    <t>evorieg153.jpg</t>
-  </si>
-  <si>
     <t>1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG</t>
   </si>
   <si>
@@ -288,15 +354,6 @@
     <t>https://drive.google.com/uc?export=view&amp;id=18PywtpchMGSXpToC9emFelBbnkIO851b</t>
   </si>
   <si>
-    <t>1FZ2sujtzzwh8q9gK9EYWkPQbxd1-_zlu</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1FZ2sujtzzwh8q9gK9EYWkPQbxd1-_zlu/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=view&amp;id=1FZ2sujtzzwh8q9gK9EYWkPQbxd1-_zlu</t>
-  </si>
-  <si>
     <t>evol3970.jpg</t>
   </si>
   <si>
@@ -391,13 +448,19 @@
   </si>
   <si>
     <t>https://drive.google.com/uc?export=view&amp;id=1OFRhg3wSMFQ6TYNMMxMweX1JIEsXmKdY</t>
+  </si>
+  <si>
+    <t>articulo</t>
+  </si>
+  <si>
+    <t>evorieg0153.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,7 +472,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -420,7 +489,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -443,15 +512,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,18 +838,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="106.7109375" customWidth="1"/>
+    <col min="4" max="4" width="107.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,8 +866,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -792,8 +883,12 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="str">
+        <f>LEFT(A2,FIND(".",A2)-1)</f>
+        <v>EGWX 01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -806,8 +901,12 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="str">
+        <f>LEFT(A3,FIND(".",A3)-1)</f>
+        <v>EGWX 02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -820,8 +919,12 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="str">
+        <f t="shared" ref="E4:E36" si="0">LEFT(A4,FIND(".",A4)-1)</f>
+        <v>PX120314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -834,8 +937,12 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PROBOT41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -848,8 +955,12 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evol0088</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -862,344 +973,535 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evol1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evol0330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFA0261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>GAG12103AR</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TOR01522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>logo-ferremax</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>login-bg</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>55</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evol0330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>59</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evol3089</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>61</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>62</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>63</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evol0025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>65</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>66</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>67</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evol3245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>70</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>71</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evol1970</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>73</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>74</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>75</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evol115la</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>77</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>78</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>79</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evo115tu</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>81</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>82</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>83</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evol0028</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>85</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>86</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>87</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evol3510</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>89</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>90</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evorieg0153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>92</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>93</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>94</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evol0070</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>96</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>97</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>98</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evol2530</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>100</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>101</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>102</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evol0107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>104</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>105</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>106</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evol0435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>108</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>109</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>110</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evol0111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>112</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>113</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>114</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evol3970</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>116</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>118</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evol0177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>120</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>121</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>122</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evol0174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>123</v>
+      </c>
+      <c r="B32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evol2205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evol1361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evol3210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evol5530</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>evo115co</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/imagenes_drive.xlsx
+++ b/imagenes_drive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,856 +458,944 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EVOL0174.png</t>
+          <t>G1685AR.png</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt</t>
+          <t>1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TF414.png</t>
+          <t>G12301AR-.png</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
+          <t>1_UBXdXmyrPs0EwBnhV90mfhI3ZdSyn8H</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1_UBXdXmyrPs0EwBnhV90mfhI3ZdSyn8H/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1_UBXdXmyrPs0EwBnhV90mfhI3ZdSyn8H</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>evo115la.jpg</t>
+          <t>ISAALAMF16.png</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1xB_fFOvMWyAcqkpvUq7xMqq-iHuscSbd</t>
+          <t>14BogV6rHDIcL1bJzvKgItflTszBh2Yjx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1xB_fFOvMWyAcqkpvUq7xMqq-iHuscSbd/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/14BogV6rHDIcL1bJzvKgItflTszBh2Yjx/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1xB_fFOvMWyAcqkpvUq7xMqq-iHuscSbd</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=14BogV6rHDIcL1bJzvKgItflTszBh2Yjx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CON205.png</t>
+          <t>EA5310MT.png</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1LJxUYab9xJeV45iqUUz8RhH5UbnlycXa</t>
+          <t>168x1fBgYxstgD60EyOUekzYk21Cswij6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1LJxUYab9xJeV45iqUUz8RhH5UbnlycXa/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/168x1fBgYxstgD60EyOUekzYk21Cswij6/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1LJxUYab9xJeV45iqUUz8RhH5UbnlycXa</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=168x1fBgYxstgD60EyOUekzYk21Cswij6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ALI70.png</t>
+          <t>EVOL0174.png</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>118_Mew5CJz8YNrVjxiGgKooC9GHL40wA</t>
+          <t>1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/118_Mew5CJz8YNrVjxiGgKooC9GHL40wA/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=118_Mew5CJz8YNrVjxiGgKooC9GHL40wA</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SIM18310.png</t>
+          <t>TF414.png</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13cioMVntBUSCdPldxG-2kDu8-KoWxIa5</t>
+          <t>1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/13cioMVntBUSCdPldxG-2kDu8-KoWxIa5/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=13cioMVntBUSCdPldxG-2kDu8-KoWxIa5</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KIMERAC1.png</t>
+          <t>evo115la.jpg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS</t>
+          <t>1xB_fFOvMWyAcqkpvUq7xMqq-iHuscSbd</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1xB_fFOvMWyAcqkpvUq7xMqq-iHuscSbd/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1xB_fFOvMWyAcqkpvUq7xMqq-iHuscSbd</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PROBOT41.png</t>
+          <t>CON205.png</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_</t>
+          <t>1LJxUYab9xJeV45iqUUz8RhH5UbnlycXa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1LJxUYab9xJeV45iqUUz8RhH5UbnlycXa/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1LJxUYab9xJeV45iqUUz8RhH5UbnlycXa</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>evorieg0153.jpg</t>
+          <t>ALI70.png</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG</t>
+          <t>118_Mew5CJz8YNrVjxiGgKooC9GHL40wA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/118_Mew5CJz8YNrVjxiGgKooC9GHL40wA/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=118_Mew5CJz8YNrVjxiGgKooC9GHL40wA</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EGWX 01.png</t>
+          <t>SIM18310.png</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ</t>
+          <t>13cioMVntBUSCdPldxG-2kDu8-KoWxIa5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/13cioMVntBUSCdPldxG-2kDu8-KoWxIa5/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=13cioMVntBUSCdPldxG-2kDu8-KoWxIa5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EGWX 02.png</t>
+          <t>KIMERAC1.png</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H</t>
+          <t>1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PX120314.png</t>
+          <t>PROBOT41.png</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l</t>
+          <t>1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>evol0088.png</t>
+          <t>evorieg0153.jpg</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1nfI5VLK3uGqGq2WeJTrgiggCfpxO2nW9</t>
+          <t>1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1nfI5VLK3uGqGq2WeJTrgiggCfpxO2nW9/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1nfI5VLK3uGqGq2WeJTrgiggCfpxO2nW9</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>evol1000.png</t>
+          <t>EGWX 01.png</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k</t>
+          <t>1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>evol0330.png</t>
+          <t>EGWX 02.png</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1_woEN7ahCyphJcQooMGZU51SaSrhcw2H</t>
+          <t>1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1_woEN7ahCyphJcQooMGZU51SaSrhcw2H/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1_woEN7ahCyphJcQooMGZU51SaSrhcw2H</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GAG12103AR.jpg</t>
+          <t>PX120314.png</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM</t>
+          <t>1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TOR01522.jpg</t>
+          <t>evol0088.png</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx</t>
+          <t>1nfI5VLK3uGqGq2WeJTrgiggCfpxO2nW9</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1nfI5VLK3uGqGq2WeJTrgiggCfpxO2nW9/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1nfI5VLK3uGqGq2WeJTrgiggCfpxO2nW9</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>logo-ferremax.png</t>
+          <t>evol1000.png</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq</t>
+          <t>1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>login-bg.png</t>
+          <t>evol0330.png</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn</t>
+          <t>1_woEN7ahCyphJcQooMGZU51SaSrhcw2H</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1_woEN7ahCyphJcQooMGZU51SaSrhcw2H/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1_woEN7ahCyphJcQooMGZU51SaSrhcw2H</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>evol0330.jpg</t>
+          <t>GAG12103AR.jpg</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1p1QSEbeQl-dK5JE4QS99d5BD1VTBKT77</t>
+          <t>19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1p1QSEbeQl-dK5JE4QS99d5BD1VTBKT77/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1p1QSEbeQl-dK5JE4QS99d5BD1VTBKT77</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>evol3089.jpg</t>
+          <t>TOR01522.jpg</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1Mzg3Z8QvvJabPNR36K7tFWAEeTY2U2Hw</t>
+          <t>1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Mzg3Z8QvvJabPNR36K7tFWAEeTY2U2Hw/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Mzg3Z8QvvJabPNR36K7tFWAEeTY2U2Hw</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>evol0025.jpg</t>
+          <t>logo-ferremax.png</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO</t>
+          <t>1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>evol3245.jpg</t>
+          <t>login-bg.png</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM</t>
+          <t>1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>evol1970.jpg</t>
+          <t>evol0330.jpg</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn</t>
+          <t>1p1QSEbeQl-dK5JE4QS99d5BD1VTBKT77</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1p1QSEbeQl-dK5JE4QS99d5BD1VTBKT77/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1p1QSEbeQl-dK5JE4QS99d5BD1VTBKT77</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>evo115tu.jpg</t>
+          <t>evol3089.jpg</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g</t>
+          <t>1Mzg3Z8QvvJabPNR36K7tFWAEeTY2U2Hw</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Mzg3Z8QvvJabPNR36K7tFWAEeTY2U2Hw/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Mzg3Z8QvvJabPNR36K7tFWAEeTY2U2Hw</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>evol0028.jpg</t>
+          <t>evol0025.jpg</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7</t>
+          <t>1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>evol3510.jpg</t>
+          <t>evol3245.jpg</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV</t>
+          <t>1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>evol0070.jpg</t>
+          <t>evol1970.jpg</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ</t>
+          <t>14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>evol2530.jpg</t>
+          <t>evo115tu.jpg</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No</t>
+          <t>1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>evol0107.jpg</t>
+          <t>evol0028.jpg</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV</t>
+          <t>1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>evol0435.jpg</t>
+          <t>evol3510.jpg</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x</t>
+          <t>1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>evol0111.jpg</t>
+          <t>evol0070.jpg</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>18PywtpchMGSXpToC9emFelBbnkIO851b</t>
+          <t>1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/18PywtpchMGSXpToC9emFelBbnkIO851b/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=18PywtpchMGSXpToC9emFelBbnkIO851b</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>evol3970.jpg</t>
+          <t>evol2530.jpg</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls</t>
+          <t>18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>evol0177.jpg</t>
+          <t>evol0107.jpg</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn</t>
+          <t>13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>evol2205.jpg</t>
+          <t>evol0435.jpg</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK</t>
+          <t>1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>evol1361.jpg</t>
+          <t>evol0111.jpg</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8</t>
+          <t>18PywtpchMGSXpToC9emFelBbnkIO851b</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/18PywtpchMGSXpToC9emFelBbnkIO851b/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=18PywtpchMGSXpToC9emFelBbnkIO851b</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>evol3210.jpg</t>
+          <t>evol3970.jpg</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1TArjaa7JzfoYKxuitLH3gEeurJie_XEr</t>
+          <t>1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1TArjaa7JzfoYKxuitLH3gEeurJie_XEr/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1TArjaa7JzfoYKxuitLH3gEeurJie_XEr</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>evol5530.jpg</t>
+          <t>evol0177.jpg</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1RXomu2FAaptqak7anXGjSh0oKhGaZcnF</t>
+          <t>1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1RXomu2FAaptqak7anXGjSh0oKhGaZcnF/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1RXomu2FAaptqak7anXGjSh0oKhGaZcnF</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>evol2205.jpg</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>evol1361.jpg</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>evol3210.jpg</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1TArjaa7JzfoYKxuitLH3gEeurJie_XEr</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1TArjaa7JzfoYKxuitLH3gEeurJie_XEr/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1TArjaa7JzfoYKxuitLH3gEeurJie_XEr</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>evol5530.jpg</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1RXomu2FAaptqak7anXGjSh0oKhGaZcnF</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1RXomu2FAaptqak7anXGjSh0oKhGaZcnF/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1RXomu2FAaptqak7anXGjSh0oKhGaZcnF</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>evo115co.jpg</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>1OFRhg3wSMFQ6TYNMMxMweX1JIEsXmKdY</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>https://drive.google.com/file/d/1OFRhg3wSMFQ6TYNMMxMweX1JIEsXmKdY/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>https://drive.google.com/uc?export=view&amp;id=1OFRhg3wSMFQ6TYNMMxMweX1JIEsXmKdY</t>
         </is>

--- a/imagenes_drive.xlsx
+++ b/imagenes_drive.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t>nombre</t>
   </si>
@@ -36,6 +36,18 @@
     <t>articulo</t>
   </si>
   <si>
+    <t>TF.414.png</t>
+  </si>
+  <si>
+    <t>1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
+  </si>
+  <si>
     <t>GAG1685AR.png</t>
   </si>
   <si>
@@ -51,19 +63,19 @@
     <t>GAG1685AR</t>
   </si>
   <si>
-    <t>GAG12301AR.png</t>
-  </si>
-  <si>
-    <t>1_UBXdXmyrPs0EwBnhV90mfhI3ZdSyn8H</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1_UBXdXmyrPs0EwBnhV90mfhI3ZdSyn8H/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=view&amp;id=1_UBXdXmyrPs0EwBnhV90mfhI3ZdSyn8H</t>
-  </si>
-  <si>
-    <t>GAG12301AR</t>
+    <t>GAG1910AR.png</t>
+  </si>
+  <si>
+    <t>1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl</t>
+  </si>
+  <si>
+    <t>GAG1910AR</t>
   </si>
   <si>
     <t>ISAALAMF16.png</t>
@@ -111,21 +123,6 @@
     <t>EVOL0174</t>
   </si>
   <si>
-    <t>TF414.png</t>
-  </si>
-  <si>
-    <t>1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=view&amp;id=1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
-  </si>
-  <si>
-    <t>TF414</t>
-  </si>
-  <si>
     <t>evo115la.jpg</t>
   </si>
   <si>
@@ -396,18 +393,6 @@
     <t>login-bg</t>
   </si>
   <si>
-    <t>evol0330.jpg</t>
-  </si>
-  <si>
-    <t>1p1QSEbeQl-dK5JE4QS99d5BD1VTBKT77</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1p1QSEbeQl-dK5JE4QS99d5BD1VTBKT77/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=view&amp;id=1p1QSEbeQl-dK5JE4QS99d5BD1VTBKT77</t>
-  </si>
-  <si>
     <t>evol3089.jpg</t>
   </si>
   <si>
@@ -691,6 +676,9 @@
   </si>
   <si>
     <t>evo115co</t>
+  </si>
+  <si>
+    <t>TF.414</t>
   </si>
 </sst>
 </file>
@@ -1054,14 +1042,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1095,415 +1085,415 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
         <v>55</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>56</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>57</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>58</v>
-      </c>
-      <c r="E12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
         <v>60</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>62</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>63</v>
-      </c>
-      <c r="E13" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
         <v>65</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>66</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>67</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
         <v>70</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>71</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>72</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>73</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
         <v>75</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>76</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>77</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>78</v>
-      </c>
-      <c r="E16" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
         <v>80</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>81</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>82</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>83</v>
-      </c>
-      <c r="E17" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
         <v>85</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>86</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>87</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>88</v>
-      </c>
-      <c r="E18" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
         <v>90</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>91</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>92</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>93</v>
-      </c>
-      <c r="E19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
         <v>95</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>96</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>97</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>98</v>
-      </c>
-      <c r="E20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
         <v>100</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>101</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>102</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>103</v>
-      </c>
-      <c r="E21" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
         <v>105</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>106</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>107</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>108</v>
-      </c>
-      <c r="E22" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>111</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>112</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>113</v>
-      </c>
-      <c r="E23" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" t="s">
         <v>115</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>116</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>117</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>118</v>
-      </c>
-      <c r="E24" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" t="s">
         <v>120</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>121</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>122</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>123</v>
-      </c>
-      <c r="E25" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" t="s">
         <v>125</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>126</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>127</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>128</v>
-      </c>
-      <c r="E26" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1810,23 +1800,6 @@
       </c>
       <c r="E44" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>219</v>
-      </c>
-      <c r="B45" t="s">
-        <v>220</v>
-      </c>
-      <c r="C45" t="s">
-        <v>221</v>
-      </c>
-      <c r="D45" t="s">
-        <v>222</v>
-      </c>
-      <c r="E45" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/imagenes_drive.xlsx
+++ b/imagenes_drive.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t>nombre</t>
   </si>
@@ -34,6 +34,21 @@
   </si>
   <si>
     <t>articulo</t>
+  </si>
+  <si>
+    <t>EVOL3975.jpg</t>
+  </si>
+  <si>
+    <t>1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM</t>
+  </si>
+  <si>
+    <t>EVOL3975</t>
   </si>
   <si>
     <t>TF.414.png</t>
@@ -1042,17 +1057,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="45.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1085,24 +1096,24 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1800,6 +1811,23 @@
       </c>
       <c r="E44" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" t="s">
+        <v>221</v>
+      </c>
+      <c r="D45" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/imagenes_drive.xlsx
+++ b/imagenes_drive.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
   <si>
     <t>nombre</t>
   </si>
@@ -36,6 +36,141 @@
     <t>articulo</t>
   </si>
   <si>
+    <t>EVOL4753.png</t>
+  </si>
+  <si>
+    <t>1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t</t>
+  </si>
+  <si>
+    <t>EVOL4753</t>
+  </si>
+  <si>
+    <t>EVOL4755.png</t>
+  </si>
+  <si>
+    <t>1MdUoOX1z27tO24PDAFNxtWye61T69a8Z</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MdUoOX1z27tO24PDAFNxtWye61T69a8Z/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1MdUoOX1z27tO24PDAFNxtWye61T69a8Z</t>
+  </si>
+  <si>
+    <t>EVOL4755</t>
+  </si>
+  <si>
+    <t>EVOL5530.png</t>
+  </si>
+  <si>
+    <t>1JrJHwCRw-twjmcec9_dOUmV31dTdvauq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JrJHwCRw-twjmcec9_dOUmV31dTdvauq/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1JrJHwCRw-twjmcec9_dOUmV31dTdvauq</t>
+  </si>
+  <si>
+    <t>EVOL5530</t>
+  </si>
+  <si>
+    <t>EVOL3420.png</t>
+  </si>
+  <si>
+    <t>1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz</t>
+  </si>
+  <si>
+    <t>EVOL3420</t>
+  </si>
+  <si>
+    <t>EVOL0043.png</t>
+  </si>
+  <si>
+    <t>1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m</t>
+  </si>
+  <si>
+    <t>EVOL0043</t>
+  </si>
+  <si>
+    <t>SAHANAF2H.png</t>
+  </si>
+  <si>
+    <t>1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c</t>
+  </si>
+  <si>
+    <t>SAHANAF2H</t>
+  </si>
+  <si>
+    <t>SAHANAF1H.png</t>
+  </si>
+  <si>
+    <t>1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0</t>
+  </si>
+  <si>
+    <t>SAHANAF1H</t>
+  </si>
+  <si>
+    <t>evol0088.png</t>
+  </si>
+  <si>
+    <t>1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8</t>
+  </si>
+  <si>
+    <t>evol0088</t>
+  </si>
+  <si>
+    <t>CON205.png</t>
+  </si>
+  <si>
+    <t>1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu</t>
+  </si>
+  <si>
+    <t>CON205</t>
+  </si>
+  <si>
     <t>EVOL3975.jpg</t>
   </si>
   <si>
@@ -153,21 +288,6 @@
     <t>evo115la</t>
   </si>
   <si>
-    <t>CON205.png</t>
-  </si>
-  <si>
-    <t>1LJxUYab9xJeV45iqUUz8RhH5UbnlycXa</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1LJxUYab9xJeV45iqUUz8RhH5UbnlycXa/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=view&amp;id=1LJxUYab9xJeV45iqUUz8RhH5UbnlycXa</t>
-  </si>
-  <si>
-    <t>CON205</t>
-  </si>
-  <si>
     <t>ALI70.png</t>
   </si>
   <si>
@@ -303,21 +423,6 @@
     <t>PERFA0261</t>
   </si>
   <si>
-    <t>evol0088.png</t>
-  </si>
-  <si>
-    <t>1nfI5VLK3uGqGq2WeJTrgiggCfpxO2nW9</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1nfI5VLK3uGqGq2WeJTrgiggCfpxO2nW9/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=view&amp;id=1nfI5VLK3uGqGq2WeJTrgiggCfpxO2nW9</t>
-  </si>
-  <si>
-    <t>evol0088</t>
-  </si>
-  <si>
     <t>evol1000.png</t>
   </si>
   <si>
@@ -661,21 +766,6 @@
   </si>
   <si>
     <t>evol3210</t>
-  </si>
-  <si>
-    <t>evol5530.jpg</t>
-  </si>
-  <si>
-    <t>1RXomu2FAaptqak7anXGjSh0oKhGaZcnF</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1RXomu2FAaptqak7anXGjSh0oKhGaZcnF/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=view&amp;id=1RXomu2FAaptqak7anXGjSh0oKhGaZcnF</t>
-  </si>
-  <si>
-    <t>evol5530</t>
   </si>
   <si>
     <t>evo115co.jpg</t>
@@ -712,7 +802,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1057,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,160 +1202,160 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1828,6 +1917,108 @@
       </c>
       <c r="E45" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>224</v>
+      </c>
+      <c r="B46" t="s">
+        <v>225</v>
+      </c>
+      <c r="C46" t="s">
+        <v>226</v>
+      </c>
+      <c r="D46" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" t="s">
+        <v>230</v>
+      </c>
+      <c r="C47" t="s">
+        <v>231</v>
+      </c>
+      <c r="D47" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>234</v>
+      </c>
+      <c r="B48" t="s">
+        <v>235</v>
+      </c>
+      <c r="C48" t="s">
+        <v>236</v>
+      </c>
+      <c r="D48" t="s">
+        <v>237</v>
+      </c>
+      <c r="E48" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>239</v>
+      </c>
+      <c r="B49" t="s">
+        <v>240</v>
+      </c>
+      <c r="C49" t="s">
+        <v>241</v>
+      </c>
+      <c r="D49" t="s">
+        <v>242</v>
+      </c>
+      <c r="E49" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>244</v>
+      </c>
+      <c r="B50" t="s">
+        <v>245</v>
+      </c>
+      <c r="C50" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" t="s">
+        <v>247</v>
+      </c>
+      <c r="E50" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>249</v>
+      </c>
+      <c r="B51" t="s">
+        <v>250</v>
+      </c>
+      <c r="C51" t="s">
+        <v>251</v>
+      </c>
+      <c r="D51" t="s">
+        <v>252</v>
+      </c>
+      <c r="E51" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/imagenes_drive.xlsx
+++ b/imagenes_drive.xlsx
@@ -198,6 +198,9 @@
     <t>https://drive.google.com/uc?export=view&amp;id=1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
   </si>
   <si>
+    <t>TF.414</t>
+  </si>
+  <si>
     <t>GAG1685AR.png</t>
   </si>
   <si>
@@ -781,9 +784,6 @@
   </si>
   <si>
     <t>evo115co</t>
-  </si>
-  <si>
-    <t>TF.414</t>
   </si>
 </sst>
 </file>
@@ -1148,11 +1148,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1355,670 +1356,670 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>254</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B38" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C39" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B42" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B43" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E43" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B44" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D45" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E45" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B46" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C46" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D46" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E46" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B47" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D47" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E47" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C48" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B49" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C49" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D49" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E49" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B50" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C50" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D50" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E50" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B51" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C51" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D51" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E51" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/imagenes_drive.xlsx
+++ b/imagenes_drive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,1591 +463,2050 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EVOL1208.png</t>
+          <t>EVOL1154.png</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1FYOCBYNRBYVv1scwGIYMsC8JT-SqrRw2</t>
+          <t>1AXsDyi20NTrPHfxF0kR575sCVSw0ms-v</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1FYOCBYNRBYVv1scwGIYMsC8JT-SqrRw2/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1AXsDyi20NTrPHfxF0kR575sCVSw0ms-v/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1FYOCBYNRBYVv1scwGIYMsC8JT-SqrRw2</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1AXsDyi20NTrPHfxF0kR575sCVSw0ms-v</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EVOL1208</t>
+          <t>EVOL1154</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EVOL0135.png</t>
+          <t>EVOL1152.png</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1Z3lQgkeXUJr8Eatj6VeMofuFP6FodDKc</t>
+          <t>1WIL5-OlkISb4Jgw7r4Z-MY3GQlaymSLF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Z3lQgkeXUJr8Eatj6VeMofuFP6FodDKc/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1WIL5-OlkISb4Jgw7r4Z-MY3GQlaymSLF/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Z3lQgkeXUJr8Eatj6VeMofuFP6FodDKc</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1WIL5-OlkISb4Jgw7r4Z-MY3GQlaymSLF</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EVOL0135</t>
+          <t>EVOL1152</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EVOL2135.png</t>
+          <t>EVOL1150.png</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1olYmdhMIr_eFZFwfKZLENH6-kaRhAYY2</t>
+          <t>140FdaGH8uQQ35bKF6UxfK-GcsNRfi6Vd</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1olYmdhMIr_eFZFwfKZLENH6-kaRhAYY2/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/140FdaGH8uQQ35bKF6UxfK-GcsNRfi6Vd/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1olYmdhMIr_eFZFwfKZLENH6-kaRhAYY2</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=140FdaGH8uQQ35bKF6UxfK-GcsNRfi6Vd</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EVOL2135</t>
+          <t>EVOL1150</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EVOL1200.png</t>
+          <t>EVOL1165.png</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1Rm9BBRImLieuYju8WsEZ3m5ezvQAO47j</t>
+          <t>1vEf6OOzcfBVbZfbXB0YWrvIwOG4TeEIO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Rm9BBRImLieuYju8WsEZ3m5ezvQAO47j/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1vEf6OOzcfBVbZfbXB0YWrvIwOG4TeEIO/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Rm9BBRImLieuYju8WsEZ3m5ezvQAO47j</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1vEf6OOzcfBVbZfbXB0YWrvIwOG4TeEIO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EVOL1200</t>
+          <t>EVOL1165</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EVOL1631.png</t>
+          <t>EVOL1160.png</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13z80AE4-qQfFh2mSZDaCCb2jDo-OZLNN</t>
+          <t>1hhox9FvrlvQQzBpx43_mRx6BX6jbPCFY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/13z80AE4-qQfFh2mSZDaCCb2jDo-OZLNN/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1hhox9FvrlvQQzBpx43_mRx6BX6jbPCFY/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=13z80AE4-qQfFh2mSZDaCCb2jDo-OZLNN</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1hhox9FvrlvQQzBpx43_mRx6BX6jbPCFY</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EVOL1631</t>
+          <t>EVOL1160</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EVOL0108.png</t>
+          <t>EVOL2215.png</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1CrRWGci78tG63-mOTBZd4pBA8QBUfJ16</t>
+          <t>1JC2spLFD9wfeL21RGXw7k7tOmtBoxW37</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1CrRWGci78tG63-mOTBZd4pBA8QBUfJ16/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1JC2spLFD9wfeL21RGXw7k7tOmtBoxW37/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1CrRWGci78tG63-mOTBZd4pBA8QBUfJ16</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1JC2spLFD9wfeL21RGXw7k7tOmtBoxW37</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EVOL0108</t>
+          <t>EVOL2215</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EVOL0340.png</t>
+          <t>EVOL2213.png</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1eNc8s9f6SvIp_OYtCmvflwSyvavrgOD_</t>
+          <t>1DNP9gvL6lqvp6wXj3562s916dUaZvsVI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1eNc8s9f6SvIp_OYtCmvflwSyvavrgOD_/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1DNP9gvL6lqvp6wXj3562s916dUaZvsVI/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1eNc8s9f6SvIp_OYtCmvflwSyvavrgOD_</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1DNP9gvL6lqvp6wXj3562s916dUaZvsVI</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EVOL0340</t>
+          <t>EVOL2213</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EVOL5100.png</t>
+          <t>EVOL2210.png</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1Ia3JNimwL4w3s98MGiXd1_f-vyZ6lBuf</t>
+          <t>1_wu8PGak1QJESDVjKPgGGuFu6K8qwGIH</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Ia3JNimwL4w3s98MGiXd1_f-vyZ6lBuf/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1_wu8PGak1QJESDVjKPgGGuFu6K8qwGIH/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Ia3JNimwL4w3s98MGiXd1_f-vyZ6lBuf</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1_wu8PGak1QJESDVjKPgGGuFu6K8qwGIH</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EVOL5100</t>
+          <t>EVOL2210</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EVOL0144.png</t>
+          <t>EVOL2205.png</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15TWcTMqD_AFXZ_Zxwb5Ta2xpXkvySowE</t>
+          <t>19EgWFY7ggYEd14bqAT5O8Btzy4a5AikH</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/15TWcTMqD_AFXZ_Zxwb5Ta2xpXkvySowE/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/19EgWFY7ggYEd14bqAT5O8Btzy4a5AikH/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=15TWcTMqD_AFXZ_Zxwb5Ta2xpXkvySowE</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=19EgWFY7ggYEd14bqAT5O8Btzy4a5AikH</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>EVOL0144</t>
+          <t>EVOL2205</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EVOL4753.png</t>
+          <t>EVOL2200.png</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t</t>
+          <t>1h9vsrBzW0Xv1iQQLj1jp8r7OhQvm5xt5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1h9vsrBzW0Xv1iQQLj1jp8r7OhQvm5xt5/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1h9vsrBzW0Xv1iQQLj1jp8r7OhQvm5xt5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>EVOL4753</t>
+          <t>EVOL2200</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EVOL4755.png</t>
+          <t>EVO230TU.png</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1MdUoOX1z27tO24PDAFNxtWye61T69a8Z</t>
+          <t>1lfwn_2PGMJg_bWOfV1-SOfH2D2Zxka5E</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1MdUoOX1z27tO24PDAFNxtWye61T69a8Z/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1lfwn_2PGMJg_bWOfV1-SOfH2D2Zxka5E/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1MdUoOX1z27tO24PDAFNxtWye61T69a8Z</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1lfwn_2PGMJg_bWOfV1-SOfH2D2Zxka5E</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>EVOL4755</t>
+          <t>EVO230TU</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EVOL5530.png</t>
+          <t>EVO180TU.png</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1JrJHwCRw-twjmcec9_dOUmV31dTdvauq</t>
+          <t>1WVkT2L7MnVLJ66_a5VaVG7DD6O4kKMmW</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1JrJHwCRw-twjmcec9_dOUmV31dTdvauq/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1WVkT2L7MnVLJ66_a5VaVG7DD6O4kKMmW/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1JrJHwCRw-twjmcec9_dOUmV31dTdvauq</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1WVkT2L7MnVLJ66_a5VaVG7DD6O4kKMmW</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>EVOL5530</t>
+          <t>EVO180TU</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EVOL3420.png</t>
+          <t>EVO230CO.png</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz</t>
+          <t>1k0kPpz5lEqKuPCuNObrxtXqylrrHY9MZ</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1k0kPpz5lEqKuPCuNObrxtXqylrrHY9MZ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1k0kPpz5lEqKuPCuNObrxtXqylrrHY9MZ</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>EVOL3420</t>
+          <t>EVO230CO</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EVOL0043.png</t>
+          <t>EVO115LA.png</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m</t>
+          <t>1CK8kNuk4AClU1c3ubeahyF7fCj4UJje0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1CK8kNuk4AClU1c3ubeahyF7fCj4UJje0/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1CK8kNuk4AClU1c3ubeahyF7fCj4UJje0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>EVOL0043</t>
+          <t>EVO115LA</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SAHANAF2H.png</t>
+          <t>EVO180CO.png</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c</t>
+          <t>1RWh4i639_R8TbOlxf7nQ75cZMmsVmPvt</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1RWh4i639_R8TbOlxf7nQ75cZMmsVmPvt/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1RWh4i639_R8TbOlxf7nQ75cZMmsVmPvt</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SAHANAF2H</t>
+          <t>EVO180CO</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SAHANAF1H.png</t>
+          <t>EVO180LA.png</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0</t>
+          <t>1EDeJZBv7uSJR-_dokYsYroemSxQJBGQe</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1EDeJZBv7uSJR-_dokYsYroemSxQJBGQe/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1EDeJZBv7uSJR-_dokYsYroemSxQJBGQe</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SAHANAF1H</t>
+          <t>EVO180LA</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>evol0088.png</t>
+          <t>EVO115TF.png</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8</t>
+          <t>1RRC14OSifI-1w5dAe-OsiJGri5ynU0Qi</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1RRC14OSifI-1w5dAe-OsiJGri5ynU0Qi/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1RRC14OSifI-1w5dAe-OsiJGri5ynU0Qi</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>evol0088</t>
+          <t>EVO115TF</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CON205.png</t>
+          <t>EVOL0224.png</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu</t>
+          <t>16TDaATiPzZEt23MZVZ6tlJ42ciFq7YrM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/16TDaATiPzZEt23MZVZ6tlJ42ciFq7YrM/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=16TDaATiPzZEt23MZVZ6tlJ42ciFq7YrM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CON205</t>
+          <t>EVOL0224</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EVOL3975.jpg</t>
+          <t>EVOL1208.png</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM</t>
+          <t>1FYOCBYNRBYVv1scwGIYMsC8JT-SqrRw2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1FYOCBYNRBYVv1scwGIYMsC8JT-SqrRw2/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1FYOCBYNRBYVv1scwGIYMsC8JT-SqrRw2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EVOL3975</t>
+          <t>EVOL1208</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TF.414.png</t>
+          <t>EVOL0135.png</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
+          <t>1Z3lQgkeXUJr8Eatj6VeMofuFP6FodDKc</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Z3lQgkeXUJr8Eatj6VeMofuFP6FodDKc/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Z3lQgkeXUJr8Eatj6VeMofuFP6FodDKc</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TF.414</t>
+          <t>EVOL0135</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GAG1685AR.png</t>
+          <t>EVOL2135.png</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq</t>
+          <t>1olYmdhMIr_eFZFwfKZLENH6-kaRhAYY2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1olYmdhMIr_eFZFwfKZLENH6-kaRhAYY2/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1olYmdhMIr_eFZFwfKZLENH6-kaRhAYY2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>GAG1685AR</t>
+          <t>EVOL2135</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GAG1910AR.png</t>
+          <t>EVOL1200.png</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl</t>
+          <t>1Rm9BBRImLieuYju8WsEZ3m5ezvQAO47j</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Rm9BBRImLieuYju8WsEZ3m5ezvQAO47j/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Rm9BBRImLieuYju8WsEZ3m5ezvQAO47j</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>GAG1910AR</t>
+          <t>EVOL1200</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ISAALAMF16.png</t>
+          <t>EVOL1631.png</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>14BogV6rHDIcL1bJzvKgItflTszBh2Yjx</t>
+          <t>13z80AE4-qQfFh2mSZDaCCb2jDo-OZLNN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/14BogV6rHDIcL1bJzvKgItflTszBh2Yjx/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/13z80AE4-qQfFh2mSZDaCCb2jDo-OZLNN/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=14BogV6rHDIcL1bJzvKgItflTszBh2Yjx</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=13z80AE4-qQfFh2mSZDaCCb2jDo-OZLNN</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ISAALAMF16</t>
+          <t>EVOL1631</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EA5310MT.png</t>
+          <t>EVOL0108.png</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>168x1fBgYxstgD60EyOUekzYk21Cswij6</t>
+          <t>1CrRWGci78tG63-mOTBZd4pBA8QBUfJ16</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/168x1fBgYxstgD60EyOUekzYk21Cswij6/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1CrRWGci78tG63-mOTBZd4pBA8QBUfJ16/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=168x1fBgYxstgD60EyOUekzYk21Cswij6</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1CrRWGci78tG63-mOTBZd4pBA8QBUfJ16</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EA5310MT</t>
+          <t>EVOL0108</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EVOL0174.png</t>
+          <t>EVOL0340.png</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt</t>
+          <t>1eNc8s9f6SvIp_OYtCmvflwSyvavrgOD_</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1eNc8s9f6SvIp_OYtCmvflwSyvavrgOD_/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1eNc8s9f6SvIp_OYtCmvflwSyvavrgOD_</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>EVOL0174</t>
+          <t>EVOL0340</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>evo115la.jpg</t>
+          <t>EVOL5100.png</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1xB_fFOvMWyAcqkpvUq7xMqq-iHuscSbd</t>
+          <t>1Ia3JNimwL4w3s98MGiXd1_f-vyZ6lBuf</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1xB_fFOvMWyAcqkpvUq7xMqq-iHuscSbd/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Ia3JNimwL4w3s98MGiXd1_f-vyZ6lBuf/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1xB_fFOvMWyAcqkpvUq7xMqq-iHuscSbd</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Ia3JNimwL4w3s98MGiXd1_f-vyZ6lBuf</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>evo115la</t>
+          <t>EVOL5100</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ALI70.png</t>
+          <t>EVOL0144.png</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>118_Mew5CJz8YNrVjxiGgKooC9GHL40wA</t>
+          <t>15TWcTMqD_AFXZ_Zxwb5Ta2xpXkvySowE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/118_Mew5CJz8YNrVjxiGgKooC9GHL40wA/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/15TWcTMqD_AFXZ_Zxwb5Ta2xpXkvySowE/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=118_Mew5CJz8YNrVjxiGgKooC9GHL40wA</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=15TWcTMqD_AFXZ_Zxwb5Ta2xpXkvySowE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ALI70</t>
+          <t>EVOL0144</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SIM18310.png</t>
+          <t>EVOL4753.png</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>13cioMVntBUSCdPldxG-2kDu8-KoWxIa5</t>
+          <t>1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/13cioMVntBUSCdPldxG-2kDu8-KoWxIa5/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=13cioMVntBUSCdPldxG-2kDu8-KoWxIa5</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SIM18310</t>
+          <t>EVOL4753</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>KIMERAC1.png</t>
+          <t>EVOL4755.png</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS</t>
+          <t>1MdUoOX1z27tO24PDAFNxtWye61T69a8Z</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1MdUoOX1z27tO24PDAFNxtWye61T69a8Z/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1MdUoOX1z27tO24PDAFNxtWye61T69a8Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>KIMERAC1</t>
+          <t>EVOL4755</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PROBOT41.png</t>
+          <t>EVOL5530.png</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_</t>
+          <t>1JrJHwCRw-twjmcec9_dOUmV31dTdvauq</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1JrJHwCRw-twjmcec9_dOUmV31dTdvauq/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1JrJHwCRw-twjmcec9_dOUmV31dTdvauq</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PROBOT41</t>
+          <t>EVOL5530</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>evorieg0153.jpg</t>
+          <t>EVOL3420.png</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG</t>
+          <t>1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>evorieg0153</t>
+          <t>EVOL3420</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EGWX 01.png</t>
+          <t>EVOL0043.png</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ</t>
+          <t>1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>EGWX 01</t>
+          <t>EVOL0043</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EGWX 02.png</t>
+          <t>SAHANAF2H.png</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H</t>
+          <t>1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>EGWX 02</t>
+          <t>SAHANAF2H</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PX120314.png</t>
+          <t>SAHANAF1H.png</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l</t>
+          <t>1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PX120314</t>
+          <t>SAHANAF1H</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PERFA0261.png</t>
+          <t>evol0088.png</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1scmMs1xhcGnLuy7pA0GHx61dgeWNUjXb</t>
+          <t>1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1scmMs1xhcGnLuy7pA0GHx61dgeWNUjXb/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1scmMs1xhcGnLuy7pA0GHx61dgeWNUjXb</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>PERFA0261</t>
+          <t>evol0088</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>evol1000.png</t>
+          <t>CON205.png</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k</t>
+          <t>1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>evol1000</t>
+          <t>CON205</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>evol0330.png</t>
+          <t>EVOL3975.jpg</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1_woEN7ahCyphJcQooMGZU51SaSrhcw2H</t>
+          <t>1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1_woEN7ahCyphJcQooMGZU51SaSrhcw2H/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1_woEN7ahCyphJcQooMGZU51SaSrhcw2H</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>evol0330</t>
+          <t>EVOL3975</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GAG12103AR.jpg</t>
+          <t>TF.414.png</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM</t>
+          <t>1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>GAG12103AR</t>
+          <t>TF.414</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TOR01522.jpg</t>
+          <t>GAG1685AR.png</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx</t>
+          <t>1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TOR01522</t>
+          <t>GAG1685AR</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>logo-ferremax.png</t>
+          <t>GAG1910AR.png</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq</t>
+          <t>1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>logo-ferremax</t>
+          <t>GAG1910AR</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>login-bg.png</t>
+          <t>ISAALAMF16.png</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn</t>
+          <t>14BogV6rHDIcL1bJzvKgItflTszBh2Yjx</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/14BogV6rHDIcL1bJzvKgItflTszBh2Yjx/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=14BogV6rHDIcL1bJzvKgItflTszBh2Yjx</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>login-bg</t>
+          <t>ISAALAMF16</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>evol3089.jpg</t>
+          <t>EA5310MT.png</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1Mzg3Z8QvvJabPNR36K7tFWAEeTY2U2Hw</t>
+          <t>168x1fBgYxstgD60EyOUekzYk21Cswij6</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Mzg3Z8QvvJabPNR36K7tFWAEeTY2U2Hw/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/168x1fBgYxstgD60EyOUekzYk21Cswij6/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Mzg3Z8QvvJabPNR36K7tFWAEeTY2U2Hw</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=168x1fBgYxstgD60EyOUekzYk21Cswij6</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>evol3089</t>
+          <t>EA5310MT</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>evol0025.jpg</t>
+          <t>EVOL0174.png</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO</t>
+          <t>1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>evol0025</t>
+          <t>EVOL0174</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>evol3245.jpg</t>
+          <t>ALI70.png</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM</t>
+          <t>118_Mew5CJz8YNrVjxiGgKooC9GHL40wA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/118_Mew5CJz8YNrVjxiGgKooC9GHL40wA/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=118_Mew5CJz8YNrVjxiGgKooC9GHL40wA</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>evol3245</t>
+          <t>ALI70</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>evol1970.jpg</t>
+          <t>SIM18310.png</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn</t>
+          <t>13cioMVntBUSCdPldxG-2kDu8-KoWxIa5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/13cioMVntBUSCdPldxG-2kDu8-KoWxIa5/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=13cioMVntBUSCdPldxG-2kDu8-KoWxIa5</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>evol1970</t>
+          <t>SIM18310</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>evo115tu.jpg</t>
+          <t>KIMERAC1.png</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g</t>
+          <t>1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>evo115tu</t>
+          <t>KIMERAC1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>evol0028.jpg</t>
+          <t>PROBOT41.png</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7</t>
+          <t>1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>evol0028</t>
+          <t>PROBOT41</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>evol3510.jpg</t>
+          <t>evorieg0153.jpg</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV</t>
+          <t>1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>evol3510</t>
+          <t>evorieg0153</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>evol0070.jpg</t>
+          <t>EGWX 01.png</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ</t>
+          <t>1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>evol0070</t>
+          <t>EGWX 01</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>evol2530.jpg</t>
+          <t>EGWX 02.png</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No</t>
+          <t>1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>evol2530</t>
+          <t>EGWX 02</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>evol0107.jpg</t>
+          <t>PX120314.png</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV</t>
+          <t>1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>evol0107</t>
+          <t>PX120314</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>evol0435.jpg</t>
+          <t>PERFA0261.png</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x</t>
+          <t>1scmMs1xhcGnLuy7pA0GHx61dgeWNUjXb</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1scmMs1xhcGnLuy7pA0GHx61dgeWNUjXb/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1scmMs1xhcGnLuy7pA0GHx61dgeWNUjXb</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>evol0435</t>
+          <t>PERFA0261</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>evol0111.jpg</t>
+          <t>evol1000.png</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>18PywtpchMGSXpToC9emFelBbnkIO851b</t>
+          <t>1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/18PywtpchMGSXpToC9emFelBbnkIO851b/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=18PywtpchMGSXpToC9emFelBbnkIO851b</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>evol0111</t>
+          <t>evol1000</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>evol3970.jpg</t>
+          <t>evol0330.png</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls</t>
+          <t>1_woEN7ahCyphJcQooMGZU51SaSrhcw2H</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1_woEN7ahCyphJcQooMGZU51SaSrhcw2H/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1_woEN7ahCyphJcQooMGZU51SaSrhcw2H</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>evol3970</t>
+          <t>evol0330</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>evol0177.jpg</t>
+          <t>GAG12103AR.jpg</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn</t>
+          <t>19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>evol0177</t>
+          <t>GAG12103AR</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>evol2205.jpg</t>
+          <t>TOR01522.jpg</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK</t>
+          <t>1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>evol2205</t>
+          <t>TOR01522</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>evol1361.jpg</t>
+          <t>logo-ferremax.png</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8</t>
+          <t>1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>evol1361</t>
+          <t>logo-ferremax</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>evol3210.jpg</t>
+          <t>login-bg.png</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1TArjaa7JzfoYKxuitLH3gEeurJie_XEr</t>
+          <t>1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1TArjaa7JzfoYKxuitLH3gEeurJie_XEr/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1TArjaa7JzfoYKxuitLH3gEeurJie_XEr</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>evol3210</t>
+          <t>login-bg</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>evol3089.jpg</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1Mzg3Z8QvvJabPNR36K7tFWAEeTY2U2Hw</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Mzg3Z8QvvJabPNR36K7tFWAEeTY2U2Hw/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Mzg3Z8QvvJabPNR36K7tFWAEeTY2U2Hw</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>evol3089</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>evol0025.jpg</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>evol0025</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>evol3245.jpg</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>evol3245</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>evol1970.jpg</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>evol1970</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>evo115tu.jpg</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>evo115tu</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>evol0028.jpg</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>evol0028</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>evol3510.jpg</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>evol3510</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>evol0070.jpg</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>evol0070</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>evol2530.jpg</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>evol2530</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>evol0107.jpg</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>evol0107</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>evol0435.jpg</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>evol0435</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>evol0111.jpg</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>18PywtpchMGSXpToC9emFelBbnkIO851b</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/18PywtpchMGSXpToC9emFelBbnkIO851b/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=18PywtpchMGSXpToC9emFelBbnkIO851b</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>evol0111</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>evol3970.jpg</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>evol3970</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>evol0177.jpg</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>evol0177</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>evol2205.jpg</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>evol2205</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>evol1361.jpg</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>evol1361</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>evol3210.jpg</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1TArjaa7JzfoYKxuitLH3gEeurJie_XEr</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1TArjaa7JzfoYKxuitLH3gEeurJie_XEr/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1TArjaa7JzfoYKxuitLH3gEeurJie_XEr</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>evol3210</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
           <t>evo115co.jpg</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>1OFRhg3wSMFQ6TYNMMxMweX1JIEsXmKdY</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>https://drive.google.com/file/d/1OFRhg3wSMFQ6TYNMMxMweX1JIEsXmKdY/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>https://drive.google.com/uc?export=view&amp;id=1OFRhg3wSMFQ6TYNMMxMweX1JIEsXmKdY</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>evo115co</t>
         </is>

--- a/imagenes_drive.xlsx
+++ b/imagenes_drive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,2052 +463,4995 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EVOL1154.png</t>
+          <t>EVOL0011.png</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1AXsDyi20NTrPHfxF0kR575sCVSw0ms-v</t>
+          <t>1SQ4RO0DwgN6iB16qKKJW4nOKO-P-9AZ3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1AXsDyi20NTrPHfxF0kR575sCVSw0ms-v/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1SQ4RO0DwgN6iB16qKKJW4nOKO-P-9AZ3/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1AXsDyi20NTrPHfxF0kR575sCVSw0ms-v</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1SQ4RO0DwgN6iB16qKKJW4nOKO-P-9AZ3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EVOL1154</t>
+          <t>EVOL0011</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EVOL1152.png</t>
+          <t>EVOL0010.png</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1WIL5-OlkISb4Jgw7r4Z-MY3GQlaymSLF</t>
+          <t>1GxnmEGjpuhLnIQTUrBPOHbaKsMVc8ztN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1WIL5-OlkISb4Jgw7r4Z-MY3GQlaymSLF/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1GxnmEGjpuhLnIQTUrBPOHbaKsMVc8ztN/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1WIL5-OlkISb4Jgw7r4Z-MY3GQlaymSLF</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1GxnmEGjpuhLnIQTUrBPOHbaKsMVc8ztN</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EVOL1152</t>
+          <t>EVOL0010</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EVOL1150.png</t>
+          <t>EVOL0009.png</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>140FdaGH8uQQ35bKF6UxfK-GcsNRfi6Vd</t>
+          <t>17ABzRsKQ-aAb7OOIy4gjt7EM2XOgeKi3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/140FdaGH8uQQ35bKF6UxfK-GcsNRfi6Vd/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/17ABzRsKQ-aAb7OOIy4gjt7EM2XOgeKi3/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=140FdaGH8uQQ35bKF6UxfK-GcsNRfi6Vd</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=17ABzRsKQ-aAb7OOIy4gjt7EM2XOgeKi3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EVOL1150</t>
+          <t>EVOL0009</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EVOL1165.png</t>
+          <t>EVOL0008.png</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1vEf6OOzcfBVbZfbXB0YWrvIwOG4TeEIO</t>
+          <t>1io205s0lr5DzUCVGViGbT2u_eoQJZb2C</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1vEf6OOzcfBVbZfbXB0YWrvIwOG4TeEIO/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1io205s0lr5DzUCVGViGbT2u_eoQJZb2C/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1vEf6OOzcfBVbZfbXB0YWrvIwOG4TeEIO</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1io205s0lr5DzUCVGViGbT2u_eoQJZb2C</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EVOL1165</t>
+          <t>EVOL0008</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EVOL1160.png</t>
+          <t>EVOL6765.jpg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1hhox9FvrlvQQzBpx43_mRx6BX6jbPCFY</t>
+          <t>15gfbTSnSVxp3RepFCtm2oOGlz219oyZh</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1hhox9FvrlvQQzBpx43_mRx6BX6jbPCFY/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/15gfbTSnSVxp3RepFCtm2oOGlz219oyZh/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1hhox9FvrlvQQzBpx43_mRx6BX6jbPCFY</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=15gfbTSnSVxp3RepFCtm2oOGlz219oyZh</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EVOL1160</t>
+          <t>EVOL6765</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EVOL2215.png</t>
+          <t>EVOL6760.png</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1JC2spLFD9wfeL21RGXw7k7tOmtBoxW37</t>
+          <t>1vn8sI2ITt5XjGHLb23Z05vILv_DVLw05</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1JC2spLFD9wfeL21RGXw7k7tOmtBoxW37/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1vn8sI2ITt5XjGHLb23Z05vILv_DVLw05/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1JC2spLFD9wfeL21RGXw7k7tOmtBoxW37</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1vn8sI2ITt5XjGHLb23Z05vILv_DVLw05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EVOL2215</t>
+          <t>EVOL6760</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EVOL2213.png</t>
+          <t>EVOL6715.png</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1DNP9gvL6lqvp6wXj3562s916dUaZvsVI</t>
+          <t>1SN4-JQEpjlD5Q-TDn2v5lNQ1hFyKVot1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1DNP9gvL6lqvp6wXj3562s916dUaZvsVI/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1SN4-JQEpjlD5Q-TDn2v5lNQ1hFyKVot1/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1DNP9gvL6lqvp6wXj3562s916dUaZvsVI</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1SN4-JQEpjlD5Q-TDn2v5lNQ1hFyKVot1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EVOL2213</t>
+          <t>EVOL6715</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EVOL2210.png</t>
+          <t>EVOL6222.png</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1_wu8PGak1QJESDVjKPgGGuFu6K8qwGIH</t>
+          <t>1O-xOhjMBTW4WINz5wsnhNFHCn5EnT0Ki</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1_wu8PGak1QJESDVjKPgGGuFu6K8qwGIH/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1O-xOhjMBTW4WINz5wsnhNFHCn5EnT0Ki/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1_wu8PGak1QJESDVjKPgGGuFu6K8qwGIH</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1O-xOhjMBTW4WINz5wsnhNFHCn5EnT0Ki</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EVOL2210</t>
+          <t>EVOL6222</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EVOL2205.png</t>
+          <t>EVOL6221.png</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>19EgWFY7ggYEd14bqAT5O8Btzy4a5AikH</t>
+          <t>19iuIRdeE_RammaNztz1KygdNq1tGTL8C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/19EgWFY7ggYEd14bqAT5O8Btzy4a5AikH/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/19iuIRdeE_RammaNztz1KygdNq1tGTL8C/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=19EgWFY7ggYEd14bqAT5O8Btzy4a5AikH</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=19iuIRdeE_RammaNztz1KygdNq1tGTL8C</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>EVOL2205</t>
+          <t>EVOL6221</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EVOL2200.png</t>
+          <t>EVOL6210.png</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1h9vsrBzW0Xv1iQQLj1jp8r7OhQvm5xt5</t>
+          <t>15mNv1wWkmsHpiLiWlg8jgv5yQVZt4Z1l</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1h9vsrBzW0Xv1iQQLj1jp8r7OhQvm5xt5/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/15mNv1wWkmsHpiLiWlg8jgv5yQVZt4Z1l/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1h9vsrBzW0Xv1iQQLj1jp8r7OhQvm5xt5</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=15mNv1wWkmsHpiLiWlg8jgv5yQVZt4Z1l</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>EVOL2200</t>
+          <t>EVOL6210</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EVO230TU.png</t>
+          <t>EVOL6205.png</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1lfwn_2PGMJg_bWOfV1-SOfH2D2Zxka5E</t>
+          <t>11hBmjH-q6kh0_CNOGWTw6LnsXjbves0f</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1lfwn_2PGMJg_bWOfV1-SOfH2D2Zxka5E/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/11hBmjH-q6kh0_CNOGWTw6LnsXjbves0f/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1lfwn_2PGMJg_bWOfV1-SOfH2D2Zxka5E</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=11hBmjH-q6kh0_CNOGWTw6LnsXjbves0f</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>EVO230TU</t>
+          <t>EVOL6205</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EVO180TU.png</t>
+          <t>EVOL3957.png</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1WVkT2L7MnVLJ66_a5VaVG7DD6O4kKMmW</t>
+          <t>14c8KBXNh6nrKA5S4u67BmU7nOAZL4Adk</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1WVkT2L7MnVLJ66_a5VaVG7DD6O4kKMmW/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/14c8KBXNh6nrKA5S4u67BmU7nOAZL4Adk/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1WVkT2L7MnVLJ66_a5VaVG7DD6O4kKMmW</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=14c8KBXNh6nrKA5S4u67BmU7nOAZL4Adk</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>EVO180TU</t>
+          <t>EVOL3957</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EVO230CO.png</t>
+          <t>EVOL3953.png</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1k0kPpz5lEqKuPCuNObrxtXqylrrHY9MZ</t>
+          <t>1PWg5nUjF3Lzsf6MSF9eUD0K364TAsO1O</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1k0kPpz5lEqKuPCuNObrxtXqylrrHY9MZ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1PWg5nUjF3Lzsf6MSF9eUD0K364TAsO1O/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1k0kPpz5lEqKuPCuNObrxtXqylrrHY9MZ</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1PWg5nUjF3Lzsf6MSF9eUD0K364TAsO1O</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>EVO230CO</t>
+          <t>EVOL3953</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EVO115LA.png</t>
+          <t>EVOL3959.png</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1CK8kNuk4AClU1c3ubeahyF7fCj4UJje0</t>
+          <t>1MtgmhF4llFOz-8-Kg3Xk0eOPlIrE6NqZ</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1CK8kNuk4AClU1c3ubeahyF7fCj4UJje0/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1MtgmhF4llFOz-8-Kg3Xk0eOPlIrE6NqZ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1CK8kNuk4AClU1c3ubeahyF7fCj4UJje0</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1MtgmhF4llFOz-8-Kg3Xk0eOPlIrE6NqZ</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>EVO115LA</t>
+          <t>EVOL3959</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EVO180CO.png</t>
+          <t>EVOL3955.png</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1RWh4i639_R8TbOlxf7nQ75cZMmsVmPvt</t>
+          <t>1sRu-iyXG_A4UpHTtmWy4m_O-1eVKvO-f</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1RWh4i639_R8TbOlxf7nQ75cZMmsVmPvt/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1sRu-iyXG_A4UpHTtmWy4m_O-1eVKvO-f/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1RWh4i639_R8TbOlxf7nQ75cZMmsVmPvt</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1sRu-iyXG_A4UpHTtmWy4m_O-1eVKvO-f</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>EVO180CO</t>
+          <t>EVOL3955</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EVO180LA.png</t>
+          <t>EVOL3961.png</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1EDeJZBv7uSJR-_dokYsYroemSxQJBGQe</t>
+          <t>1h2_X5ZaWr3LDrgj_YErdS25QazR7X0od</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1EDeJZBv7uSJR-_dokYsYroemSxQJBGQe/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1h2_X5ZaWr3LDrgj_YErdS25QazR7X0od/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1EDeJZBv7uSJR-_dokYsYroemSxQJBGQe</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1h2_X5ZaWr3LDrgj_YErdS25QazR7X0od</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>EVO180LA</t>
+          <t>EVOL3961</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EVO115TF.png</t>
+          <t>EVOL0440.png</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1RRC14OSifI-1w5dAe-OsiJGri5ynU0Qi</t>
+          <t>1Ms54HbfpRLBZCKT8PoD-2ajd7x6LXc-z</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1RRC14OSifI-1w5dAe-OsiJGri5ynU0Qi/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Ms54HbfpRLBZCKT8PoD-2ajd7x6LXc-z/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1RRC14OSifI-1w5dAe-OsiJGri5ynU0Qi</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Ms54HbfpRLBZCKT8PoD-2ajd7x6LXc-z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>EVO115TF</t>
+          <t>EVOL0440</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EVOL0224.png</t>
+          <t>EVOL3088.png</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16TDaATiPzZEt23MZVZ6tlJ42ciFq7YrM</t>
+          <t>1Sg_TcDl02yfg5ci4N_aUxhguTMsJK1oS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/16TDaATiPzZEt23MZVZ6tlJ42ciFq7YrM/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Sg_TcDl02yfg5ci4N_aUxhguTMsJK1oS/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=16TDaATiPzZEt23MZVZ6tlJ42ciFq7YrM</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Sg_TcDl02yfg5ci4N_aUxhguTMsJK1oS</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>EVOL0224</t>
+          <t>EVOL3088</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EVOL1208.png</t>
+          <t>EVOL3087.png</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1FYOCBYNRBYVv1scwGIYMsC8JT-SqrRw2</t>
+          <t>1BtaWjX91R2Jb9m7lIR25yIc3K0bUFXh4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1FYOCBYNRBYVv1scwGIYMsC8JT-SqrRw2/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1BtaWjX91R2Jb9m7lIR25yIc3K0bUFXh4/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1FYOCBYNRBYVv1scwGIYMsC8JT-SqrRw2</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1BtaWjX91R2Jb9m7lIR25yIc3K0bUFXh4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EVOL1208</t>
+          <t>EVOL3087</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EVOL0135.png</t>
+          <t>EVOL3086.png</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1Z3lQgkeXUJr8Eatj6VeMofuFP6FodDKc</t>
+          <t>1cPh9vY23LMIJ6gxryWrzINzAnbU55Mpd</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Z3lQgkeXUJr8Eatj6VeMofuFP6FodDKc/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1cPh9vY23LMIJ6gxryWrzINzAnbU55Mpd/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Z3lQgkeXUJr8Eatj6VeMofuFP6FodDKc</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1cPh9vY23LMIJ6gxryWrzINzAnbU55Mpd</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>EVOL0135</t>
+          <t>EVOL3086</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EVOL2135.png</t>
+          <t>EVOL3089.png</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1olYmdhMIr_eFZFwfKZLENH6-kaRhAYY2</t>
+          <t>1FxoJjxKuGkKQkyduEClxlKKO4PiTc2zI</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1olYmdhMIr_eFZFwfKZLENH6-kaRhAYY2/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1FxoJjxKuGkKQkyduEClxlKKO4PiTc2zI/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1olYmdhMIr_eFZFwfKZLENH6-kaRhAYY2</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1FxoJjxKuGkKQkyduEClxlKKO4PiTc2zI</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>EVOL2135</t>
+          <t>EVOL3089</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>EVOL1200.png</t>
+          <t>EVOL0095.png</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1Rm9BBRImLieuYju8WsEZ3m5ezvQAO47j</t>
+          <t>1zFOPytbsjigQ_-zvlzRuhie_qc3O1XTI</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Rm9BBRImLieuYju8WsEZ3m5ezvQAO47j/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1zFOPytbsjigQ_-zvlzRuhie_qc3O1XTI/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Rm9BBRImLieuYju8WsEZ3m5ezvQAO47j</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1zFOPytbsjigQ_-zvlzRuhie_qc3O1XTI</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>EVOL1200</t>
+          <t>EVOL0095</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EVOL1631.png</t>
+          <t>EVOL0094.png</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>13z80AE4-qQfFh2mSZDaCCb2jDo-OZLNN</t>
+          <t>13BYafNl3xIdLli4HunqUgXbTtleRAuYP</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/13z80AE4-qQfFh2mSZDaCCb2jDo-OZLNN/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/13BYafNl3xIdLli4HunqUgXbTtleRAuYP/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=13z80AE4-qQfFh2mSZDaCCb2jDo-OZLNN</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=13BYafNl3xIdLli4HunqUgXbTtleRAuYP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>EVOL1631</t>
+          <t>EVOL0094</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EVOL0108.png</t>
+          <t>EVOL0470.png</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1CrRWGci78tG63-mOTBZd4pBA8QBUfJ16</t>
+          <t>1MuD89hp02bERhenW5uVzmupIp_6Unva-</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1CrRWGci78tG63-mOTBZd4pBA8QBUfJ16/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1MuD89hp02bERhenW5uVzmupIp_6Unva-/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1CrRWGci78tG63-mOTBZd4pBA8QBUfJ16</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1MuD89hp02bERhenW5uVzmupIp_6Unva-</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EVOL0108</t>
+          <t>EVOL0470</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EVOL0340.png</t>
+          <t>EVOL0460.png</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1eNc8s9f6SvIp_OYtCmvflwSyvavrgOD_</t>
+          <t>1KbN7qY3oM8eiVO6sfydUs8UxgZb-hpGM</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1eNc8s9f6SvIp_OYtCmvflwSyvavrgOD_/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1KbN7qY3oM8eiVO6sfydUs8UxgZb-hpGM/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1eNc8s9f6SvIp_OYtCmvflwSyvavrgOD_</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1KbN7qY3oM8eiVO6sfydUs8UxgZb-hpGM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>EVOL0340</t>
+          <t>EVOL0460</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EVOL5100.png</t>
+          <t>EVOL0430.png</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1Ia3JNimwL4w3s98MGiXd1_f-vyZ6lBuf</t>
+          <t>1a6UzFZ1FG_r_KwyRHHyPOQ2U1AgHcZVx</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Ia3JNimwL4w3s98MGiXd1_f-vyZ6lBuf/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1a6UzFZ1FG_r_KwyRHHyPOQ2U1AgHcZVx/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Ia3JNimwL4w3s98MGiXd1_f-vyZ6lBuf</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1a6UzFZ1FG_r_KwyRHHyPOQ2U1AgHcZVx</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>EVOL5100</t>
+          <t>EVOL0430</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EVOL0144.png</t>
+          <t>EVOL0420.png</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>15TWcTMqD_AFXZ_Zxwb5Ta2xpXkvySowE</t>
+          <t>1F_Cm1j9kVlYzNi2UiF23z313uKdu63V3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/15TWcTMqD_AFXZ_Zxwb5Ta2xpXkvySowE/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1F_Cm1j9kVlYzNi2UiF23z313uKdu63V3/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=15TWcTMqD_AFXZ_Zxwb5Ta2xpXkvySowE</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1F_Cm1j9kVlYzNi2UiF23z313uKdu63V3</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>EVOL0144</t>
+          <t>EVOL0420</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EVOL4753.png</t>
+          <t>EVOL0410.png</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t</t>
+          <t>1LUfV3jDmpQumlwkFHF8LMZiZwpAEdXyO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1LUfV3jDmpQumlwkFHF8LMZiZwpAEdXyO/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1LUfV3jDmpQumlwkFHF8LMZiZwpAEdXyO</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>EVOL4753</t>
+          <t>EVOL0410</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EVOL4755.png</t>
+          <t>EVOL0400.png</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1MdUoOX1z27tO24PDAFNxtWye61T69a8Z</t>
+          <t>1lSQ7MfgvUvQy9wedDJIf0VblCwB1gQVE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1MdUoOX1z27tO24PDAFNxtWye61T69a8Z/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1lSQ7MfgvUvQy9wedDJIf0VblCwB1gQVE/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1MdUoOX1z27tO24PDAFNxtWye61T69a8Z</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1lSQ7MfgvUvQy9wedDJIf0VblCwB1gQVE</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>EVOL4755</t>
+          <t>EVOL0400</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EVOL5530.png</t>
+          <t>EVOL3630.png</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1JrJHwCRw-twjmcec9_dOUmV31dTdvauq</t>
+          <t>1OVB6y73WtqDGZ2sutSFD2I01NQ5DAAbf</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1JrJHwCRw-twjmcec9_dOUmV31dTdvauq/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1OVB6y73WtqDGZ2sutSFD2I01NQ5DAAbf/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1JrJHwCRw-twjmcec9_dOUmV31dTdvauq</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1OVB6y73WtqDGZ2sutSFD2I01NQ5DAAbf</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>EVOL5530</t>
+          <t>EVOL3630</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EVOL3420.png</t>
+          <t>EVOL3620.png</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz</t>
+          <t>14AHbLsGEWMuxVSU7sEf8DPavOFFDwVwS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/14AHbLsGEWMuxVSU7sEf8DPavOFFDwVwS/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=14AHbLsGEWMuxVSU7sEf8DPavOFFDwVwS</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>EVOL3420</t>
+          <t>EVOL3620</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EVOL0043.png</t>
+          <t>EVOL3650.png</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m</t>
+          <t>13wkth3nmjrfecz2QGxymQBq00BhqUVcc</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/13wkth3nmjrfecz2QGxymQBq00BhqUVcc/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=13wkth3nmjrfecz2QGxymQBq00BhqUVcc</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>EVOL0043</t>
+          <t>EVOL3650</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SAHANAF2H.png</t>
+          <t>EVOL0192.png</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c</t>
+          <t>16XOV3qr23_83laSeE-ZAokJLru73uTZG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/16XOV3qr23_83laSeE-ZAokJLru73uTZG/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=16XOV3qr23_83laSeE-ZAokJLru73uTZG</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SAHANAF2H</t>
+          <t>EVOL0192</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SAHANAF1H.png</t>
+          <t>EVOL3820.png</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0</t>
+          <t>190KI9EkKPW5Q08mwU5HZxUfG4jhzal_9</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/190KI9EkKPW5Q08mwU5HZxUfG4jhzal_9/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=190KI9EkKPW5Q08mwU5HZxUfG4jhzal_9</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SAHANAF1H</t>
+          <t>EVOL3820</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>evol0088.png</t>
+          <t>EVOL3810.png</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8</t>
+          <t>10gC9zGGNx9BnvdRNlpoOtpJOrVUSZw6I</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/10gC9zGGNx9BnvdRNlpoOtpJOrVUSZw6I/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=10gC9zGGNx9BnvdRNlpoOtpJOrVUSZw6I</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>evol0088</t>
+          <t>EVOL3810</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CON205.png</t>
+          <t>EVOL3800.png</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu</t>
+          <t>1pFdn2H9GtPLW6z7LH6lk48ncqPFoCHtO</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1pFdn2H9GtPLW6z7LH6lk48ncqPFoCHtO/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1pFdn2H9GtPLW6z7LH6lk48ncqPFoCHtO</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CON205</t>
+          <t>EVOL3800</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EVOL3975.jpg</t>
+          <t>EVOL3740.png</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM</t>
+          <t>1nqsl_r_OUzPDOdpf2Q9gXTXTC75M_UIz</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1nqsl_r_OUzPDOdpf2Q9gXTXTC75M_UIz/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1nqsl_r_OUzPDOdpf2Q9gXTXTC75M_UIz</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>EVOL3975</t>
+          <t>EVOL3740</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TF.414.png</t>
+          <t>EVOL3700.png</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
+          <t>1YBiE3ntEMD3QifQcmOSRstxEsbILx2Ir</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1YBiE3ntEMD3QifQcmOSRstxEsbILx2Ir/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1YBiE3ntEMD3QifQcmOSRstxEsbILx2Ir</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TF.414</t>
+          <t>EVOL3700</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GAG1685AR.png</t>
+          <t>EVOL3730.png</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq</t>
+          <t>1JJqO6FgENBwXKUc4HZJLWJSu31GnFJ_G</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1JJqO6FgENBwXKUc4HZJLWJSu31GnFJ_G/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1JJqO6FgENBwXKUc4HZJLWJSu31GnFJ_G</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>GAG1685AR</t>
+          <t>EVOL3730</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GAG1910AR.png</t>
+          <t>EVOL3720.png</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl</t>
+          <t>149DWgSpxOVwyQkFSVzG5UAx8HvFmgw4C</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/149DWgSpxOVwyQkFSVzG5UAx8HvFmgw4C/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=149DWgSpxOVwyQkFSVzG5UAx8HvFmgw4C</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>GAG1910AR</t>
+          <t>EVOL3720</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ISAALAMF16.png</t>
+          <t>EVOL3710.png</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>14BogV6rHDIcL1bJzvKgItflTszBh2Yjx</t>
+          <t>1C4wZhl9SvavLY0MucvdkBqxEDXDczYVY</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/14BogV6rHDIcL1bJzvKgItflTszBh2Yjx/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1C4wZhl9SvavLY0MucvdkBqxEDXDczYVY/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=14BogV6rHDIcL1bJzvKgItflTszBh2Yjx</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1C4wZhl9SvavLY0MucvdkBqxEDXDczYVY</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ISAALAMF16</t>
+          <t>EVOL3710</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>EA5310MT.png</t>
+          <t>EVOL0130.png</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>168x1fBgYxstgD60EyOUekzYk21Cswij6</t>
+          <t>1k1DpdDzRRZBf3vXlx5WQAcEIcExyo4D1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/168x1fBgYxstgD60EyOUekzYk21Cswij6/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1k1DpdDzRRZBf3vXlx5WQAcEIcExyo4D1/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=168x1fBgYxstgD60EyOUekzYk21Cswij6</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1k1DpdDzRRZBf3vXlx5WQAcEIcExyo4D1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>EA5310MT</t>
+          <t>EVOL0130</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>EVOL0174.png</t>
+          <t>EVOL0004.png</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt</t>
+          <t>1dIXEp6OZxhmZDc49TAe6H5aUEgnoaD1d</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1dIXEp6OZxhmZDc49TAe6H5aUEgnoaD1d/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1dIXEp6OZxhmZDc49TAe6H5aUEgnoaD1d</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>EVOL0174</t>
+          <t>EVOL0004</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ALI70.png</t>
+          <t>EVOL1774.png</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>118_Mew5CJz8YNrVjxiGgKooC9GHL40wA</t>
+          <t>114rmUbCFM6npyleoLq8K_BUtqHU7zKDO</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/118_Mew5CJz8YNrVjxiGgKooC9GHL40wA/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/114rmUbCFM6npyleoLq8K_BUtqHU7zKDO/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=118_Mew5CJz8YNrVjxiGgKooC9GHL40wA</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=114rmUbCFM6npyleoLq8K_BUtqHU7zKDO</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ALI70</t>
+          <t>EVOL1774</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SIM18310.png</t>
+          <t>EVOL0003.png</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>13cioMVntBUSCdPldxG-2kDu8-KoWxIa5</t>
+          <t>1MkuKAmbN0cM8mf-ca0od7TQn9E5p_Omr</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/13cioMVntBUSCdPldxG-2kDu8-KoWxIa5/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1MkuKAmbN0cM8mf-ca0od7TQn9E5p_Omr/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=13cioMVntBUSCdPldxG-2kDu8-KoWxIa5</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1MkuKAmbN0cM8mf-ca0od7TQn9E5p_Omr</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SIM18310</t>
+          <t>EVOL0003</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>KIMERAC1.png</t>
+          <t>EVOL0097.png</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS</t>
+          <t>1X3_7pJg4S62os5CCwKmkMVW2r5EwJ_Ml</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1X3_7pJg4S62os5CCwKmkMVW2r5EwJ_Ml/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1X3_7pJg4S62os5CCwKmkMVW2r5EwJ_Ml</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>KIMERAC1</t>
+          <t>EVOL0097</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PROBOT41.png</t>
+          <t>EVOL0096.png</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_</t>
+          <t>1BSgIHp-uf9-LOzraEWfFkdMG_3BsseM4</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1BSgIHp-uf9-LOzraEWfFkdMG_3BsseM4/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1BSgIHp-uf9-LOzraEWfFkdMG_3BsseM4</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>PROBOT41</t>
+          <t>EVOL0096</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>evorieg0153.jpg</t>
+          <t>EVOL0007.png</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG</t>
+          <t>1voESolULU-KfuIJ2MYcYTv2ZXrYWQMDr</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1voESolULU-KfuIJ2MYcYTv2ZXrYWQMDr/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1voESolULU-KfuIJ2MYcYTv2ZXrYWQMDr</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>evorieg0153</t>
+          <t>EVOL0007</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>EGWX 01.png</t>
+          <t>EVOL1768.png</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ</t>
+          <t>1e21zBxKUF_CpEiHPPLQXqWmB0dIjogu4</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1e21zBxKUF_CpEiHPPLQXqWmB0dIjogu4/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1e21zBxKUF_CpEiHPPLQXqWmB0dIjogu4</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>EGWX 01</t>
+          <t>EVOL1768</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>EGWX 02.png</t>
+          <t>EVOL1770.png</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H</t>
+          <t>1u92ZJFqxJNmb5aGyX5nHx5iwg-7cb35A</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1u92ZJFqxJNmb5aGyX5nHx5iwg-7cb35A/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1u92ZJFqxJNmb5aGyX5nHx5iwg-7cb35A</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>EGWX 02</t>
+          <t>EVOL1770</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PX120314.png</t>
+          <t>EVOL0006.png</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l</t>
+          <t>12O7eCmeafQKB9oSwvsQ_jmx8G0V3l-bW</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/12O7eCmeafQKB9oSwvsQ_jmx8G0V3l-bW/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=12O7eCmeafQKB9oSwvsQ_jmx8G0V3l-bW</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>PX120314</t>
+          <t>EVOL0006</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PERFA0261.png</t>
+          <t>EVOL1097.png</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1scmMs1xhcGnLuy7pA0GHx61dgeWNUjXb</t>
+          <t>1cccsXwoJkJPzk-eL73v5VJN_V94bUeqt</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1scmMs1xhcGnLuy7pA0GHx61dgeWNUjXb/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1cccsXwoJkJPzk-eL73v5VJN_V94bUeqt/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1scmMs1xhcGnLuy7pA0GHx61dgeWNUjXb</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1cccsXwoJkJPzk-eL73v5VJN_V94bUeqt</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>PERFA0261</t>
+          <t>EVOL1097</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>evol1000.png</t>
+          <t>EVOL1096.png</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k</t>
+          <t>1hXxGnVwWjeM8A3aQX2X2iUqJQo9rJwHL</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1hXxGnVwWjeM8A3aQX2X2iUqJQo9rJwHL/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1hXxGnVwWjeM8A3aQX2X2iUqJQo9rJwHL</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>evol1000</t>
+          <t>EVOL1096</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>evol0330.png</t>
+          <t>EVOL0035.png</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1_woEN7ahCyphJcQooMGZU51SaSrhcw2H</t>
+          <t>1NxT2qROgt7W8-v5nyOVkMi71PohZ-FkQ</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1_woEN7ahCyphJcQooMGZU51SaSrhcw2H/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1NxT2qROgt7W8-v5nyOVkMi71PohZ-FkQ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1_woEN7ahCyphJcQooMGZU51SaSrhcw2H</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1NxT2qROgt7W8-v5nyOVkMi71PohZ-FkQ</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>evol0330</t>
+          <t>EVOL0035</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>GAG12103AR.jpg</t>
+          <t>EVOL1772.png</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM</t>
+          <t>1iXMOoDNWMaC2sZIT8DqhR8oxwJxfIz6E</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1iXMOoDNWMaC2sZIT8DqhR8oxwJxfIz6E/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1iXMOoDNWMaC2sZIT8DqhR8oxwJxfIz6E</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>GAG12103AR</t>
+          <t>EVOL1772</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TOR01522.jpg</t>
+          <t>EVOL0002.png</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx</t>
+          <t>1m4WGbazGIB0enbXyuJmAtourcCX4k-Hh</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1m4WGbazGIB0enbXyuJmAtourcCX4k-Hh/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1m4WGbazGIB0enbXyuJmAtourcCX4k-Hh</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TOR01522</t>
+          <t>EVOL0002</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>logo-ferremax.png</t>
+          <t>EVOL1776.png</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq</t>
+          <t>1_2SYYR_oqTFYUzNjTLJNbzG65TBFhf3v</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1_2SYYR_oqTFYUzNjTLJNbzG65TBFhf3v/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1_2SYYR_oqTFYUzNjTLJNbzG65TBFhf3v</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>logo-ferremax</t>
+          <t>EVOL1776</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>login-bg.png</t>
+          <t>EVOL0030.png</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn</t>
+          <t>1Kv9UiV-aVZz0t6pCBErjb3nZx5LG4_RI</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Kv9UiV-aVZz0t6pCBErjb3nZx5LG4_RI/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Kv9UiV-aVZz0t6pCBErjb3nZx5LG4_RI</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>login-bg</t>
+          <t>EVOL0030</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>evol3089.jpg</t>
+          <t>EVOL0234.png</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1Mzg3Z8QvvJabPNR36K7tFWAEeTY2U2Hw</t>
+          <t>1N0BRoX5I3N6uKLoDo_bRkdIlqkKKm_C1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Mzg3Z8QvvJabPNR36K7tFWAEeTY2U2Hw/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1N0BRoX5I3N6uKLoDo_bRkdIlqkKKm_C1/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Mzg3Z8QvvJabPNR36K7tFWAEeTY2U2Hw</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1N0BRoX5I3N6uKLoDo_bRkdIlqkKKm_C1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>evol3089</t>
+          <t>EVOL0234</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>evol0025.jpg</t>
+          <t>EVOL4930.png</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO</t>
+          <t>16Q1nyVDVbNkBCILbD_FvkA3FBqJPeOCq</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/16Q1nyVDVbNkBCILbD_FvkA3FBqJPeOCq/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=16Q1nyVDVbNkBCILbD_FvkA3FBqJPeOCq</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>evol0025</t>
+          <t>EVOL4930</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>evol3245.jpg</t>
+          <t>EVOL4920.png</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM</t>
+          <t>1REQnGnDonL2LwsNYqDEA6_Rq7rW9R6qy</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1REQnGnDonL2LwsNYqDEA6_Rq7rW9R6qy/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1REQnGnDonL2LwsNYqDEA6_Rq7rW9R6qy</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>evol3245</t>
+          <t>EVOL4920</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>evol1970.jpg</t>
+          <t>EVOL4910.png</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn</t>
+          <t>1HoEkUgtSYonZeE4s57eT8cljKWeP573z</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1HoEkUgtSYonZeE4s57eT8cljKWeP573z/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1HoEkUgtSYonZeE4s57eT8cljKWeP573z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>evol1970</t>
+          <t>EVOL4910</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>evo115tu.jpg</t>
+          <t>EVOL4900.png</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g</t>
+          <t>1Zfv9tHlh8Ll9b1DAhLgrtNRQaf-IeUCp</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Zfv9tHlh8Ll9b1DAhLgrtNRQaf-IeUCp/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Zfv9tHlh8Ll9b1DAhLgrtNRQaf-IeUCp</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>evo115tu</t>
+          <t>EVOL4900</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>evol0028.jpg</t>
+          <t>EVOL0217.png</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7</t>
+          <t>1r10j9c5BSbOiMx-z6cYvsnEI2J8UgCbf</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1r10j9c5BSbOiMx-z6cYvsnEI2J8UgCbf/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1r10j9c5BSbOiMx-z6cYvsnEI2J8UgCbf</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>evol0028</t>
+          <t>EVOL0217</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>evol3510.jpg</t>
+          <t>EVOL0216.png</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV</t>
+          <t>1vPCn8eIOa0SDbWj6itkXYhQdlMiWBGZs</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1vPCn8eIOa0SDbWj6itkXYhQdlMiWBGZs/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1vPCn8eIOa0SDbWj6itkXYhQdlMiWBGZs</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>evol3510</t>
+          <t>EVOL0216</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>evol0070.jpg</t>
+          <t>EVOL0218.png</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ</t>
+          <t>1Mwt1mPTwPc0hPt9TU9EbG4N26r6L2O49</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Mwt1mPTwPc0hPt9TU9EbG4N26r6L2O49/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Mwt1mPTwPc0hPt9TU9EbG4N26r6L2O49</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>evol0070</t>
+          <t>EVOL0218</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>evol2530.jpg</t>
+          <t>EVOL0215.png</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No</t>
+          <t>138slbY27NquKx-NwShQif9lmmK4eK70x</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/138slbY27NquKx-NwShQif9lmmK4eK70x/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=138slbY27NquKx-NwShQif9lmmK4eK70x</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>evol2530</t>
+          <t>EVOL0215</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>evol0107.jpg</t>
+          <t>EVOL0214.png</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV</t>
+          <t>1l-krPbtKcvrTpd7hqwQ6Vw27GgqPP3q3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1l-krPbtKcvrTpd7hqwQ6Vw27GgqPP3q3/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1l-krPbtKcvrTpd7hqwQ6Vw27GgqPP3q3</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>evol0107</t>
+          <t>EVOL0214</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>evol0435.jpg</t>
+          <t>EVOL0028.png</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x</t>
+          <t>1WfEiYmUivHfKn1E2tUtaQ0e_hSIfxuQ0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1WfEiYmUivHfKn1E2tUtaQ0e_hSIfxuQ0/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1WfEiYmUivHfKn1E2tUtaQ0e_hSIfxuQ0</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>evol0435</t>
+          <t>EVOL0028</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>evol0111.jpg</t>
+          <t>EVOL0208.png</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>18PywtpchMGSXpToC9emFelBbnkIO851b</t>
+          <t>1AR4SwXMD3H0YBs7467V9Wt-XVh2SMUBX</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/18PywtpchMGSXpToC9emFelBbnkIO851b/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1AR4SwXMD3H0YBs7467V9Wt-XVh2SMUBX/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=18PywtpchMGSXpToC9emFelBbnkIO851b</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1AR4SwXMD3H0YBs7467V9Wt-XVh2SMUBX</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>evol0111</t>
+          <t>EVOL0208</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>evol3970.jpg</t>
+          <t>EVOL0024.png</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls</t>
+          <t>1i8Pj32xqXS2EAK_nx5wKta_K8DdR_sca</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1i8Pj32xqXS2EAK_nx5wKta_K8DdR_sca/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1i8Pj32xqXS2EAK_nx5wKta_K8DdR_sca</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>evol3970</t>
+          <t>EVOL0024</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>evol0177.jpg</t>
+          <t>EVOL0023.png</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn</t>
+          <t>1Taa-Rnb68NPS1z5tUjJLgUeRdTTa-mri</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Taa-Rnb68NPS1z5tUjJLgUeRdTTa-mri/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Taa-Rnb68NPS1z5tUjJLgUeRdTTa-mri</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>evol0177</t>
+          <t>EVOL0023</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>evol2205.jpg</t>
+          <t>EVOL0022.png</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK</t>
+          <t>1hguUm8nfTno3Kaqj8l7fNWzN6hLuAeko</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1hguUm8nfTno3Kaqj8l7fNWzN6hLuAeko/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1hguUm8nfTno3Kaqj8l7fNWzN6hLuAeko</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>evol2205</t>
+          <t>EVOL0022</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>evol1361.jpg</t>
+          <t>EVOL0021.png</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8</t>
+          <t>19Q5ns8Z0-XwZ3WAF5Mq6JfDViF97HpQG</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/19Q5ns8Z0-XwZ3WAF5Mq6JfDViF97HpQG/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=19Q5ns8Z0-XwZ3WAF5Mq6JfDViF97HpQG</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>evol1361</t>
+          <t>EVOL0021</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>evol3210.jpg</t>
+          <t>EVOL0086.png</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1TArjaa7JzfoYKxuitLH3gEeurJie_XEr</t>
+          <t>1cAKfzEHPw0N8IFMyM35w2R-4ULo-UKQZ</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1TArjaa7JzfoYKxuitLH3gEeurJie_XEr/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1cAKfzEHPw0N8IFMyM35w2R-4ULo-UKQZ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1TArjaa7JzfoYKxuitLH3gEeurJie_XEr</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1cAKfzEHPw0N8IFMyM35w2R-4ULo-UKQZ</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>evol3210</t>
+          <t>EVOL0086</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>EVOL0001.png</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1wRrrcUN2Ha5Z49bPQ3gVqmH9EwUaQ_s1</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1wRrrcUN2Ha5Z49bPQ3gVqmH9EwUaQ_s1/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1wRrrcUN2Ha5Z49bPQ3gVqmH9EwUaQ_s1</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>EVOL0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>EVOL1429.png</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1IYxYM8E6sVM65uXDL4GPz7iLt5afnKmk</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1IYxYM8E6sVM65uXDL4GPz7iLt5afnKmk/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1IYxYM8E6sVM65uXDL4GPz7iLt5afnKmk</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>EVOL1429</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>EVOL1430.png</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>15WskeyrKY0HX9dN1limtsDXvAZYX-OpB</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/15WskeyrKY0HX9dN1limtsDXvAZYX-OpB/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=15WskeyrKY0HX9dN1limtsDXvAZYX-OpB</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>EVOL1430</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>EVOL1960.png</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1xsmHRyemq1RoHVDkuRKK8F8Y3No0vbBV</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1xsmHRyemq1RoHVDkuRKK8F8Y3No0vbBV/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1xsmHRyemq1RoHVDkuRKK8F8Y3No0vbBV</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>EVOL1960</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>EVOMYR5810.png</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1l3AkRxk9SbyegXuHuFlxFSjiLe-aYl6L</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1l3AkRxk9SbyegXuHuFlxFSjiLe-aYl6L/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1l3AkRxk9SbyegXuHuFlxFSjiLe-aYl6L</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>EVOMYR5810</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>EVOMYR5808.png</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1W0tkVZcDQObIbEEeFT_prtJorpjy5OZ7</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1W0tkVZcDQObIbEEeFT_prtJorpjy5OZ7/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1W0tkVZcDQObIbEEeFT_prtJorpjy5OZ7</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>EVOMYR5808</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>EVOMYR5807.png</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1_z2vl1A9cSx5TsLQ9EIYrkXQ9PQTglpP</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1_z2vl1A9cSx5TsLQ9EIYrkXQ9PQTglpP/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1_z2vl1A9cSx5TsLQ9EIYrkXQ9PQTglpP</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>EVOMYR5807</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>EVOL1470.png</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1Vyvd63vWgdwiCO-n9Q6wIyuHgI7koikH</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Vyvd63vWgdwiCO-n9Q6wIyuHgI7koikH/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Vyvd63vWgdwiCO-n9Q6wIyuHgI7koikH</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>EVOL1470</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>EVOL0211.png</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1OsTMZVeQjHDATTIPkLVtbHTHasxl0I50</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1OsTMZVeQjHDATTIPkLVtbHTHasxl0I50/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1OsTMZVeQjHDATTIPkLVtbHTHasxl0I50</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>EVOL0211</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>EVOL0248.png</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1t8kPA0zlnmC3ZByzSeuiRNg5kazjWkny</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1t8kPA0zlnmC3ZByzSeuiRNg5kazjWkny/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1t8kPA0zlnmC3ZByzSeuiRNg5kazjWkny</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>EVOL0248</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>EVOL0249.png</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>141PZXYKcbHr1Kkg4W09BRFc_2Wpo00wl</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/141PZXYKcbHr1Kkg4W09BRFc_2Wpo00wl/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=141PZXYKcbHr1Kkg4W09BRFc_2Wpo00wl</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>EVOL0249</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>EVOMYR1927.png</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1LZ8TY9rTLl0ZBgcxJ3Iis5M3RYVnEjEd</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1LZ8TY9rTLl0ZBgcxJ3Iis5M3RYVnEjEd/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1LZ8TY9rTLl0ZBgcxJ3Iis5M3RYVnEjEd</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>EVOMYR1927</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>EVOMYR1931.png</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1UFdmLxPD3nnusXUBvJjXZXHsUmzFC1kJ</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1UFdmLxPD3nnusXUBvJjXZXHsUmzFC1kJ/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1UFdmLxPD3nnusXUBvJjXZXHsUmzFC1kJ</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>EVOMYR1931</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>EVOMYR1929.png</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1gsNnPfkmtgYIv0M_TfC-yn8gA865w_Q7</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1gsNnPfkmtgYIv0M_TfC-yn8gA865w_Q7/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1gsNnPfkmtgYIv0M_TfC-yn8gA865w_Q7</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>EVOMYR1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>EVOMYR1928.png</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1I_TwZcgIZQo6wbiTs5uE4UbL0flyrhCe</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1I_TwZcgIZQo6wbiTs5uE4UbL0flyrhCe/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1I_TwZcgIZQo6wbiTs5uE4UbL0flyrhCe</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>EVOMYR1928</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>EVOL0045.png</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1P9Pe2iCczReo4mill8xuSGp0GYTfxkeG</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1P9Pe2iCczReo4mill8xuSGp0GYTfxkeG/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1P9Pe2iCczReo4mill8xuSGp0GYTfxkeG</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>EVOL0045</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>EVOL0044.png</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1BoxP8N1UqCCSogHLWBq97tRiRoz84UdJ</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1BoxP8N1UqCCSogHLWBq97tRiRoz84UdJ/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1BoxP8N1UqCCSogHLWBq97tRiRoz84UdJ</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>EVOL0044</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>EVOL0148.png</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1LjJtEpQm09MhzesfSzgLQtb8axi-NOC3</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1LjJtEpQm09MhzesfSzgLQtb8axi-NOC3/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1LjJtEpQm09MhzesfSzgLQtb8axi-NOC3</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>EVOL0148</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>EVOL0147.png</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1mbtJN63TojM6KAfyjugTEEGe91RPLfVi</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1mbtJN63TojM6KAfyjugTEEGe91RPLfVi/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1mbtJN63TojM6KAfyjugTEEGe91RPLfVi</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>EVOL0147</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>EVOL0145.png</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1thr8eSQLi5m0A3R_uD3DzpuvGvaBe8O9</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1thr8eSQLi5m0A3R_uD3DzpuvGvaBe8O9/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1thr8eSQLi5m0A3R_uD3DzpuvGvaBe8O9</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>EVOL0145</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>EVOL0146.png</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1aEusQyqbR4npgl-rCDrEvrnJcuIz5ek9</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1aEusQyqbR4npgl-rCDrEvrnJcuIz5ek9/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1aEusQyqbR4npgl-rCDrEvrnJcuIz5ek9</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>EVOL0146</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>EVOL0229.png</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1ZZtGTIAIVjG2cZcmwZ0znPI39X35as55</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1ZZtGTIAIVjG2cZcmwZ0znPI39X35as55/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1ZZtGTIAIVjG2cZcmwZ0znPI39X35as55</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>EVOL0229</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>EVOL1331.png</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1ZIbc-yFETgZW0ll3EBizduVKC7P3KDAC</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1ZIbc-yFETgZW0ll3EBizduVKC7P3KDAC/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1ZIbc-yFETgZW0ll3EBizduVKC7P3KDAC</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>EVOL1331</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>EVOL1351.png</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1hnbAMUjVoPlO4Y1VBBpvSP-lR8_DoBjo</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1hnbAMUjVoPlO4Y1VBBpvSP-lR8_DoBjo/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1hnbAMUjVoPlO4Y1VBBpvSP-lR8_DoBjo</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>EVOL1351</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>EVOL3415.png</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1CCCCuHxA1pCpdNO1qT3RCi29q_-vd1an</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1CCCCuHxA1pCpdNO1qT3RCi29q_-vd1an/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1CCCCuHxA1pCpdNO1qT3RCi29q_-vd1an</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>EVOL3415</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>EVOL0089.png</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1dH1ZE8m1mrmCLZQpIkQtnGLzIqmyzqYp</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1dH1ZE8m1mrmCLZQpIkQtnGLzIqmyzqYp/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1dH1ZE8m1mrmCLZQpIkQtnGLzIqmyzqYp</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>EVOL0089</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>EVOL0033.png</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1jg3UbW4U1qJn4GZ6Qq-JlS27McjoGlY1</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1jg3UbW4U1qJn4GZ6Qq-JlS27McjoGlY1/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1jg3UbW4U1qJn4GZ6Qq-JlS27McjoGlY1</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>EVOL0033</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>EVOL0320.png</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1qopXTWXaCsoCSdy9K9kcd5xTOE7pt1rf</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1qopXTWXaCsoCSdy9K9kcd5xTOE7pt1rf/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1qopXTWXaCsoCSdy9K9kcd5xTOE7pt1rf</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>EVOL0320</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>EVOL0223.png</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1EsiZgOyTg_IgUNzfOK-oRDpCxHrUsRtG</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1EsiZgOyTg_IgUNzfOK-oRDpCxHrUsRtG/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1EsiZgOyTg_IgUNzfOK-oRDpCxHrUsRtG</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>EVOL0223</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>EVOL0139.png</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1l3Dj5NU9TR-PtSvfmQjxEfCsQxmqAqor</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1l3Dj5NU9TR-PtSvfmQjxEfCsQxmqAqor/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1l3Dj5NU9TR-PtSvfmQjxEfCsQxmqAqor</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>EVOL0139</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>EVOL0138.png</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1sQpSD4exEhgRBuaPg9caxRD8gJZ_1oUo</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1sQpSD4exEhgRBuaPg9caxRD8gJZ_1oUo/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1sQpSD4exEhgRBuaPg9caxRD8gJZ_1oUo</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>EVOL0138</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>EVOL0071.png</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>10zbPoE1ceqG_5Ym7mtW0nqLaIcX0wpUP</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/10zbPoE1ceqG_5Ym7mtW0nqLaIcX0wpUP/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=10zbPoE1ceqG_5Ym7mtW0nqLaIcX0wpUP</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>EVOL0071</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>EVOL4000.png</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1GlxlUZUr8DpaAuH3UceEUIw8R73FF-Eu</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1GlxlUZUr8DpaAuH3UceEUIw8R73FF-Eu/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1GlxlUZUr8DpaAuH3UceEUIw8R73FF-Eu</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>EVOL4000</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>EVOL4050.png</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1dwkW4HBqrRnBooqNVxsmBWLPYW-xiHFm</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1dwkW4HBqrRnBooqNVxsmBWLPYW-xiHFm/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1dwkW4HBqrRnBooqNVxsmBWLPYW-xiHFm</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>EVOL4050</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>EVOL1154.png</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1AXsDyi20NTrPHfxF0kR575sCVSw0ms-v</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1AXsDyi20NTrPHfxF0kR575sCVSw0ms-v/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1AXsDyi20NTrPHfxF0kR575sCVSw0ms-v</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>EVOL1154</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>EVOL1152.png</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1WIL5-OlkISb4Jgw7r4Z-MY3GQlaymSLF</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1WIL5-OlkISb4Jgw7r4Z-MY3GQlaymSLF/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1WIL5-OlkISb4Jgw7r4Z-MY3GQlaymSLF</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>EVOL1152</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>EVOL1150.png</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>140FdaGH8uQQ35bKF6UxfK-GcsNRfi6Vd</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/140FdaGH8uQQ35bKF6UxfK-GcsNRfi6Vd/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=140FdaGH8uQQ35bKF6UxfK-GcsNRfi6Vd</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>EVOL1150</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>EVOL1165.png</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1vEf6OOzcfBVbZfbXB0YWrvIwOG4TeEIO</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1vEf6OOzcfBVbZfbXB0YWrvIwOG4TeEIO/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1vEf6OOzcfBVbZfbXB0YWrvIwOG4TeEIO</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>EVOL1165</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>EVOL1160.png</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1hhox9FvrlvQQzBpx43_mRx6BX6jbPCFY</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1hhox9FvrlvQQzBpx43_mRx6BX6jbPCFY/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1hhox9FvrlvQQzBpx43_mRx6BX6jbPCFY</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>EVOL1160</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>EVOL2215.png</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1JC2spLFD9wfeL21RGXw7k7tOmtBoxW37</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1JC2spLFD9wfeL21RGXw7k7tOmtBoxW37/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1JC2spLFD9wfeL21RGXw7k7tOmtBoxW37</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>EVOL2215</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>EVOL2213.png</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1DNP9gvL6lqvp6wXj3562s916dUaZvsVI</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1DNP9gvL6lqvp6wXj3562s916dUaZvsVI/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1DNP9gvL6lqvp6wXj3562s916dUaZvsVI</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>EVOL2213</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>EVOL2210.png</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1_wu8PGak1QJESDVjKPgGGuFu6K8qwGIH</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1_wu8PGak1QJESDVjKPgGGuFu6K8qwGIH/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1_wu8PGak1QJESDVjKPgGGuFu6K8qwGIH</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>EVOL2210</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>EVOL2205.png</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>19EgWFY7ggYEd14bqAT5O8Btzy4a5AikH</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/19EgWFY7ggYEd14bqAT5O8Btzy4a5AikH/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=19EgWFY7ggYEd14bqAT5O8Btzy4a5AikH</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>EVOL2205</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>EVOL2200.png</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1h9vsrBzW0Xv1iQQLj1jp8r7OhQvm5xt5</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1h9vsrBzW0Xv1iQQLj1jp8r7OhQvm5xt5/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1h9vsrBzW0Xv1iQQLj1jp8r7OhQvm5xt5</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>EVOL2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>EVO230TU.png</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1lfwn_2PGMJg_bWOfV1-SOfH2D2Zxka5E</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1lfwn_2PGMJg_bWOfV1-SOfH2D2Zxka5E/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1lfwn_2PGMJg_bWOfV1-SOfH2D2Zxka5E</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>EVO230TU</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>EVO180TU.png</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1WVkT2L7MnVLJ66_a5VaVG7DD6O4kKMmW</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1WVkT2L7MnVLJ66_a5VaVG7DD6O4kKMmW/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1WVkT2L7MnVLJ66_a5VaVG7DD6O4kKMmW</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>EVO180TU</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>EVO230CO.png</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1k0kPpz5lEqKuPCuNObrxtXqylrrHY9MZ</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1k0kPpz5lEqKuPCuNObrxtXqylrrHY9MZ/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1k0kPpz5lEqKuPCuNObrxtXqylrrHY9MZ</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>EVO230CO</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>EVO115LA.png</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1CK8kNuk4AClU1c3ubeahyF7fCj4UJje0</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1CK8kNuk4AClU1c3ubeahyF7fCj4UJje0/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1CK8kNuk4AClU1c3ubeahyF7fCj4UJje0</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>EVO115LA</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>EVO180CO.png</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1RWh4i639_R8TbOlxf7nQ75cZMmsVmPvt</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1RWh4i639_R8TbOlxf7nQ75cZMmsVmPvt/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1RWh4i639_R8TbOlxf7nQ75cZMmsVmPvt</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>EVO180CO</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>EVO180LA.png</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1EDeJZBv7uSJR-_dokYsYroemSxQJBGQe</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1EDeJZBv7uSJR-_dokYsYroemSxQJBGQe/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1EDeJZBv7uSJR-_dokYsYroemSxQJBGQe</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>EVO180LA</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>EVO115TF.png</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1RRC14OSifI-1w5dAe-OsiJGri5ynU0Qi</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1RRC14OSifI-1w5dAe-OsiJGri5ynU0Qi/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1RRC14OSifI-1w5dAe-OsiJGri5ynU0Qi</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>EVO115TF</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>EVOL0224.png</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>16TDaATiPzZEt23MZVZ6tlJ42ciFq7YrM</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/16TDaATiPzZEt23MZVZ6tlJ42ciFq7YrM/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=16TDaATiPzZEt23MZVZ6tlJ42ciFq7YrM</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>EVOL0224</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>EVOL1208.png</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1FYOCBYNRBYVv1scwGIYMsC8JT-SqrRw2</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1FYOCBYNRBYVv1scwGIYMsC8JT-SqrRw2/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1FYOCBYNRBYVv1scwGIYMsC8JT-SqrRw2</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>EVOL1208</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>EVOL0135.png</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>1Z3lQgkeXUJr8Eatj6VeMofuFP6FodDKc</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Z3lQgkeXUJr8Eatj6VeMofuFP6FodDKc/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Z3lQgkeXUJr8Eatj6VeMofuFP6FodDKc</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>EVOL0135</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>EVOL2135.png</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1olYmdhMIr_eFZFwfKZLENH6-kaRhAYY2</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1olYmdhMIr_eFZFwfKZLENH6-kaRhAYY2/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1olYmdhMIr_eFZFwfKZLENH6-kaRhAYY2</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>EVOL2135</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>EVOL1200.png</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>1Rm9BBRImLieuYju8WsEZ3m5ezvQAO47j</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Rm9BBRImLieuYju8WsEZ3m5ezvQAO47j/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Rm9BBRImLieuYju8WsEZ3m5ezvQAO47j</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>EVOL1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>EVOL1631.png</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>13z80AE4-qQfFh2mSZDaCCb2jDo-OZLNN</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/13z80AE4-qQfFh2mSZDaCCb2jDo-OZLNN/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=13z80AE4-qQfFh2mSZDaCCb2jDo-OZLNN</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>EVOL1631</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>EVOL0108.png</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>1CrRWGci78tG63-mOTBZd4pBA8QBUfJ16</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1CrRWGci78tG63-mOTBZd4pBA8QBUfJ16/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1CrRWGci78tG63-mOTBZd4pBA8QBUfJ16</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>EVOL0108</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>EVOL0340.png</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>1eNc8s9f6SvIp_OYtCmvflwSyvavrgOD_</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1eNc8s9f6SvIp_OYtCmvflwSyvavrgOD_/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1eNc8s9f6SvIp_OYtCmvflwSyvavrgOD_</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>EVOL0340</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>EVOL5100.png</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1Ia3JNimwL4w3s98MGiXd1_f-vyZ6lBuf</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Ia3JNimwL4w3s98MGiXd1_f-vyZ6lBuf/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Ia3JNimwL4w3s98MGiXd1_f-vyZ6lBuf</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>EVOL5100</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>EVOL0144.png</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>15TWcTMqD_AFXZ_Zxwb5Ta2xpXkvySowE</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/15TWcTMqD_AFXZ_Zxwb5Ta2xpXkvySowE/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=15TWcTMqD_AFXZ_Zxwb5Ta2xpXkvySowE</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>EVOL0144</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>EVOL4753.png</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>EVOL4753</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>EVOL4755.png</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>1MdUoOX1z27tO24PDAFNxtWye61T69a8Z</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1MdUoOX1z27tO24PDAFNxtWye61T69a8Z/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1MdUoOX1z27tO24PDAFNxtWye61T69a8Z</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>EVOL4755</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>EVOL5530.png</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>1JrJHwCRw-twjmcec9_dOUmV31dTdvauq</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1JrJHwCRw-twjmcec9_dOUmV31dTdvauq/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1JrJHwCRw-twjmcec9_dOUmV31dTdvauq</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>EVOL5530</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>EVOL3420.png</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>EVOL3420</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>EVOL0043.png</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>EVOL0043</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>SAHANAF2H.png</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>SAHANAF2H</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>SAHANAF1H.png</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>SAHANAF1H</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>evol0088.png</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>evol0088</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>CON205.png</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>CON205</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>EVOL3975.jpg</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>EVOL3975</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>TF.414.png</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>TF.414</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>GAG1685AR.png</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>GAG1685AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>GAG1910AR.png</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>GAG1910AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>ISAALAMF16.png</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>14BogV6rHDIcL1bJzvKgItflTszBh2Yjx</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/14BogV6rHDIcL1bJzvKgItflTszBh2Yjx/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=14BogV6rHDIcL1bJzvKgItflTszBh2Yjx</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>ISAALAMF16</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>EA5310MT.png</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>168x1fBgYxstgD60EyOUekzYk21Cswij6</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/168x1fBgYxstgD60EyOUekzYk21Cswij6/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=168x1fBgYxstgD60EyOUekzYk21Cswij6</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>EA5310MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>EVOL0174.png</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>EVOL0174</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ALI70.png</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>118_Mew5CJz8YNrVjxiGgKooC9GHL40wA</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/118_Mew5CJz8YNrVjxiGgKooC9GHL40wA/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=118_Mew5CJz8YNrVjxiGgKooC9GHL40wA</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>ALI70</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>SIM18310.png</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>13cioMVntBUSCdPldxG-2kDu8-KoWxIa5</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/13cioMVntBUSCdPldxG-2kDu8-KoWxIa5/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=13cioMVntBUSCdPldxG-2kDu8-KoWxIa5</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>SIM18310</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>KIMERAC1.png</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>KIMERAC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>PROBOT41.png</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>PROBOT41</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>evorieg0153.jpg</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>evorieg0153</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>EGWX 01.png</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>EGWX 01</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>EGWX 02.png</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>EGWX 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>PX120314.png</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>PX120314</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>PERFA0261.png</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>1scmMs1xhcGnLuy7pA0GHx61dgeWNUjXb</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1scmMs1xhcGnLuy7pA0GHx61dgeWNUjXb/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1scmMs1xhcGnLuy7pA0GHx61dgeWNUjXb</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>PERFA0261</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>evol1000.png</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>evol1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>evol0330.png</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>1_woEN7ahCyphJcQooMGZU51SaSrhcw2H</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1_woEN7ahCyphJcQooMGZU51SaSrhcw2H/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1_woEN7ahCyphJcQooMGZU51SaSrhcw2H</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>evol0330</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>GAG12103AR.jpg</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>GAG12103AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>TOR01522.jpg</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>TOR01522</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>logo-ferremax.png</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>logo-ferremax</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>login-bg.png</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>login-bg</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>evol0025.jpg</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>evol0025</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>evol3245.jpg</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>evol3245</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>evol1970.jpg</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>evol1970</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>evo115tu.jpg</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>evo115tu</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>evol0028.jpg</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>evol0028</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>evol3510.jpg</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>evol3510</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>evol0070.jpg</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>evol0070</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>evol2530.jpg</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>evol2530</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>evol0107.jpg</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>evol0107</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>evol0435.jpg</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>evol0435</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>evol0111.jpg</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>18PywtpchMGSXpToC9emFelBbnkIO851b</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/18PywtpchMGSXpToC9emFelBbnkIO851b/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=18PywtpchMGSXpToC9emFelBbnkIO851b</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>evol0111</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>evol3970.jpg</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>evol3970</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>evol0177.jpg</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>evol0177</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>evol2205.jpg</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>evol2205</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>evol1361.jpg</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>evol1361</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>evol3210.jpg</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>1TArjaa7JzfoYKxuitLH3gEeurJie_XEr</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1TArjaa7JzfoYKxuitLH3gEeurJie_XEr/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1TArjaa7JzfoYKxuitLH3gEeurJie_XEr</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>evol3210</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
           <t>evo115co.jpg</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>1OFRhg3wSMFQ6TYNMMxMweX1JIEsXmKdY</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>https://drive.google.com/file/d/1OFRhg3wSMFQ6TYNMMxMweX1JIEsXmKdY/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D185" t="inlineStr">
         <is>
           <t>https://drive.google.com/uc?export=view&amp;id=1OFRhg3wSMFQ6TYNMMxMweX1JIEsXmKdY</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>evo115co</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>logo.png</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>1NqGegsSTudgffTUAt2bJbBFYufezJv7I</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1NqGegsSTudgffTUAt2bJbBFYufezJv7I/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1NqGegsSTudgffTUAt2bJbBFYufezJv7I</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>logo</t>
         </is>
       </c>
     </row>

--- a/imagenes_drive.xlsx
+++ b/imagenes_drive.xlsx
@@ -463,567 +463,567 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EVOL0011.png</t>
+          <t>EVOL3088.png</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1SQ4RO0DwgN6iB16qKKJW4nOKO-P-9AZ3</t>
+          <t>1eIiLw76jRpOSREMEBPIDpjFFqkxjchM2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1SQ4RO0DwgN6iB16qKKJW4nOKO-P-9AZ3/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1eIiLw76jRpOSREMEBPIDpjFFqkxjchM2/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1SQ4RO0DwgN6iB16qKKJW4nOKO-P-9AZ3</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1eIiLw76jRpOSREMEBPIDpjFFqkxjchM2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EVOL0011</t>
+          <t>EVOL3088</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EVOL0010.png</t>
+          <t>EVOL3087.png</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1GxnmEGjpuhLnIQTUrBPOHbaKsMVc8ztN</t>
+          <t>1po1vu4rn4nYzrCkc62BP4VTXYT0ECK8h</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1GxnmEGjpuhLnIQTUrBPOHbaKsMVc8ztN/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1po1vu4rn4nYzrCkc62BP4VTXYT0ECK8h/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1GxnmEGjpuhLnIQTUrBPOHbaKsMVc8ztN</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1po1vu4rn4nYzrCkc62BP4VTXYT0ECK8h</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EVOL0010</t>
+          <t>EVOL3087</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EVOL0009.png</t>
+          <t>EVOL3086.png</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17ABzRsKQ-aAb7OOIy4gjt7EM2XOgeKi3</t>
+          <t>1BvURk9_AZvhv7bu5cU165dzxtk54lrfP</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/17ABzRsKQ-aAb7OOIy4gjt7EM2XOgeKi3/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1BvURk9_AZvhv7bu5cU165dzxtk54lrfP/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=17ABzRsKQ-aAb7OOIy4gjt7EM2XOgeKi3</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1BvURk9_AZvhv7bu5cU165dzxtk54lrfP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EVOL0009</t>
+          <t>EVOL3086</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EVOL0008.png</t>
+          <t>EVOL3089.png</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1io205s0lr5DzUCVGViGbT2u_eoQJZb2C</t>
+          <t>1lkFpCsC8W2m3LUIiKnNyq5iQ5T4dSGWY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1io205s0lr5DzUCVGViGbT2u_eoQJZb2C/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1lkFpCsC8W2m3LUIiKnNyq5iQ5T4dSGWY/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1io205s0lr5DzUCVGViGbT2u_eoQJZb2C</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1lkFpCsC8W2m3LUIiKnNyq5iQ5T4dSGWY</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EVOL0008</t>
+          <t>EVOL3089</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EVOL6765.jpg</t>
+          <t>EVOL0011.png</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15gfbTSnSVxp3RepFCtm2oOGlz219oyZh</t>
+          <t>1SQ4RO0DwgN6iB16qKKJW4nOKO-P-9AZ3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/15gfbTSnSVxp3RepFCtm2oOGlz219oyZh/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1SQ4RO0DwgN6iB16qKKJW4nOKO-P-9AZ3/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=15gfbTSnSVxp3RepFCtm2oOGlz219oyZh</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1SQ4RO0DwgN6iB16qKKJW4nOKO-P-9AZ3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EVOL6765</t>
+          <t>EVOL0011</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EVOL6760.png</t>
+          <t>EVOL0010.png</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1vn8sI2ITt5XjGHLb23Z05vILv_DVLw05</t>
+          <t>1GxnmEGjpuhLnIQTUrBPOHbaKsMVc8ztN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1vn8sI2ITt5XjGHLb23Z05vILv_DVLw05/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1GxnmEGjpuhLnIQTUrBPOHbaKsMVc8ztN/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1vn8sI2ITt5XjGHLb23Z05vILv_DVLw05</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1GxnmEGjpuhLnIQTUrBPOHbaKsMVc8ztN</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EVOL6760</t>
+          <t>EVOL0010</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EVOL6715.png</t>
+          <t>EVOL0009.png</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1SN4-JQEpjlD5Q-TDn2v5lNQ1hFyKVot1</t>
+          <t>17ABzRsKQ-aAb7OOIy4gjt7EM2XOgeKi3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1SN4-JQEpjlD5Q-TDn2v5lNQ1hFyKVot1/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/17ABzRsKQ-aAb7OOIy4gjt7EM2XOgeKi3/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1SN4-JQEpjlD5Q-TDn2v5lNQ1hFyKVot1</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=17ABzRsKQ-aAb7OOIy4gjt7EM2XOgeKi3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EVOL6715</t>
+          <t>EVOL0009</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EVOL6222.png</t>
+          <t>EVOL0008.png</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1O-xOhjMBTW4WINz5wsnhNFHCn5EnT0Ki</t>
+          <t>1io205s0lr5DzUCVGViGbT2u_eoQJZb2C</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1O-xOhjMBTW4WINz5wsnhNFHCn5EnT0Ki/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1io205s0lr5DzUCVGViGbT2u_eoQJZb2C/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1O-xOhjMBTW4WINz5wsnhNFHCn5EnT0Ki</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1io205s0lr5DzUCVGViGbT2u_eoQJZb2C</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EVOL6222</t>
+          <t>EVOL0008</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EVOL6221.png</t>
+          <t>EVOL6765.jpg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>19iuIRdeE_RammaNztz1KygdNq1tGTL8C</t>
+          <t>15gfbTSnSVxp3RepFCtm2oOGlz219oyZh</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/19iuIRdeE_RammaNztz1KygdNq1tGTL8C/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/15gfbTSnSVxp3RepFCtm2oOGlz219oyZh/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=19iuIRdeE_RammaNztz1KygdNq1tGTL8C</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=15gfbTSnSVxp3RepFCtm2oOGlz219oyZh</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>EVOL6221</t>
+          <t>EVOL6765</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EVOL6210.png</t>
+          <t>EVOL6760.png</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>15mNv1wWkmsHpiLiWlg8jgv5yQVZt4Z1l</t>
+          <t>1vn8sI2ITt5XjGHLb23Z05vILv_DVLw05</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/15mNv1wWkmsHpiLiWlg8jgv5yQVZt4Z1l/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1vn8sI2ITt5XjGHLb23Z05vILv_DVLw05/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=15mNv1wWkmsHpiLiWlg8jgv5yQVZt4Z1l</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1vn8sI2ITt5XjGHLb23Z05vILv_DVLw05</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>EVOL6210</t>
+          <t>EVOL6760</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EVOL6205.png</t>
+          <t>EVOL6715.png</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11hBmjH-q6kh0_CNOGWTw6LnsXjbves0f</t>
+          <t>1SN4-JQEpjlD5Q-TDn2v5lNQ1hFyKVot1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/11hBmjH-q6kh0_CNOGWTw6LnsXjbves0f/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1SN4-JQEpjlD5Q-TDn2v5lNQ1hFyKVot1/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=11hBmjH-q6kh0_CNOGWTw6LnsXjbves0f</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1SN4-JQEpjlD5Q-TDn2v5lNQ1hFyKVot1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>EVOL6205</t>
+          <t>EVOL6715</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EVOL3957.png</t>
+          <t>EVOL6222.png</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14c8KBXNh6nrKA5S4u67BmU7nOAZL4Adk</t>
+          <t>1O-xOhjMBTW4WINz5wsnhNFHCn5EnT0Ki</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/14c8KBXNh6nrKA5S4u67BmU7nOAZL4Adk/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1O-xOhjMBTW4WINz5wsnhNFHCn5EnT0Ki/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=14c8KBXNh6nrKA5S4u67BmU7nOAZL4Adk</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1O-xOhjMBTW4WINz5wsnhNFHCn5EnT0Ki</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>EVOL3957</t>
+          <t>EVOL6222</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EVOL3953.png</t>
+          <t>EVOL6221.png</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1PWg5nUjF3Lzsf6MSF9eUD0K364TAsO1O</t>
+          <t>19iuIRdeE_RammaNztz1KygdNq1tGTL8C</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1PWg5nUjF3Lzsf6MSF9eUD0K364TAsO1O/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/19iuIRdeE_RammaNztz1KygdNq1tGTL8C/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1PWg5nUjF3Lzsf6MSF9eUD0K364TAsO1O</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=19iuIRdeE_RammaNztz1KygdNq1tGTL8C</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>EVOL3953</t>
+          <t>EVOL6221</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EVOL3959.png</t>
+          <t>EVOL6210.png</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1MtgmhF4llFOz-8-Kg3Xk0eOPlIrE6NqZ</t>
+          <t>15mNv1wWkmsHpiLiWlg8jgv5yQVZt4Z1l</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1MtgmhF4llFOz-8-Kg3Xk0eOPlIrE6NqZ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/15mNv1wWkmsHpiLiWlg8jgv5yQVZt4Z1l/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1MtgmhF4llFOz-8-Kg3Xk0eOPlIrE6NqZ</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=15mNv1wWkmsHpiLiWlg8jgv5yQVZt4Z1l</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>EVOL3959</t>
+          <t>EVOL6210</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EVOL3955.png</t>
+          <t>EVOL6205.png</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1sRu-iyXG_A4UpHTtmWy4m_O-1eVKvO-f</t>
+          <t>11hBmjH-q6kh0_CNOGWTw6LnsXjbves0f</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1sRu-iyXG_A4UpHTtmWy4m_O-1eVKvO-f/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/11hBmjH-q6kh0_CNOGWTw6LnsXjbves0f/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1sRu-iyXG_A4UpHTtmWy4m_O-1eVKvO-f</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=11hBmjH-q6kh0_CNOGWTw6LnsXjbves0f</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>EVOL3955</t>
+          <t>EVOL6205</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EVOL3961.png</t>
+          <t>EVOL3957.png</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1h2_X5ZaWr3LDrgj_YErdS25QazR7X0od</t>
+          <t>14c8KBXNh6nrKA5S4u67BmU7nOAZL4Adk</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1h2_X5ZaWr3LDrgj_YErdS25QazR7X0od/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/14c8KBXNh6nrKA5S4u67BmU7nOAZL4Adk/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1h2_X5ZaWr3LDrgj_YErdS25QazR7X0od</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=14c8KBXNh6nrKA5S4u67BmU7nOAZL4Adk</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>EVOL3961</t>
+          <t>EVOL3957</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EVOL0440.png</t>
+          <t>EVOL3953.png</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1Ms54HbfpRLBZCKT8PoD-2ajd7x6LXc-z</t>
+          <t>1PWg5nUjF3Lzsf6MSF9eUD0K364TAsO1O</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Ms54HbfpRLBZCKT8PoD-2ajd7x6LXc-z/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1PWg5nUjF3Lzsf6MSF9eUD0K364TAsO1O/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Ms54HbfpRLBZCKT8PoD-2ajd7x6LXc-z</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1PWg5nUjF3Lzsf6MSF9eUD0K364TAsO1O</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>EVOL0440</t>
+          <t>EVOL3953</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EVOL3088.png</t>
+          <t>EVOL3959.png</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1Sg_TcDl02yfg5ci4N_aUxhguTMsJK1oS</t>
+          <t>1MtgmhF4llFOz-8-Kg3Xk0eOPlIrE6NqZ</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Sg_TcDl02yfg5ci4N_aUxhguTMsJK1oS/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1MtgmhF4llFOz-8-Kg3Xk0eOPlIrE6NqZ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Sg_TcDl02yfg5ci4N_aUxhguTMsJK1oS</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1MtgmhF4llFOz-8-Kg3Xk0eOPlIrE6NqZ</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>EVOL3088</t>
+          <t>EVOL3959</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EVOL3087.png</t>
+          <t>EVOL3955.png</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1BtaWjX91R2Jb9m7lIR25yIc3K0bUFXh4</t>
+          <t>1sRu-iyXG_A4UpHTtmWy4m_O-1eVKvO-f</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1BtaWjX91R2Jb9m7lIR25yIc3K0bUFXh4/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1sRu-iyXG_A4UpHTtmWy4m_O-1eVKvO-f/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1BtaWjX91R2Jb9m7lIR25yIc3K0bUFXh4</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1sRu-iyXG_A4UpHTtmWy4m_O-1eVKvO-f</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EVOL3087</t>
+          <t>EVOL3955</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EVOL3086.png</t>
+          <t>EVOL3961.png</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1cPh9vY23LMIJ6gxryWrzINzAnbU55Mpd</t>
+          <t>1h2_X5ZaWr3LDrgj_YErdS25QazR7X0od</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1cPh9vY23LMIJ6gxryWrzINzAnbU55Mpd/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1h2_X5ZaWr3LDrgj_YErdS25QazR7X0od/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1cPh9vY23LMIJ6gxryWrzINzAnbU55Mpd</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1h2_X5ZaWr3LDrgj_YErdS25QazR7X0od</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>EVOL3086</t>
+          <t>EVOL3961</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EVOL3089.png</t>
+          <t>EVOL0440.png</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1FxoJjxKuGkKQkyduEClxlKKO4PiTc2zI</t>
+          <t>1Ms54HbfpRLBZCKT8PoD-2ajd7x6LXc-z</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1FxoJjxKuGkKQkyduEClxlKKO4PiTc2zI/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Ms54HbfpRLBZCKT8PoD-2ajd7x6LXc-z/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1FxoJjxKuGkKQkyduEClxlKKO4PiTc2zI</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Ms54HbfpRLBZCKT8PoD-2ajd7x6LXc-z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>EVOL3089</t>
+          <t>EVOL0440</t>
         </is>
       </c>
     </row>

--- a/imagenes_drive.xlsx
+++ b/imagenes_drive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E186"/>
+  <dimension ref="A1:E187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,4993 +463,5020 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EVOL3088.png</t>
+          <t>PERFA0192.png</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1eIiLw76jRpOSREMEBPIDpjFFqkxjchM2</t>
+          <t>1o-0XWeAwepPI1a0a6fbRDbOfucPZdlyt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1eIiLw76jRpOSREMEBPIDpjFFqkxjchM2/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1o-0XWeAwepPI1a0a6fbRDbOfucPZdlyt/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1eIiLw76jRpOSREMEBPIDpjFFqkxjchM2</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1o-0XWeAwepPI1a0a6fbRDbOfucPZdlyt</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EVOL3088</t>
+          <t>PERFA0192</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EVOL3087.png</t>
+          <t>EVOL3088.png</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1po1vu4rn4nYzrCkc62BP4VTXYT0ECK8h</t>
+          <t>1eIiLw76jRpOSREMEBPIDpjFFqkxjchM2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1po1vu4rn4nYzrCkc62BP4VTXYT0ECK8h/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1eIiLw76jRpOSREMEBPIDpjFFqkxjchM2/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1po1vu4rn4nYzrCkc62BP4VTXYT0ECK8h</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1eIiLw76jRpOSREMEBPIDpjFFqkxjchM2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EVOL3087</t>
+          <t>EVOL3088</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EVOL3086.png</t>
+          <t>EVOL3087.png</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1BvURk9_AZvhv7bu5cU165dzxtk54lrfP</t>
+          <t>1po1vu4rn4nYzrCkc62BP4VTXYT0ECK8h</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1BvURk9_AZvhv7bu5cU165dzxtk54lrfP/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1po1vu4rn4nYzrCkc62BP4VTXYT0ECK8h/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1BvURk9_AZvhv7bu5cU165dzxtk54lrfP</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1po1vu4rn4nYzrCkc62BP4VTXYT0ECK8h</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EVOL3086</t>
+          <t>EVOL3087</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EVOL3089.png</t>
+          <t>EVOL3086.png</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1lkFpCsC8W2m3LUIiKnNyq5iQ5T4dSGWY</t>
+          <t>1BvURk9_AZvhv7bu5cU165dzxtk54lrfP</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1lkFpCsC8W2m3LUIiKnNyq5iQ5T4dSGWY/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1BvURk9_AZvhv7bu5cU165dzxtk54lrfP/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1lkFpCsC8W2m3LUIiKnNyq5iQ5T4dSGWY</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1BvURk9_AZvhv7bu5cU165dzxtk54lrfP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EVOL3089</t>
+          <t>EVOL3086</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EVOL0011.png</t>
+          <t>EVOL3089.png</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1SQ4RO0DwgN6iB16qKKJW4nOKO-P-9AZ3</t>
+          <t>1lkFpCsC8W2m3LUIiKnNyq5iQ5T4dSGWY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1SQ4RO0DwgN6iB16qKKJW4nOKO-P-9AZ3/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1lkFpCsC8W2m3LUIiKnNyq5iQ5T4dSGWY/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1SQ4RO0DwgN6iB16qKKJW4nOKO-P-9AZ3</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1lkFpCsC8W2m3LUIiKnNyq5iQ5T4dSGWY</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EVOL0011</t>
+          <t>EVOL3089</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EVOL0010.png</t>
+          <t>EVOL0011.png</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1GxnmEGjpuhLnIQTUrBPOHbaKsMVc8ztN</t>
+          <t>1SQ4RO0DwgN6iB16qKKJW4nOKO-P-9AZ3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1GxnmEGjpuhLnIQTUrBPOHbaKsMVc8ztN/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1SQ4RO0DwgN6iB16qKKJW4nOKO-P-9AZ3/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1GxnmEGjpuhLnIQTUrBPOHbaKsMVc8ztN</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1SQ4RO0DwgN6iB16qKKJW4nOKO-P-9AZ3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EVOL0010</t>
+          <t>EVOL0011</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EVOL0009.png</t>
+          <t>EVOL0010.png</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17ABzRsKQ-aAb7OOIy4gjt7EM2XOgeKi3</t>
+          <t>1GxnmEGjpuhLnIQTUrBPOHbaKsMVc8ztN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/17ABzRsKQ-aAb7OOIy4gjt7EM2XOgeKi3/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1GxnmEGjpuhLnIQTUrBPOHbaKsMVc8ztN/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=17ABzRsKQ-aAb7OOIy4gjt7EM2XOgeKi3</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1GxnmEGjpuhLnIQTUrBPOHbaKsMVc8ztN</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EVOL0009</t>
+          <t>EVOL0010</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EVOL0008.png</t>
+          <t>EVOL0009.png</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1io205s0lr5DzUCVGViGbT2u_eoQJZb2C</t>
+          <t>17ABzRsKQ-aAb7OOIy4gjt7EM2XOgeKi3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1io205s0lr5DzUCVGViGbT2u_eoQJZb2C/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/17ABzRsKQ-aAb7OOIy4gjt7EM2XOgeKi3/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1io205s0lr5DzUCVGViGbT2u_eoQJZb2C</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=17ABzRsKQ-aAb7OOIy4gjt7EM2XOgeKi3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EVOL0008</t>
+          <t>EVOL0009</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EVOL6765.jpg</t>
+          <t>EVOL0008.png</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15gfbTSnSVxp3RepFCtm2oOGlz219oyZh</t>
+          <t>1io205s0lr5DzUCVGViGbT2u_eoQJZb2C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/15gfbTSnSVxp3RepFCtm2oOGlz219oyZh/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1io205s0lr5DzUCVGViGbT2u_eoQJZb2C/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=15gfbTSnSVxp3RepFCtm2oOGlz219oyZh</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1io205s0lr5DzUCVGViGbT2u_eoQJZb2C</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>EVOL6765</t>
+          <t>EVOL0008</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EVOL6760.png</t>
+          <t>EVOL6765.jpg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1vn8sI2ITt5XjGHLb23Z05vILv_DVLw05</t>
+          <t>15gfbTSnSVxp3RepFCtm2oOGlz219oyZh</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1vn8sI2ITt5XjGHLb23Z05vILv_DVLw05/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/15gfbTSnSVxp3RepFCtm2oOGlz219oyZh/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1vn8sI2ITt5XjGHLb23Z05vILv_DVLw05</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=15gfbTSnSVxp3RepFCtm2oOGlz219oyZh</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>EVOL6760</t>
+          <t>EVOL6765</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EVOL6715.png</t>
+          <t>EVOL6760.png</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1SN4-JQEpjlD5Q-TDn2v5lNQ1hFyKVot1</t>
+          <t>1vn8sI2ITt5XjGHLb23Z05vILv_DVLw05</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1SN4-JQEpjlD5Q-TDn2v5lNQ1hFyKVot1/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1vn8sI2ITt5XjGHLb23Z05vILv_DVLw05/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1SN4-JQEpjlD5Q-TDn2v5lNQ1hFyKVot1</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1vn8sI2ITt5XjGHLb23Z05vILv_DVLw05</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>EVOL6715</t>
+          <t>EVOL6760</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EVOL6222.png</t>
+          <t>EVOL6715.png</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1O-xOhjMBTW4WINz5wsnhNFHCn5EnT0Ki</t>
+          <t>1SN4-JQEpjlD5Q-TDn2v5lNQ1hFyKVot1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1O-xOhjMBTW4WINz5wsnhNFHCn5EnT0Ki/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1SN4-JQEpjlD5Q-TDn2v5lNQ1hFyKVot1/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1O-xOhjMBTW4WINz5wsnhNFHCn5EnT0Ki</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1SN4-JQEpjlD5Q-TDn2v5lNQ1hFyKVot1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>EVOL6222</t>
+          <t>EVOL6715</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EVOL6221.png</t>
+          <t>EVOL6222.png</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>19iuIRdeE_RammaNztz1KygdNq1tGTL8C</t>
+          <t>1O-xOhjMBTW4WINz5wsnhNFHCn5EnT0Ki</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/19iuIRdeE_RammaNztz1KygdNq1tGTL8C/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1O-xOhjMBTW4WINz5wsnhNFHCn5EnT0Ki/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=19iuIRdeE_RammaNztz1KygdNq1tGTL8C</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1O-xOhjMBTW4WINz5wsnhNFHCn5EnT0Ki</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>EVOL6221</t>
+          <t>EVOL6222</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EVOL6210.png</t>
+          <t>EVOL6221.png</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>15mNv1wWkmsHpiLiWlg8jgv5yQVZt4Z1l</t>
+          <t>19iuIRdeE_RammaNztz1KygdNq1tGTL8C</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/15mNv1wWkmsHpiLiWlg8jgv5yQVZt4Z1l/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/19iuIRdeE_RammaNztz1KygdNq1tGTL8C/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=15mNv1wWkmsHpiLiWlg8jgv5yQVZt4Z1l</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=19iuIRdeE_RammaNztz1KygdNq1tGTL8C</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>EVOL6210</t>
+          <t>EVOL6221</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EVOL6205.png</t>
+          <t>EVOL6210.png</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11hBmjH-q6kh0_CNOGWTw6LnsXjbves0f</t>
+          <t>15mNv1wWkmsHpiLiWlg8jgv5yQVZt4Z1l</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/11hBmjH-q6kh0_CNOGWTw6LnsXjbves0f/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/15mNv1wWkmsHpiLiWlg8jgv5yQVZt4Z1l/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=11hBmjH-q6kh0_CNOGWTw6LnsXjbves0f</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=15mNv1wWkmsHpiLiWlg8jgv5yQVZt4Z1l</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>EVOL6205</t>
+          <t>EVOL6210</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EVOL3957.png</t>
+          <t>EVOL6205.png</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14c8KBXNh6nrKA5S4u67BmU7nOAZL4Adk</t>
+          <t>11hBmjH-q6kh0_CNOGWTw6LnsXjbves0f</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/14c8KBXNh6nrKA5S4u67BmU7nOAZL4Adk/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/11hBmjH-q6kh0_CNOGWTw6LnsXjbves0f/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=14c8KBXNh6nrKA5S4u67BmU7nOAZL4Adk</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=11hBmjH-q6kh0_CNOGWTw6LnsXjbves0f</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>EVOL3957</t>
+          <t>EVOL6205</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EVOL3953.png</t>
+          <t>EVOL3957.png</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1PWg5nUjF3Lzsf6MSF9eUD0K364TAsO1O</t>
+          <t>14c8KBXNh6nrKA5S4u67BmU7nOAZL4Adk</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1PWg5nUjF3Lzsf6MSF9eUD0K364TAsO1O/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/14c8KBXNh6nrKA5S4u67BmU7nOAZL4Adk/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1PWg5nUjF3Lzsf6MSF9eUD0K364TAsO1O</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=14c8KBXNh6nrKA5S4u67BmU7nOAZL4Adk</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>EVOL3953</t>
+          <t>EVOL3957</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EVOL3959.png</t>
+          <t>EVOL3953.png</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1MtgmhF4llFOz-8-Kg3Xk0eOPlIrE6NqZ</t>
+          <t>1PWg5nUjF3Lzsf6MSF9eUD0K364TAsO1O</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1MtgmhF4llFOz-8-Kg3Xk0eOPlIrE6NqZ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1PWg5nUjF3Lzsf6MSF9eUD0K364TAsO1O/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1MtgmhF4llFOz-8-Kg3Xk0eOPlIrE6NqZ</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1PWg5nUjF3Lzsf6MSF9eUD0K364TAsO1O</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>EVOL3959</t>
+          <t>EVOL3953</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EVOL3955.png</t>
+          <t>EVOL3959.png</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1sRu-iyXG_A4UpHTtmWy4m_O-1eVKvO-f</t>
+          <t>1MtgmhF4llFOz-8-Kg3Xk0eOPlIrE6NqZ</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1sRu-iyXG_A4UpHTtmWy4m_O-1eVKvO-f/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1MtgmhF4llFOz-8-Kg3Xk0eOPlIrE6NqZ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1sRu-iyXG_A4UpHTtmWy4m_O-1eVKvO-f</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1MtgmhF4llFOz-8-Kg3Xk0eOPlIrE6NqZ</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EVOL3955</t>
+          <t>EVOL3959</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EVOL3961.png</t>
+          <t>EVOL3955.png</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1h2_X5ZaWr3LDrgj_YErdS25QazR7X0od</t>
+          <t>1sRu-iyXG_A4UpHTtmWy4m_O-1eVKvO-f</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1h2_X5ZaWr3LDrgj_YErdS25QazR7X0od/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1sRu-iyXG_A4UpHTtmWy4m_O-1eVKvO-f/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1h2_X5ZaWr3LDrgj_YErdS25QazR7X0od</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1sRu-iyXG_A4UpHTtmWy4m_O-1eVKvO-f</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>EVOL3961</t>
+          <t>EVOL3955</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EVOL0440.png</t>
+          <t>EVOL3961.png</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1Ms54HbfpRLBZCKT8PoD-2ajd7x6LXc-z</t>
+          <t>1h2_X5ZaWr3LDrgj_YErdS25QazR7X0od</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Ms54HbfpRLBZCKT8PoD-2ajd7x6LXc-z/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1h2_X5ZaWr3LDrgj_YErdS25QazR7X0od/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Ms54HbfpRLBZCKT8PoD-2ajd7x6LXc-z</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1h2_X5ZaWr3LDrgj_YErdS25QazR7X0od</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>EVOL0440</t>
+          <t>EVOL3961</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>EVOL0095.png</t>
+          <t>EVOL0440.png</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1zFOPytbsjigQ_-zvlzRuhie_qc3O1XTI</t>
+          <t>1Ms54HbfpRLBZCKT8PoD-2ajd7x6LXc-z</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1zFOPytbsjigQ_-zvlzRuhie_qc3O1XTI/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Ms54HbfpRLBZCKT8PoD-2ajd7x6LXc-z/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1zFOPytbsjigQ_-zvlzRuhie_qc3O1XTI</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Ms54HbfpRLBZCKT8PoD-2ajd7x6LXc-z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>EVOL0095</t>
+          <t>EVOL0440</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EVOL0094.png</t>
+          <t>EVOL0095.png</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>13BYafNl3xIdLli4HunqUgXbTtleRAuYP</t>
+          <t>1zFOPytbsjigQ_-zvlzRuhie_qc3O1XTI</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/13BYafNl3xIdLli4HunqUgXbTtleRAuYP/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1zFOPytbsjigQ_-zvlzRuhie_qc3O1XTI/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=13BYafNl3xIdLli4HunqUgXbTtleRAuYP</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1zFOPytbsjigQ_-zvlzRuhie_qc3O1XTI</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>EVOL0094</t>
+          <t>EVOL0095</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EVOL0470.png</t>
+          <t>EVOL0094.png</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1MuD89hp02bERhenW5uVzmupIp_6Unva-</t>
+          <t>13BYafNl3xIdLli4HunqUgXbTtleRAuYP</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1MuD89hp02bERhenW5uVzmupIp_6Unva-/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/13BYafNl3xIdLli4HunqUgXbTtleRAuYP/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1MuD89hp02bERhenW5uVzmupIp_6Unva-</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=13BYafNl3xIdLli4HunqUgXbTtleRAuYP</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EVOL0470</t>
+          <t>EVOL0094</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EVOL0460.png</t>
+          <t>EVOL0470.png</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1KbN7qY3oM8eiVO6sfydUs8UxgZb-hpGM</t>
+          <t>1MuD89hp02bERhenW5uVzmupIp_6Unva-</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1KbN7qY3oM8eiVO6sfydUs8UxgZb-hpGM/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1MuD89hp02bERhenW5uVzmupIp_6Unva-/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1KbN7qY3oM8eiVO6sfydUs8UxgZb-hpGM</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1MuD89hp02bERhenW5uVzmupIp_6Unva-</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>EVOL0460</t>
+          <t>EVOL0470</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EVOL0430.png</t>
+          <t>EVOL0460.png</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1a6UzFZ1FG_r_KwyRHHyPOQ2U1AgHcZVx</t>
+          <t>1KbN7qY3oM8eiVO6sfydUs8UxgZb-hpGM</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1a6UzFZ1FG_r_KwyRHHyPOQ2U1AgHcZVx/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1KbN7qY3oM8eiVO6sfydUs8UxgZb-hpGM/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1a6UzFZ1FG_r_KwyRHHyPOQ2U1AgHcZVx</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1KbN7qY3oM8eiVO6sfydUs8UxgZb-hpGM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>EVOL0430</t>
+          <t>EVOL0460</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EVOL0420.png</t>
+          <t>EVOL0430.png</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1F_Cm1j9kVlYzNi2UiF23z313uKdu63V3</t>
+          <t>1a6UzFZ1FG_r_KwyRHHyPOQ2U1AgHcZVx</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1F_Cm1j9kVlYzNi2UiF23z313uKdu63V3/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1a6UzFZ1FG_r_KwyRHHyPOQ2U1AgHcZVx/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1F_Cm1j9kVlYzNi2UiF23z313uKdu63V3</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1a6UzFZ1FG_r_KwyRHHyPOQ2U1AgHcZVx</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>EVOL0420</t>
+          <t>EVOL0430</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EVOL0410.png</t>
+          <t>EVOL0420.png</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1LUfV3jDmpQumlwkFHF8LMZiZwpAEdXyO</t>
+          <t>1F_Cm1j9kVlYzNi2UiF23z313uKdu63V3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1LUfV3jDmpQumlwkFHF8LMZiZwpAEdXyO/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1F_Cm1j9kVlYzNi2UiF23z313uKdu63V3/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1LUfV3jDmpQumlwkFHF8LMZiZwpAEdXyO</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1F_Cm1j9kVlYzNi2UiF23z313uKdu63V3</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>EVOL0410</t>
+          <t>EVOL0420</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EVOL0400.png</t>
+          <t>EVOL0410.png</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1lSQ7MfgvUvQy9wedDJIf0VblCwB1gQVE</t>
+          <t>1LUfV3jDmpQumlwkFHF8LMZiZwpAEdXyO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1lSQ7MfgvUvQy9wedDJIf0VblCwB1gQVE/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1LUfV3jDmpQumlwkFHF8LMZiZwpAEdXyO/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1lSQ7MfgvUvQy9wedDJIf0VblCwB1gQVE</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1LUfV3jDmpQumlwkFHF8LMZiZwpAEdXyO</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>EVOL0400</t>
+          <t>EVOL0410</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EVOL3630.png</t>
+          <t>EVOL0400.png</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1OVB6y73WtqDGZ2sutSFD2I01NQ5DAAbf</t>
+          <t>1lSQ7MfgvUvQy9wedDJIf0VblCwB1gQVE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1OVB6y73WtqDGZ2sutSFD2I01NQ5DAAbf/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1lSQ7MfgvUvQy9wedDJIf0VblCwB1gQVE/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1OVB6y73WtqDGZ2sutSFD2I01NQ5DAAbf</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1lSQ7MfgvUvQy9wedDJIf0VblCwB1gQVE</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>EVOL3630</t>
+          <t>EVOL0400</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EVOL3620.png</t>
+          <t>EVOL3630.png</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>14AHbLsGEWMuxVSU7sEf8DPavOFFDwVwS</t>
+          <t>1OVB6y73WtqDGZ2sutSFD2I01NQ5DAAbf</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/14AHbLsGEWMuxVSU7sEf8DPavOFFDwVwS/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1OVB6y73WtqDGZ2sutSFD2I01NQ5DAAbf/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=14AHbLsGEWMuxVSU7sEf8DPavOFFDwVwS</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1OVB6y73WtqDGZ2sutSFD2I01NQ5DAAbf</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>EVOL3620</t>
+          <t>EVOL3630</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EVOL3650.png</t>
+          <t>EVOL3620.png</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>13wkth3nmjrfecz2QGxymQBq00BhqUVcc</t>
+          <t>14AHbLsGEWMuxVSU7sEf8DPavOFFDwVwS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/13wkth3nmjrfecz2QGxymQBq00BhqUVcc/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/14AHbLsGEWMuxVSU7sEf8DPavOFFDwVwS/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=13wkth3nmjrfecz2QGxymQBq00BhqUVcc</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=14AHbLsGEWMuxVSU7sEf8DPavOFFDwVwS</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>EVOL3650</t>
+          <t>EVOL3620</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EVOL0192.png</t>
+          <t>EVOL3650.png</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16XOV3qr23_83laSeE-ZAokJLru73uTZG</t>
+          <t>13wkth3nmjrfecz2QGxymQBq00BhqUVcc</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/16XOV3qr23_83laSeE-ZAokJLru73uTZG/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/13wkth3nmjrfecz2QGxymQBq00BhqUVcc/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=16XOV3qr23_83laSeE-ZAokJLru73uTZG</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=13wkth3nmjrfecz2QGxymQBq00BhqUVcc</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>EVOL0192</t>
+          <t>EVOL3650</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EVOL3820.png</t>
+          <t>EVOL0192.png</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>190KI9EkKPW5Q08mwU5HZxUfG4jhzal_9</t>
+          <t>16XOV3qr23_83laSeE-ZAokJLru73uTZG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/190KI9EkKPW5Q08mwU5HZxUfG4jhzal_9/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/16XOV3qr23_83laSeE-ZAokJLru73uTZG/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=190KI9EkKPW5Q08mwU5HZxUfG4jhzal_9</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=16XOV3qr23_83laSeE-ZAokJLru73uTZG</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>EVOL3820</t>
+          <t>EVOL0192</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>EVOL3810.png</t>
+          <t>EVOL3820.png</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10gC9zGGNx9BnvdRNlpoOtpJOrVUSZw6I</t>
+          <t>190KI9EkKPW5Q08mwU5HZxUfG4jhzal_9</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/10gC9zGGNx9BnvdRNlpoOtpJOrVUSZw6I/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/190KI9EkKPW5Q08mwU5HZxUfG4jhzal_9/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=10gC9zGGNx9BnvdRNlpoOtpJOrVUSZw6I</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=190KI9EkKPW5Q08mwU5HZxUfG4jhzal_9</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>EVOL3810</t>
+          <t>EVOL3820</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>EVOL3800.png</t>
+          <t>EVOL3810.png</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1pFdn2H9GtPLW6z7LH6lk48ncqPFoCHtO</t>
+          <t>10gC9zGGNx9BnvdRNlpoOtpJOrVUSZw6I</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1pFdn2H9GtPLW6z7LH6lk48ncqPFoCHtO/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/10gC9zGGNx9BnvdRNlpoOtpJOrVUSZw6I/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1pFdn2H9GtPLW6z7LH6lk48ncqPFoCHtO</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=10gC9zGGNx9BnvdRNlpoOtpJOrVUSZw6I</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>EVOL3800</t>
+          <t>EVOL3810</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EVOL3740.png</t>
+          <t>EVOL3800.png</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1nqsl_r_OUzPDOdpf2Q9gXTXTC75M_UIz</t>
+          <t>1pFdn2H9GtPLW6z7LH6lk48ncqPFoCHtO</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1nqsl_r_OUzPDOdpf2Q9gXTXTC75M_UIz/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1pFdn2H9GtPLW6z7LH6lk48ncqPFoCHtO/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1nqsl_r_OUzPDOdpf2Q9gXTXTC75M_UIz</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1pFdn2H9GtPLW6z7LH6lk48ncqPFoCHtO</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>EVOL3740</t>
+          <t>EVOL3800</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EVOL3700.png</t>
+          <t>EVOL3740.png</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1YBiE3ntEMD3QifQcmOSRstxEsbILx2Ir</t>
+          <t>1nqsl_r_OUzPDOdpf2Q9gXTXTC75M_UIz</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1YBiE3ntEMD3QifQcmOSRstxEsbILx2Ir/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1nqsl_r_OUzPDOdpf2Q9gXTXTC75M_UIz/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1YBiE3ntEMD3QifQcmOSRstxEsbILx2Ir</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1nqsl_r_OUzPDOdpf2Q9gXTXTC75M_UIz</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>EVOL3700</t>
+          <t>EVOL3740</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EVOL3730.png</t>
+          <t>EVOL3700.png</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1JJqO6FgENBwXKUc4HZJLWJSu31GnFJ_G</t>
+          <t>1YBiE3ntEMD3QifQcmOSRstxEsbILx2Ir</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1JJqO6FgENBwXKUc4HZJLWJSu31GnFJ_G/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1YBiE3ntEMD3QifQcmOSRstxEsbILx2Ir/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1JJqO6FgENBwXKUc4HZJLWJSu31GnFJ_G</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1YBiE3ntEMD3QifQcmOSRstxEsbILx2Ir</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>EVOL3730</t>
+          <t>EVOL3700</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EVOL3720.png</t>
+          <t>EVOL3730.png</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>149DWgSpxOVwyQkFSVzG5UAx8HvFmgw4C</t>
+          <t>1JJqO6FgENBwXKUc4HZJLWJSu31GnFJ_G</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/149DWgSpxOVwyQkFSVzG5UAx8HvFmgw4C/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1JJqO6FgENBwXKUc4HZJLWJSu31GnFJ_G/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=149DWgSpxOVwyQkFSVzG5UAx8HvFmgw4C</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1JJqO6FgENBwXKUc4HZJLWJSu31GnFJ_G</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>EVOL3720</t>
+          <t>EVOL3730</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EVOL3710.png</t>
+          <t>EVOL3720.png</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1C4wZhl9SvavLY0MucvdkBqxEDXDczYVY</t>
+          <t>149DWgSpxOVwyQkFSVzG5UAx8HvFmgw4C</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1C4wZhl9SvavLY0MucvdkBqxEDXDczYVY/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/149DWgSpxOVwyQkFSVzG5UAx8HvFmgw4C/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1C4wZhl9SvavLY0MucvdkBqxEDXDczYVY</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=149DWgSpxOVwyQkFSVzG5UAx8HvFmgw4C</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>EVOL3710</t>
+          <t>EVOL3720</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>EVOL0130.png</t>
+          <t>EVOL3710.png</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1k1DpdDzRRZBf3vXlx5WQAcEIcExyo4D1</t>
+          <t>1C4wZhl9SvavLY0MucvdkBqxEDXDczYVY</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1k1DpdDzRRZBf3vXlx5WQAcEIcExyo4D1/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1C4wZhl9SvavLY0MucvdkBqxEDXDczYVY/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1k1DpdDzRRZBf3vXlx5WQAcEIcExyo4D1</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1C4wZhl9SvavLY0MucvdkBqxEDXDczYVY</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>EVOL0130</t>
+          <t>EVOL3710</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>EVOL0004.png</t>
+          <t>EVOL0130.png</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1dIXEp6OZxhmZDc49TAe6H5aUEgnoaD1d</t>
+          <t>1k1DpdDzRRZBf3vXlx5WQAcEIcExyo4D1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1dIXEp6OZxhmZDc49TAe6H5aUEgnoaD1d/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1k1DpdDzRRZBf3vXlx5WQAcEIcExyo4D1/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1dIXEp6OZxhmZDc49TAe6H5aUEgnoaD1d</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1k1DpdDzRRZBf3vXlx5WQAcEIcExyo4D1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>EVOL0004</t>
+          <t>EVOL0130</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>EVOL1774.png</t>
+          <t>EVOL0004.png</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>114rmUbCFM6npyleoLq8K_BUtqHU7zKDO</t>
+          <t>1dIXEp6OZxhmZDc49TAe6H5aUEgnoaD1d</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/114rmUbCFM6npyleoLq8K_BUtqHU7zKDO/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1dIXEp6OZxhmZDc49TAe6H5aUEgnoaD1d/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=114rmUbCFM6npyleoLq8K_BUtqHU7zKDO</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1dIXEp6OZxhmZDc49TAe6H5aUEgnoaD1d</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>EVOL1774</t>
+          <t>EVOL0004</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>EVOL0003.png</t>
+          <t>EVOL1774.png</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1MkuKAmbN0cM8mf-ca0od7TQn9E5p_Omr</t>
+          <t>114rmUbCFM6npyleoLq8K_BUtqHU7zKDO</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1MkuKAmbN0cM8mf-ca0od7TQn9E5p_Omr/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/114rmUbCFM6npyleoLq8K_BUtqHU7zKDO/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1MkuKAmbN0cM8mf-ca0od7TQn9E5p_Omr</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=114rmUbCFM6npyleoLq8K_BUtqHU7zKDO</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>EVOL0003</t>
+          <t>EVOL1774</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>EVOL0097.png</t>
+          <t>EVOL0003.png</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1X3_7pJg4S62os5CCwKmkMVW2r5EwJ_Ml</t>
+          <t>1MkuKAmbN0cM8mf-ca0od7TQn9E5p_Omr</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1X3_7pJg4S62os5CCwKmkMVW2r5EwJ_Ml/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1MkuKAmbN0cM8mf-ca0od7TQn9E5p_Omr/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1X3_7pJg4S62os5CCwKmkMVW2r5EwJ_Ml</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1MkuKAmbN0cM8mf-ca0od7TQn9E5p_Omr</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>EVOL0097</t>
+          <t>EVOL0003</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>EVOL0096.png</t>
+          <t>EVOL0097.png</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1BSgIHp-uf9-LOzraEWfFkdMG_3BsseM4</t>
+          <t>1X3_7pJg4S62os5CCwKmkMVW2r5EwJ_Ml</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1BSgIHp-uf9-LOzraEWfFkdMG_3BsseM4/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1X3_7pJg4S62os5CCwKmkMVW2r5EwJ_Ml/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1BSgIHp-uf9-LOzraEWfFkdMG_3BsseM4</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1X3_7pJg4S62os5CCwKmkMVW2r5EwJ_Ml</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>EVOL0096</t>
+          <t>EVOL0097</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>EVOL0007.png</t>
+          <t>EVOL0096.png</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1voESolULU-KfuIJ2MYcYTv2ZXrYWQMDr</t>
+          <t>1BSgIHp-uf9-LOzraEWfFkdMG_3BsseM4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1voESolULU-KfuIJ2MYcYTv2ZXrYWQMDr/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1BSgIHp-uf9-LOzraEWfFkdMG_3BsseM4/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1voESolULU-KfuIJ2MYcYTv2ZXrYWQMDr</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1BSgIHp-uf9-LOzraEWfFkdMG_3BsseM4</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>EVOL0007</t>
+          <t>EVOL0096</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>EVOL1768.png</t>
+          <t>EVOL0007.png</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1e21zBxKUF_CpEiHPPLQXqWmB0dIjogu4</t>
+          <t>1voESolULU-KfuIJ2MYcYTv2ZXrYWQMDr</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1e21zBxKUF_CpEiHPPLQXqWmB0dIjogu4/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1voESolULU-KfuIJ2MYcYTv2ZXrYWQMDr/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1e21zBxKUF_CpEiHPPLQXqWmB0dIjogu4</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1voESolULU-KfuIJ2MYcYTv2ZXrYWQMDr</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>EVOL1768</t>
+          <t>EVOL0007</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>EVOL1770.png</t>
+          <t>EVOL1768.png</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1u92ZJFqxJNmb5aGyX5nHx5iwg-7cb35A</t>
+          <t>1e21zBxKUF_CpEiHPPLQXqWmB0dIjogu4</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1u92ZJFqxJNmb5aGyX5nHx5iwg-7cb35A/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1e21zBxKUF_CpEiHPPLQXqWmB0dIjogu4/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1u92ZJFqxJNmb5aGyX5nHx5iwg-7cb35A</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1e21zBxKUF_CpEiHPPLQXqWmB0dIjogu4</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>EVOL1770</t>
+          <t>EVOL1768</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>EVOL0006.png</t>
+          <t>EVOL1770.png</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>12O7eCmeafQKB9oSwvsQ_jmx8G0V3l-bW</t>
+          <t>1u92ZJFqxJNmb5aGyX5nHx5iwg-7cb35A</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/12O7eCmeafQKB9oSwvsQ_jmx8G0V3l-bW/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1u92ZJFqxJNmb5aGyX5nHx5iwg-7cb35A/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=12O7eCmeafQKB9oSwvsQ_jmx8G0V3l-bW</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1u92ZJFqxJNmb5aGyX5nHx5iwg-7cb35A</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>EVOL0006</t>
+          <t>EVOL1770</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>EVOL1097.png</t>
+          <t>EVOL0006.png</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1cccsXwoJkJPzk-eL73v5VJN_V94bUeqt</t>
+          <t>12O7eCmeafQKB9oSwvsQ_jmx8G0V3l-bW</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1cccsXwoJkJPzk-eL73v5VJN_V94bUeqt/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/12O7eCmeafQKB9oSwvsQ_jmx8G0V3l-bW/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1cccsXwoJkJPzk-eL73v5VJN_V94bUeqt</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=12O7eCmeafQKB9oSwvsQ_jmx8G0V3l-bW</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>EVOL1097</t>
+          <t>EVOL0006</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>EVOL1096.png</t>
+          <t>EVOL1097.png</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1hXxGnVwWjeM8A3aQX2X2iUqJQo9rJwHL</t>
+          <t>1cccsXwoJkJPzk-eL73v5VJN_V94bUeqt</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1hXxGnVwWjeM8A3aQX2X2iUqJQo9rJwHL/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1cccsXwoJkJPzk-eL73v5VJN_V94bUeqt/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1hXxGnVwWjeM8A3aQX2X2iUqJQo9rJwHL</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1cccsXwoJkJPzk-eL73v5VJN_V94bUeqt</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>EVOL1096</t>
+          <t>EVOL1097</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>EVOL0035.png</t>
+          <t>EVOL1096.png</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1NxT2qROgt7W8-v5nyOVkMi71PohZ-FkQ</t>
+          <t>1hXxGnVwWjeM8A3aQX2X2iUqJQo9rJwHL</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1NxT2qROgt7W8-v5nyOVkMi71PohZ-FkQ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1hXxGnVwWjeM8A3aQX2X2iUqJQo9rJwHL/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1NxT2qROgt7W8-v5nyOVkMi71PohZ-FkQ</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1hXxGnVwWjeM8A3aQX2X2iUqJQo9rJwHL</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>EVOL0035</t>
+          <t>EVOL1096</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>EVOL1772.png</t>
+          <t>EVOL0035.png</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1iXMOoDNWMaC2sZIT8DqhR8oxwJxfIz6E</t>
+          <t>1NxT2qROgt7W8-v5nyOVkMi71PohZ-FkQ</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1iXMOoDNWMaC2sZIT8DqhR8oxwJxfIz6E/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1NxT2qROgt7W8-v5nyOVkMi71PohZ-FkQ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1iXMOoDNWMaC2sZIT8DqhR8oxwJxfIz6E</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1NxT2qROgt7W8-v5nyOVkMi71PohZ-FkQ</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>EVOL1772</t>
+          <t>EVOL0035</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>EVOL0002.png</t>
+          <t>EVOL1772.png</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1m4WGbazGIB0enbXyuJmAtourcCX4k-Hh</t>
+          <t>1iXMOoDNWMaC2sZIT8DqhR8oxwJxfIz6E</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1m4WGbazGIB0enbXyuJmAtourcCX4k-Hh/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1iXMOoDNWMaC2sZIT8DqhR8oxwJxfIz6E/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1m4WGbazGIB0enbXyuJmAtourcCX4k-Hh</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1iXMOoDNWMaC2sZIT8DqhR8oxwJxfIz6E</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>EVOL0002</t>
+          <t>EVOL1772</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>EVOL1776.png</t>
+          <t>EVOL0002.png</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1_2SYYR_oqTFYUzNjTLJNbzG65TBFhf3v</t>
+          <t>1m4WGbazGIB0enbXyuJmAtourcCX4k-Hh</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1_2SYYR_oqTFYUzNjTLJNbzG65TBFhf3v/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1m4WGbazGIB0enbXyuJmAtourcCX4k-Hh/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1_2SYYR_oqTFYUzNjTLJNbzG65TBFhf3v</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1m4WGbazGIB0enbXyuJmAtourcCX4k-Hh</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>EVOL1776</t>
+          <t>EVOL0002</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>EVOL0030.png</t>
+          <t>EVOL1776.png</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1Kv9UiV-aVZz0t6pCBErjb3nZx5LG4_RI</t>
+          <t>1_2SYYR_oqTFYUzNjTLJNbzG65TBFhf3v</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Kv9UiV-aVZz0t6pCBErjb3nZx5LG4_RI/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1_2SYYR_oqTFYUzNjTLJNbzG65TBFhf3v/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Kv9UiV-aVZz0t6pCBErjb3nZx5LG4_RI</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1_2SYYR_oqTFYUzNjTLJNbzG65TBFhf3v</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>EVOL0030</t>
+          <t>EVOL1776</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>EVOL0234.png</t>
+          <t>EVOL0030.png</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1N0BRoX5I3N6uKLoDo_bRkdIlqkKKm_C1</t>
+          <t>1Kv9UiV-aVZz0t6pCBErjb3nZx5LG4_RI</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1N0BRoX5I3N6uKLoDo_bRkdIlqkKKm_C1/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Kv9UiV-aVZz0t6pCBErjb3nZx5LG4_RI/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1N0BRoX5I3N6uKLoDo_bRkdIlqkKKm_C1</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Kv9UiV-aVZz0t6pCBErjb3nZx5LG4_RI</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>EVOL0234</t>
+          <t>EVOL0030</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>EVOL4930.png</t>
+          <t>EVOL0234.png</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16Q1nyVDVbNkBCILbD_FvkA3FBqJPeOCq</t>
+          <t>1N0BRoX5I3N6uKLoDo_bRkdIlqkKKm_C1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/16Q1nyVDVbNkBCILbD_FvkA3FBqJPeOCq/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1N0BRoX5I3N6uKLoDo_bRkdIlqkKKm_C1/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=16Q1nyVDVbNkBCILbD_FvkA3FBqJPeOCq</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1N0BRoX5I3N6uKLoDo_bRkdIlqkKKm_C1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>EVOL4930</t>
+          <t>EVOL0234</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>EVOL4920.png</t>
+          <t>EVOL4930.png</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1REQnGnDonL2LwsNYqDEA6_Rq7rW9R6qy</t>
+          <t>16Q1nyVDVbNkBCILbD_FvkA3FBqJPeOCq</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1REQnGnDonL2LwsNYqDEA6_Rq7rW9R6qy/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/16Q1nyVDVbNkBCILbD_FvkA3FBqJPeOCq/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1REQnGnDonL2LwsNYqDEA6_Rq7rW9R6qy</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=16Q1nyVDVbNkBCILbD_FvkA3FBqJPeOCq</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>EVOL4920</t>
+          <t>EVOL4930</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>EVOL4910.png</t>
+          <t>EVOL4920.png</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1HoEkUgtSYonZeE4s57eT8cljKWeP573z</t>
+          <t>1REQnGnDonL2LwsNYqDEA6_Rq7rW9R6qy</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1HoEkUgtSYonZeE4s57eT8cljKWeP573z/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1REQnGnDonL2LwsNYqDEA6_Rq7rW9R6qy/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1HoEkUgtSYonZeE4s57eT8cljKWeP573z</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1REQnGnDonL2LwsNYqDEA6_Rq7rW9R6qy</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>EVOL4910</t>
+          <t>EVOL4920</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>EVOL4900.png</t>
+          <t>EVOL4910.png</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1Zfv9tHlh8Ll9b1DAhLgrtNRQaf-IeUCp</t>
+          <t>1HoEkUgtSYonZeE4s57eT8cljKWeP573z</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Zfv9tHlh8Ll9b1DAhLgrtNRQaf-IeUCp/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1HoEkUgtSYonZeE4s57eT8cljKWeP573z/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Zfv9tHlh8Ll9b1DAhLgrtNRQaf-IeUCp</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1HoEkUgtSYonZeE4s57eT8cljKWeP573z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>EVOL4900</t>
+          <t>EVOL4910</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>EVOL0217.png</t>
+          <t>EVOL4900.png</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1r10j9c5BSbOiMx-z6cYvsnEI2J8UgCbf</t>
+          <t>1Zfv9tHlh8Ll9b1DAhLgrtNRQaf-IeUCp</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1r10j9c5BSbOiMx-z6cYvsnEI2J8UgCbf/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Zfv9tHlh8Ll9b1DAhLgrtNRQaf-IeUCp/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1r10j9c5BSbOiMx-z6cYvsnEI2J8UgCbf</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Zfv9tHlh8Ll9b1DAhLgrtNRQaf-IeUCp</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>EVOL0217</t>
+          <t>EVOL4900</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>EVOL0216.png</t>
+          <t>EVOL0217.png</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1vPCn8eIOa0SDbWj6itkXYhQdlMiWBGZs</t>
+          <t>1r10j9c5BSbOiMx-z6cYvsnEI2J8UgCbf</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1vPCn8eIOa0SDbWj6itkXYhQdlMiWBGZs/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1r10j9c5BSbOiMx-z6cYvsnEI2J8UgCbf/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1vPCn8eIOa0SDbWj6itkXYhQdlMiWBGZs</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1r10j9c5BSbOiMx-z6cYvsnEI2J8UgCbf</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>EVOL0216</t>
+          <t>EVOL0217</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>EVOL0218.png</t>
+          <t>EVOL0216.png</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1Mwt1mPTwPc0hPt9TU9EbG4N26r6L2O49</t>
+          <t>1vPCn8eIOa0SDbWj6itkXYhQdlMiWBGZs</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Mwt1mPTwPc0hPt9TU9EbG4N26r6L2O49/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1vPCn8eIOa0SDbWj6itkXYhQdlMiWBGZs/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Mwt1mPTwPc0hPt9TU9EbG4N26r6L2O49</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1vPCn8eIOa0SDbWj6itkXYhQdlMiWBGZs</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>EVOL0218</t>
+          <t>EVOL0216</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>EVOL0215.png</t>
+          <t>EVOL0218.png</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>138slbY27NquKx-NwShQif9lmmK4eK70x</t>
+          <t>1Mwt1mPTwPc0hPt9TU9EbG4N26r6L2O49</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/138slbY27NquKx-NwShQif9lmmK4eK70x/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Mwt1mPTwPc0hPt9TU9EbG4N26r6L2O49/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=138slbY27NquKx-NwShQif9lmmK4eK70x</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Mwt1mPTwPc0hPt9TU9EbG4N26r6L2O49</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>EVOL0215</t>
+          <t>EVOL0218</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>EVOL0214.png</t>
+          <t>EVOL0215.png</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1l-krPbtKcvrTpd7hqwQ6Vw27GgqPP3q3</t>
+          <t>138slbY27NquKx-NwShQif9lmmK4eK70x</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1l-krPbtKcvrTpd7hqwQ6Vw27GgqPP3q3/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/138slbY27NquKx-NwShQif9lmmK4eK70x/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1l-krPbtKcvrTpd7hqwQ6Vw27GgqPP3q3</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=138slbY27NquKx-NwShQif9lmmK4eK70x</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>EVOL0214</t>
+          <t>EVOL0215</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>EVOL0028.png</t>
+          <t>EVOL0214.png</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1WfEiYmUivHfKn1E2tUtaQ0e_hSIfxuQ0</t>
+          <t>1l-krPbtKcvrTpd7hqwQ6Vw27GgqPP3q3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1WfEiYmUivHfKn1E2tUtaQ0e_hSIfxuQ0/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1l-krPbtKcvrTpd7hqwQ6Vw27GgqPP3q3/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1WfEiYmUivHfKn1E2tUtaQ0e_hSIfxuQ0</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1l-krPbtKcvrTpd7hqwQ6Vw27GgqPP3q3</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>EVOL0028</t>
+          <t>EVOL0214</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>EVOL0208.png</t>
+          <t>EVOL0028.png</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1AR4SwXMD3H0YBs7467V9Wt-XVh2SMUBX</t>
+          <t>1WfEiYmUivHfKn1E2tUtaQ0e_hSIfxuQ0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1AR4SwXMD3H0YBs7467V9Wt-XVh2SMUBX/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1WfEiYmUivHfKn1E2tUtaQ0e_hSIfxuQ0/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1AR4SwXMD3H0YBs7467V9Wt-XVh2SMUBX</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1WfEiYmUivHfKn1E2tUtaQ0e_hSIfxuQ0</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>EVOL0208</t>
+          <t>EVOL0028</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>EVOL0024.png</t>
+          <t>EVOL0208.png</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1i8Pj32xqXS2EAK_nx5wKta_K8DdR_sca</t>
+          <t>1AR4SwXMD3H0YBs7467V9Wt-XVh2SMUBX</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1i8Pj32xqXS2EAK_nx5wKta_K8DdR_sca/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1AR4SwXMD3H0YBs7467V9Wt-XVh2SMUBX/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1i8Pj32xqXS2EAK_nx5wKta_K8DdR_sca</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1AR4SwXMD3H0YBs7467V9Wt-XVh2SMUBX</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>EVOL0024</t>
+          <t>EVOL0208</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>EVOL0023.png</t>
+          <t>EVOL0024.png</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1Taa-Rnb68NPS1z5tUjJLgUeRdTTa-mri</t>
+          <t>1i8Pj32xqXS2EAK_nx5wKta_K8DdR_sca</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Taa-Rnb68NPS1z5tUjJLgUeRdTTa-mri/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1i8Pj32xqXS2EAK_nx5wKta_K8DdR_sca/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Taa-Rnb68NPS1z5tUjJLgUeRdTTa-mri</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1i8Pj32xqXS2EAK_nx5wKta_K8DdR_sca</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>EVOL0023</t>
+          <t>EVOL0024</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>EVOL0022.png</t>
+          <t>EVOL0023.png</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1hguUm8nfTno3Kaqj8l7fNWzN6hLuAeko</t>
+          <t>1Taa-Rnb68NPS1z5tUjJLgUeRdTTa-mri</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1hguUm8nfTno3Kaqj8l7fNWzN6hLuAeko/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Taa-Rnb68NPS1z5tUjJLgUeRdTTa-mri/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1hguUm8nfTno3Kaqj8l7fNWzN6hLuAeko</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Taa-Rnb68NPS1z5tUjJLgUeRdTTa-mri</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>EVOL0022</t>
+          <t>EVOL0023</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EVOL0021.png</t>
+          <t>EVOL0022.png</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>19Q5ns8Z0-XwZ3WAF5Mq6JfDViF97HpQG</t>
+          <t>1hguUm8nfTno3Kaqj8l7fNWzN6hLuAeko</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/19Q5ns8Z0-XwZ3WAF5Mq6JfDViF97HpQG/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1hguUm8nfTno3Kaqj8l7fNWzN6hLuAeko/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=19Q5ns8Z0-XwZ3WAF5Mq6JfDViF97HpQG</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1hguUm8nfTno3Kaqj8l7fNWzN6hLuAeko</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>EVOL0021</t>
+          <t>EVOL0022</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>EVOL0086.png</t>
+          <t>EVOL0021.png</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1cAKfzEHPw0N8IFMyM35w2R-4ULo-UKQZ</t>
+          <t>19Q5ns8Z0-XwZ3WAF5Mq6JfDViF97HpQG</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1cAKfzEHPw0N8IFMyM35w2R-4ULo-UKQZ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/19Q5ns8Z0-XwZ3WAF5Mq6JfDViF97HpQG/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1cAKfzEHPw0N8IFMyM35w2R-4ULo-UKQZ</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=19Q5ns8Z0-XwZ3WAF5Mq6JfDViF97HpQG</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>EVOL0086</t>
+          <t>EVOL0021</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>EVOL0001.png</t>
+          <t>EVOL0086.png</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1wRrrcUN2Ha5Z49bPQ3gVqmH9EwUaQ_s1</t>
+          <t>1cAKfzEHPw0N8IFMyM35w2R-4ULo-UKQZ</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1wRrrcUN2Ha5Z49bPQ3gVqmH9EwUaQ_s1/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1cAKfzEHPw0N8IFMyM35w2R-4ULo-UKQZ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1wRrrcUN2Ha5Z49bPQ3gVqmH9EwUaQ_s1</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1cAKfzEHPw0N8IFMyM35w2R-4ULo-UKQZ</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>EVOL0001</t>
+          <t>EVOL0086</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>EVOL1429.png</t>
+          <t>EVOL0001.png</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1IYxYM8E6sVM65uXDL4GPz7iLt5afnKmk</t>
+          <t>1wRrrcUN2Ha5Z49bPQ3gVqmH9EwUaQ_s1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1IYxYM8E6sVM65uXDL4GPz7iLt5afnKmk/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1wRrrcUN2Ha5Z49bPQ3gVqmH9EwUaQ_s1/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1IYxYM8E6sVM65uXDL4GPz7iLt5afnKmk</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1wRrrcUN2Ha5Z49bPQ3gVqmH9EwUaQ_s1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>EVOL1429</t>
+          <t>EVOL0001</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>EVOL1430.png</t>
+          <t>EVOL1429.png</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>15WskeyrKY0HX9dN1limtsDXvAZYX-OpB</t>
+          <t>1IYxYM8E6sVM65uXDL4GPz7iLt5afnKmk</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/15WskeyrKY0HX9dN1limtsDXvAZYX-OpB/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1IYxYM8E6sVM65uXDL4GPz7iLt5afnKmk/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=15WskeyrKY0HX9dN1limtsDXvAZYX-OpB</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1IYxYM8E6sVM65uXDL4GPz7iLt5afnKmk</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>EVOL1430</t>
+          <t>EVOL1429</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>EVOL1960.png</t>
+          <t>EVOL1430.png</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1xsmHRyemq1RoHVDkuRKK8F8Y3No0vbBV</t>
+          <t>15WskeyrKY0HX9dN1limtsDXvAZYX-OpB</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1xsmHRyemq1RoHVDkuRKK8F8Y3No0vbBV/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/15WskeyrKY0HX9dN1limtsDXvAZYX-OpB/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1xsmHRyemq1RoHVDkuRKK8F8Y3No0vbBV</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=15WskeyrKY0HX9dN1limtsDXvAZYX-OpB</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>EVOL1960</t>
+          <t>EVOL1430</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>EVOMYR5810.png</t>
+          <t>EVOL1960.png</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1l3AkRxk9SbyegXuHuFlxFSjiLe-aYl6L</t>
+          <t>1xsmHRyemq1RoHVDkuRKK8F8Y3No0vbBV</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1l3AkRxk9SbyegXuHuFlxFSjiLe-aYl6L/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1xsmHRyemq1RoHVDkuRKK8F8Y3No0vbBV/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1l3AkRxk9SbyegXuHuFlxFSjiLe-aYl6L</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1xsmHRyemq1RoHVDkuRKK8F8Y3No0vbBV</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>EVOMYR5810</t>
+          <t>EVOL1960</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>EVOMYR5808.png</t>
+          <t>EVOMYR5810.png</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1W0tkVZcDQObIbEEeFT_prtJorpjy5OZ7</t>
+          <t>1l3AkRxk9SbyegXuHuFlxFSjiLe-aYl6L</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1W0tkVZcDQObIbEEeFT_prtJorpjy5OZ7/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1l3AkRxk9SbyegXuHuFlxFSjiLe-aYl6L/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1W0tkVZcDQObIbEEeFT_prtJorpjy5OZ7</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1l3AkRxk9SbyegXuHuFlxFSjiLe-aYl6L</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>EVOMYR5808</t>
+          <t>EVOMYR5810</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>EVOMYR5807.png</t>
+          <t>EVOMYR5808.png</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1_z2vl1A9cSx5TsLQ9EIYrkXQ9PQTglpP</t>
+          <t>1W0tkVZcDQObIbEEeFT_prtJorpjy5OZ7</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1_z2vl1A9cSx5TsLQ9EIYrkXQ9PQTglpP/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1W0tkVZcDQObIbEEeFT_prtJorpjy5OZ7/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1_z2vl1A9cSx5TsLQ9EIYrkXQ9PQTglpP</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1W0tkVZcDQObIbEEeFT_prtJorpjy5OZ7</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>EVOMYR5807</t>
+          <t>EVOMYR5808</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>EVOL1470.png</t>
+          <t>EVOMYR5807.png</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1Vyvd63vWgdwiCO-n9Q6wIyuHgI7koikH</t>
+          <t>1_z2vl1A9cSx5TsLQ9EIYrkXQ9PQTglpP</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Vyvd63vWgdwiCO-n9Q6wIyuHgI7koikH/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1_z2vl1A9cSx5TsLQ9EIYrkXQ9PQTglpP/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Vyvd63vWgdwiCO-n9Q6wIyuHgI7koikH</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1_z2vl1A9cSx5TsLQ9EIYrkXQ9PQTglpP</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>EVOL1470</t>
+          <t>EVOMYR5807</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>EVOL0211.png</t>
+          <t>EVOL1470.png</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1OsTMZVeQjHDATTIPkLVtbHTHasxl0I50</t>
+          <t>1Vyvd63vWgdwiCO-n9Q6wIyuHgI7koikH</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1OsTMZVeQjHDATTIPkLVtbHTHasxl0I50/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Vyvd63vWgdwiCO-n9Q6wIyuHgI7koikH/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1OsTMZVeQjHDATTIPkLVtbHTHasxl0I50</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Vyvd63vWgdwiCO-n9Q6wIyuHgI7koikH</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>EVOL0211</t>
+          <t>EVOL1470</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>EVOL0248.png</t>
+          <t>EVOL0211.png</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1t8kPA0zlnmC3ZByzSeuiRNg5kazjWkny</t>
+          <t>1OsTMZVeQjHDATTIPkLVtbHTHasxl0I50</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1t8kPA0zlnmC3ZByzSeuiRNg5kazjWkny/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1OsTMZVeQjHDATTIPkLVtbHTHasxl0I50/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1t8kPA0zlnmC3ZByzSeuiRNg5kazjWkny</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1OsTMZVeQjHDATTIPkLVtbHTHasxl0I50</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>EVOL0248</t>
+          <t>EVOL0211</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>EVOL0249.png</t>
+          <t>EVOL0248.png</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>141PZXYKcbHr1Kkg4W09BRFc_2Wpo00wl</t>
+          <t>1t8kPA0zlnmC3ZByzSeuiRNg5kazjWkny</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/141PZXYKcbHr1Kkg4W09BRFc_2Wpo00wl/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1t8kPA0zlnmC3ZByzSeuiRNg5kazjWkny/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=141PZXYKcbHr1Kkg4W09BRFc_2Wpo00wl</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1t8kPA0zlnmC3ZByzSeuiRNg5kazjWkny</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>EVOL0249</t>
+          <t>EVOL0248</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>EVOMYR1927.png</t>
+          <t>EVOL0249.png</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1LZ8TY9rTLl0ZBgcxJ3Iis5M3RYVnEjEd</t>
+          <t>141PZXYKcbHr1Kkg4W09BRFc_2Wpo00wl</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1LZ8TY9rTLl0ZBgcxJ3Iis5M3RYVnEjEd/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/141PZXYKcbHr1Kkg4W09BRFc_2Wpo00wl/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1LZ8TY9rTLl0ZBgcxJ3Iis5M3RYVnEjEd</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=141PZXYKcbHr1Kkg4W09BRFc_2Wpo00wl</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>EVOMYR1927</t>
+          <t>EVOL0249</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>EVOMYR1931.png</t>
+          <t>EVOMYR1927.png</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1UFdmLxPD3nnusXUBvJjXZXHsUmzFC1kJ</t>
+          <t>1LZ8TY9rTLl0ZBgcxJ3Iis5M3RYVnEjEd</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1UFdmLxPD3nnusXUBvJjXZXHsUmzFC1kJ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1LZ8TY9rTLl0ZBgcxJ3Iis5M3RYVnEjEd/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1UFdmLxPD3nnusXUBvJjXZXHsUmzFC1kJ</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1LZ8TY9rTLl0ZBgcxJ3Iis5M3RYVnEjEd</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>EVOMYR1931</t>
+          <t>EVOMYR1927</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>EVOMYR1929.png</t>
+          <t>EVOMYR1931.png</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1gsNnPfkmtgYIv0M_TfC-yn8gA865w_Q7</t>
+          <t>1UFdmLxPD3nnusXUBvJjXZXHsUmzFC1kJ</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1gsNnPfkmtgYIv0M_TfC-yn8gA865w_Q7/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1UFdmLxPD3nnusXUBvJjXZXHsUmzFC1kJ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1gsNnPfkmtgYIv0M_TfC-yn8gA865w_Q7</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1UFdmLxPD3nnusXUBvJjXZXHsUmzFC1kJ</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>EVOMYR1929</t>
+          <t>EVOMYR1931</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>EVOMYR1928.png</t>
+          <t>EVOMYR1929.png</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1I_TwZcgIZQo6wbiTs5uE4UbL0flyrhCe</t>
+          <t>1gsNnPfkmtgYIv0M_TfC-yn8gA865w_Q7</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1I_TwZcgIZQo6wbiTs5uE4UbL0flyrhCe/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1gsNnPfkmtgYIv0M_TfC-yn8gA865w_Q7/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1I_TwZcgIZQo6wbiTs5uE4UbL0flyrhCe</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1gsNnPfkmtgYIv0M_TfC-yn8gA865w_Q7</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>EVOMYR1928</t>
+          <t>EVOMYR1929</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>EVOL0045.png</t>
+          <t>EVOMYR1928.png</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1P9Pe2iCczReo4mill8xuSGp0GYTfxkeG</t>
+          <t>1I_TwZcgIZQo6wbiTs5uE4UbL0flyrhCe</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1P9Pe2iCczReo4mill8xuSGp0GYTfxkeG/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1I_TwZcgIZQo6wbiTs5uE4UbL0flyrhCe/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1P9Pe2iCczReo4mill8xuSGp0GYTfxkeG</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1I_TwZcgIZQo6wbiTs5uE4UbL0flyrhCe</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>EVOL0045</t>
+          <t>EVOMYR1928</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>EVOL0044.png</t>
+          <t>EVOL0045.png</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1BoxP8N1UqCCSogHLWBq97tRiRoz84UdJ</t>
+          <t>1P9Pe2iCczReo4mill8xuSGp0GYTfxkeG</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1BoxP8N1UqCCSogHLWBq97tRiRoz84UdJ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1P9Pe2iCczReo4mill8xuSGp0GYTfxkeG/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1BoxP8N1UqCCSogHLWBq97tRiRoz84UdJ</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1P9Pe2iCczReo4mill8xuSGp0GYTfxkeG</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>EVOL0044</t>
+          <t>EVOL0045</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>EVOL0148.png</t>
+          <t>EVOL0044.png</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1LjJtEpQm09MhzesfSzgLQtb8axi-NOC3</t>
+          <t>1BoxP8N1UqCCSogHLWBq97tRiRoz84UdJ</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1LjJtEpQm09MhzesfSzgLQtb8axi-NOC3/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1BoxP8N1UqCCSogHLWBq97tRiRoz84UdJ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1LjJtEpQm09MhzesfSzgLQtb8axi-NOC3</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1BoxP8N1UqCCSogHLWBq97tRiRoz84UdJ</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>EVOL0148</t>
+          <t>EVOL0044</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>EVOL0147.png</t>
+          <t>EVOL0148.png</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1mbtJN63TojM6KAfyjugTEEGe91RPLfVi</t>
+          <t>1LjJtEpQm09MhzesfSzgLQtb8axi-NOC3</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1mbtJN63TojM6KAfyjugTEEGe91RPLfVi/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1LjJtEpQm09MhzesfSzgLQtb8axi-NOC3/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1mbtJN63TojM6KAfyjugTEEGe91RPLfVi</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1LjJtEpQm09MhzesfSzgLQtb8axi-NOC3</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>EVOL0147</t>
+          <t>EVOL0148</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>EVOL0145.png</t>
+          <t>EVOL0147.png</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1thr8eSQLi5m0A3R_uD3DzpuvGvaBe8O9</t>
+          <t>1mbtJN63TojM6KAfyjugTEEGe91RPLfVi</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1thr8eSQLi5m0A3R_uD3DzpuvGvaBe8O9/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1mbtJN63TojM6KAfyjugTEEGe91RPLfVi/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1thr8eSQLi5m0A3R_uD3DzpuvGvaBe8O9</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1mbtJN63TojM6KAfyjugTEEGe91RPLfVi</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>EVOL0145</t>
+          <t>EVOL0147</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>EVOL0146.png</t>
+          <t>EVOL0145.png</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1aEusQyqbR4npgl-rCDrEvrnJcuIz5ek9</t>
+          <t>1thr8eSQLi5m0A3R_uD3DzpuvGvaBe8O9</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1aEusQyqbR4npgl-rCDrEvrnJcuIz5ek9/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1thr8eSQLi5m0A3R_uD3DzpuvGvaBe8O9/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1aEusQyqbR4npgl-rCDrEvrnJcuIz5ek9</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1thr8eSQLi5m0A3R_uD3DzpuvGvaBe8O9</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>EVOL0146</t>
+          <t>EVOL0145</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>EVOL0229.png</t>
+          <t>EVOL0146.png</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1ZZtGTIAIVjG2cZcmwZ0znPI39X35as55</t>
+          <t>1aEusQyqbR4npgl-rCDrEvrnJcuIz5ek9</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1ZZtGTIAIVjG2cZcmwZ0znPI39X35as55/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1aEusQyqbR4npgl-rCDrEvrnJcuIz5ek9/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1ZZtGTIAIVjG2cZcmwZ0znPI39X35as55</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1aEusQyqbR4npgl-rCDrEvrnJcuIz5ek9</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>EVOL0229</t>
+          <t>EVOL0146</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>EVOL1331.png</t>
+          <t>EVOL0229.png</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1ZIbc-yFETgZW0ll3EBizduVKC7P3KDAC</t>
+          <t>1ZZtGTIAIVjG2cZcmwZ0znPI39X35as55</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1ZIbc-yFETgZW0ll3EBizduVKC7P3KDAC/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1ZZtGTIAIVjG2cZcmwZ0znPI39X35as55/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1ZIbc-yFETgZW0ll3EBizduVKC7P3KDAC</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1ZZtGTIAIVjG2cZcmwZ0znPI39X35as55</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>EVOL1331</t>
+          <t>EVOL0229</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>EVOL1351.png</t>
+          <t>EVOL1331.png</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1hnbAMUjVoPlO4Y1VBBpvSP-lR8_DoBjo</t>
+          <t>1ZIbc-yFETgZW0ll3EBizduVKC7P3KDAC</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1hnbAMUjVoPlO4Y1VBBpvSP-lR8_DoBjo/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1ZIbc-yFETgZW0ll3EBizduVKC7P3KDAC/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1hnbAMUjVoPlO4Y1VBBpvSP-lR8_DoBjo</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1ZIbc-yFETgZW0ll3EBizduVKC7P3KDAC</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>EVOL1351</t>
+          <t>EVOL1331</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>EVOL3415.png</t>
+          <t>EVOL1351.png</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1CCCCuHxA1pCpdNO1qT3RCi29q_-vd1an</t>
+          <t>1hnbAMUjVoPlO4Y1VBBpvSP-lR8_DoBjo</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1CCCCuHxA1pCpdNO1qT3RCi29q_-vd1an/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1hnbAMUjVoPlO4Y1VBBpvSP-lR8_DoBjo/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1CCCCuHxA1pCpdNO1qT3RCi29q_-vd1an</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1hnbAMUjVoPlO4Y1VBBpvSP-lR8_DoBjo</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>EVOL3415</t>
+          <t>EVOL1351</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>EVOL0089.png</t>
+          <t>EVOL3415.png</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1dH1ZE8m1mrmCLZQpIkQtnGLzIqmyzqYp</t>
+          <t>1CCCCuHxA1pCpdNO1qT3RCi29q_-vd1an</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1dH1ZE8m1mrmCLZQpIkQtnGLzIqmyzqYp/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1CCCCuHxA1pCpdNO1qT3RCi29q_-vd1an/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1dH1ZE8m1mrmCLZQpIkQtnGLzIqmyzqYp</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1CCCCuHxA1pCpdNO1qT3RCi29q_-vd1an</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>EVOL0089</t>
+          <t>EVOL3415</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>EVOL0033.png</t>
+          <t>EVOL0089.png</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1jg3UbW4U1qJn4GZ6Qq-JlS27McjoGlY1</t>
+          <t>1dH1ZE8m1mrmCLZQpIkQtnGLzIqmyzqYp</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1jg3UbW4U1qJn4GZ6Qq-JlS27McjoGlY1/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1dH1ZE8m1mrmCLZQpIkQtnGLzIqmyzqYp/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1jg3UbW4U1qJn4GZ6Qq-JlS27McjoGlY1</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1dH1ZE8m1mrmCLZQpIkQtnGLzIqmyzqYp</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>EVOL0033</t>
+          <t>EVOL0089</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>EVOL0320.png</t>
+          <t>EVOL0033.png</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1qopXTWXaCsoCSdy9K9kcd5xTOE7pt1rf</t>
+          <t>1jg3UbW4U1qJn4GZ6Qq-JlS27McjoGlY1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1qopXTWXaCsoCSdy9K9kcd5xTOE7pt1rf/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1jg3UbW4U1qJn4GZ6Qq-JlS27McjoGlY1/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1qopXTWXaCsoCSdy9K9kcd5xTOE7pt1rf</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1jg3UbW4U1qJn4GZ6Qq-JlS27McjoGlY1</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>EVOL0320</t>
+          <t>EVOL0033</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>EVOL0223.png</t>
+          <t>EVOL0320.png</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1EsiZgOyTg_IgUNzfOK-oRDpCxHrUsRtG</t>
+          <t>1qopXTWXaCsoCSdy9K9kcd5xTOE7pt1rf</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1EsiZgOyTg_IgUNzfOK-oRDpCxHrUsRtG/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1qopXTWXaCsoCSdy9K9kcd5xTOE7pt1rf/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1EsiZgOyTg_IgUNzfOK-oRDpCxHrUsRtG</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1qopXTWXaCsoCSdy9K9kcd5xTOE7pt1rf</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>EVOL0223</t>
+          <t>EVOL0320</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>EVOL0139.png</t>
+          <t>EVOL0223.png</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1l3Dj5NU9TR-PtSvfmQjxEfCsQxmqAqor</t>
+          <t>1EsiZgOyTg_IgUNzfOK-oRDpCxHrUsRtG</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1l3Dj5NU9TR-PtSvfmQjxEfCsQxmqAqor/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1EsiZgOyTg_IgUNzfOK-oRDpCxHrUsRtG/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1l3Dj5NU9TR-PtSvfmQjxEfCsQxmqAqor</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1EsiZgOyTg_IgUNzfOK-oRDpCxHrUsRtG</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>EVOL0139</t>
+          <t>EVOL0223</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>EVOL0138.png</t>
+          <t>EVOL0139.png</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1sQpSD4exEhgRBuaPg9caxRD8gJZ_1oUo</t>
+          <t>1l3Dj5NU9TR-PtSvfmQjxEfCsQxmqAqor</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1sQpSD4exEhgRBuaPg9caxRD8gJZ_1oUo/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1l3Dj5NU9TR-PtSvfmQjxEfCsQxmqAqor/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1sQpSD4exEhgRBuaPg9caxRD8gJZ_1oUo</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1l3Dj5NU9TR-PtSvfmQjxEfCsQxmqAqor</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>EVOL0138</t>
+          <t>EVOL0139</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>EVOL0071.png</t>
+          <t>EVOL0138.png</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>10zbPoE1ceqG_5Ym7mtW0nqLaIcX0wpUP</t>
+          <t>1sQpSD4exEhgRBuaPg9caxRD8gJZ_1oUo</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/10zbPoE1ceqG_5Ym7mtW0nqLaIcX0wpUP/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1sQpSD4exEhgRBuaPg9caxRD8gJZ_1oUo/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=10zbPoE1ceqG_5Ym7mtW0nqLaIcX0wpUP</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1sQpSD4exEhgRBuaPg9caxRD8gJZ_1oUo</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>EVOL0071</t>
+          <t>EVOL0138</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>EVOL4000.png</t>
+          <t>EVOL0071.png</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1GlxlUZUr8DpaAuH3UceEUIw8R73FF-Eu</t>
+          <t>10zbPoE1ceqG_5Ym7mtW0nqLaIcX0wpUP</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1GlxlUZUr8DpaAuH3UceEUIw8R73FF-Eu/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/10zbPoE1ceqG_5Ym7mtW0nqLaIcX0wpUP/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1GlxlUZUr8DpaAuH3UceEUIw8R73FF-Eu</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=10zbPoE1ceqG_5Ym7mtW0nqLaIcX0wpUP</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>EVOL4000</t>
+          <t>EVOL0071</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>EVOL4050.png</t>
+          <t>EVOL4000.png</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1dwkW4HBqrRnBooqNVxsmBWLPYW-xiHFm</t>
+          <t>1GlxlUZUr8DpaAuH3UceEUIw8R73FF-Eu</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1dwkW4HBqrRnBooqNVxsmBWLPYW-xiHFm/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1GlxlUZUr8DpaAuH3UceEUIw8R73FF-Eu/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1dwkW4HBqrRnBooqNVxsmBWLPYW-xiHFm</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1GlxlUZUr8DpaAuH3UceEUIw8R73FF-Eu</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>EVOL4050</t>
+          <t>EVOL4000</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>EVOL1154.png</t>
+          <t>EVOL4050.png</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>1AXsDyi20NTrPHfxF0kR575sCVSw0ms-v</t>
+          <t>1dwkW4HBqrRnBooqNVxsmBWLPYW-xiHFm</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1AXsDyi20NTrPHfxF0kR575sCVSw0ms-v/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1dwkW4HBqrRnBooqNVxsmBWLPYW-xiHFm/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1AXsDyi20NTrPHfxF0kR575sCVSw0ms-v</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1dwkW4HBqrRnBooqNVxsmBWLPYW-xiHFm</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>EVOL1154</t>
+          <t>EVOL4050</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>EVOL1152.png</t>
+          <t>EVOL1154.png</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1WIL5-OlkISb4Jgw7r4Z-MY3GQlaymSLF</t>
+          <t>1AXsDyi20NTrPHfxF0kR575sCVSw0ms-v</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1WIL5-OlkISb4Jgw7r4Z-MY3GQlaymSLF/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1AXsDyi20NTrPHfxF0kR575sCVSw0ms-v/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1WIL5-OlkISb4Jgw7r4Z-MY3GQlaymSLF</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1AXsDyi20NTrPHfxF0kR575sCVSw0ms-v</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>EVOL1152</t>
+          <t>EVOL1154</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>EVOL1150.png</t>
+          <t>EVOL1152.png</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>140FdaGH8uQQ35bKF6UxfK-GcsNRfi6Vd</t>
+          <t>1WIL5-OlkISb4Jgw7r4Z-MY3GQlaymSLF</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/140FdaGH8uQQ35bKF6UxfK-GcsNRfi6Vd/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1WIL5-OlkISb4Jgw7r4Z-MY3GQlaymSLF/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=140FdaGH8uQQ35bKF6UxfK-GcsNRfi6Vd</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1WIL5-OlkISb4Jgw7r4Z-MY3GQlaymSLF</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>EVOL1150</t>
+          <t>EVOL1152</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>EVOL1165.png</t>
+          <t>EVOL1150.png</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1vEf6OOzcfBVbZfbXB0YWrvIwOG4TeEIO</t>
+          <t>140FdaGH8uQQ35bKF6UxfK-GcsNRfi6Vd</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1vEf6OOzcfBVbZfbXB0YWrvIwOG4TeEIO/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/140FdaGH8uQQ35bKF6UxfK-GcsNRfi6Vd/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1vEf6OOzcfBVbZfbXB0YWrvIwOG4TeEIO</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=140FdaGH8uQQ35bKF6UxfK-GcsNRfi6Vd</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>EVOL1165</t>
+          <t>EVOL1150</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>EVOL1160.png</t>
+          <t>EVOL1165.png</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>1hhox9FvrlvQQzBpx43_mRx6BX6jbPCFY</t>
+          <t>1vEf6OOzcfBVbZfbXB0YWrvIwOG4TeEIO</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1hhox9FvrlvQQzBpx43_mRx6BX6jbPCFY/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1vEf6OOzcfBVbZfbXB0YWrvIwOG4TeEIO/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1hhox9FvrlvQQzBpx43_mRx6BX6jbPCFY</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1vEf6OOzcfBVbZfbXB0YWrvIwOG4TeEIO</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>EVOL1160</t>
+          <t>EVOL1165</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>EVOL2215.png</t>
+          <t>EVOL1160.png</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>1JC2spLFD9wfeL21RGXw7k7tOmtBoxW37</t>
+          <t>1hhox9FvrlvQQzBpx43_mRx6BX6jbPCFY</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1JC2spLFD9wfeL21RGXw7k7tOmtBoxW37/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1hhox9FvrlvQQzBpx43_mRx6BX6jbPCFY/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1JC2spLFD9wfeL21RGXw7k7tOmtBoxW37</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1hhox9FvrlvQQzBpx43_mRx6BX6jbPCFY</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>EVOL2215</t>
+          <t>EVOL1160</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>EVOL2213.png</t>
+          <t>EVOL2215.png</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1DNP9gvL6lqvp6wXj3562s916dUaZvsVI</t>
+          <t>1JC2spLFD9wfeL21RGXw7k7tOmtBoxW37</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1DNP9gvL6lqvp6wXj3562s916dUaZvsVI/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1JC2spLFD9wfeL21RGXw7k7tOmtBoxW37/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1DNP9gvL6lqvp6wXj3562s916dUaZvsVI</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1JC2spLFD9wfeL21RGXw7k7tOmtBoxW37</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>EVOL2213</t>
+          <t>EVOL2215</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>EVOL2210.png</t>
+          <t>EVOL2213.png</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1_wu8PGak1QJESDVjKPgGGuFu6K8qwGIH</t>
+          <t>1DNP9gvL6lqvp6wXj3562s916dUaZvsVI</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1_wu8PGak1QJESDVjKPgGGuFu6K8qwGIH/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1DNP9gvL6lqvp6wXj3562s916dUaZvsVI/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1_wu8PGak1QJESDVjKPgGGuFu6K8qwGIH</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1DNP9gvL6lqvp6wXj3562s916dUaZvsVI</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>EVOL2210</t>
+          <t>EVOL2213</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>EVOL2205.png</t>
+          <t>EVOL2210.png</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>19EgWFY7ggYEd14bqAT5O8Btzy4a5AikH</t>
+          <t>1_wu8PGak1QJESDVjKPgGGuFu6K8qwGIH</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/19EgWFY7ggYEd14bqAT5O8Btzy4a5AikH/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1_wu8PGak1QJESDVjKPgGGuFu6K8qwGIH/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=19EgWFY7ggYEd14bqAT5O8Btzy4a5AikH</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1_wu8PGak1QJESDVjKPgGGuFu6K8qwGIH</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>EVOL2205</t>
+          <t>EVOL2210</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>EVOL2200.png</t>
+          <t>EVOL2205.png</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1h9vsrBzW0Xv1iQQLj1jp8r7OhQvm5xt5</t>
+          <t>19EgWFY7ggYEd14bqAT5O8Btzy4a5AikH</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1h9vsrBzW0Xv1iQQLj1jp8r7OhQvm5xt5/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/19EgWFY7ggYEd14bqAT5O8Btzy4a5AikH/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1h9vsrBzW0Xv1iQQLj1jp8r7OhQvm5xt5</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=19EgWFY7ggYEd14bqAT5O8Btzy4a5AikH</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>EVOL2200</t>
+          <t>EVOL2205</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>EVO230TU.png</t>
+          <t>EVOL2200.png</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1lfwn_2PGMJg_bWOfV1-SOfH2D2Zxka5E</t>
+          <t>1h9vsrBzW0Xv1iQQLj1jp8r7OhQvm5xt5</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1lfwn_2PGMJg_bWOfV1-SOfH2D2Zxka5E/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1h9vsrBzW0Xv1iQQLj1jp8r7OhQvm5xt5/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1lfwn_2PGMJg_bWOfV1-SOfH2D2Zxka5E</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1h9vsrBzW0Xv1iQQLj1jp8r7OhQvm5xt5</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>EVO230TU</t>
+          <t>EVOL2200</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>EVO180TU.png</t>
+          <t>EVO230TU.png</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1WVkT2L7MnVLJ66_a5VaVG7DD6O4kKMmW</t>
+          <t>1lfwn_2PGMJg_bWOfV1-SOfH2D2Zxka5E</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1WVkT2L7MnVLJ66_a5VaVG7DD6O4kKMmW/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1lfwn_2PGMJg_bWOfV1-SOfH2D2Zxka5E/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1WVkT2L7MnVLJ66_a5VaVG7DD6O4kKMmW</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1lfwn_2PGMJg_bWOfV1-SOfH2D2Zxka5E</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>EVO180TU</t>
+          <t>EVO230TU</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>EVO230CO.png</t>
+          <t>EVO180TU.png</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1k0kPpz5lEqKuPCuNObrxtXqylrrHY9MZ</t>
+          <t>1WVkT2L7MnVLJ66_a5VaVG7DD6O4kKMmW</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1k0kPpz5lEqKuPCuNObrxtXqylrrHY9MZ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1WVkT2L7MnVLJ66_a5VaVG7DD6O4kKMmW/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1k0kPpz5lEqKuPCuNObrxtXqylrrHY9MZ</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1WVkT2L7MnVLJ66_a5VaVG7DD6O4kKMmW</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>EVO230CO</t>
+          <t>EVO180TU</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>EVO115LA.png</t>
+          <t>EVO230CO.png</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1CK8kNuk4AClU1c3ubeahyF7fCj4UJje0</t>
+          <t>1k0kPpz5lEqKuPCuNObrxtXqylrrHY9MZ</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1CK8kNuk4AClU1c3ubeahyF7fCj4UJje0/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1k0kPpz5lEqKuPCuNObrxtXqylrrHY9MZ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1CK8kNuk4AClU1c3ubeahyF7fCj4UJje0</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1k0kPpz5lEqKuPCuNObrxtXqylrrHY9MZ</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>EVO115LA</t>
+          <t>EVO230CO</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>EVO180CO.png</t>
+          <t>EVO115LA.png</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1RWh4i639_R8TbOlxf7nQ75cZMmsVmPvt</t>
+          <t>1CK8kNuk4AClU1c3ubeahyF7fCj4UJje0</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1RWh4i639_R8TbOlxf7nQ75cZMmsVmPvt/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1CK8kNuk4AClU1c3ubeahyF7fCj4UJje0/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1RWh4i639_R8TbOlxf7nQ75cZMmsVmPvt</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1CK8kNuk4AClU1c3ubeahyF7fCj4UJje0</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>EVO180CO</t>
+          <t>EVO115LA</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>EVO180LA.png</t>
+          <t>EVO180CO.png</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1EDeJZBv7uSJR-_dokYsYroemSxQJBGQe</t>
+          <t>1RWh4i639_R8TbOlxf7nQ75cZMmsVmPvt</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1EDeJZBv7uSJR-_dokYsYroemSxQJBGQe/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1RWh4i639_R8TbOlxf7nQ75cZMmsVmPvt/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1EDeJZBv7uSJR-_dokYsYroemSxQJBGQe</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1RWh4i639_R8TbOlxf7nQ75cZMmsVmPvt</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>EVO180LA</t>
+          <t>EVO180CO</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>EVO115TF.png</t>
+          <t>EVO180LA.png</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1RRC14OSifI-1w5dAe-OsiJGri5ynU0Qi</t>
+          <t>1EDeJZBv7uSJR-_dokYsYroemSxQJBGQe</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1RRC14OSifI-1w5dAe-OsiJGri5ynU0Qi/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1EDeJZBv7uSJR-_dokYsYroemSxQJBGQe/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1RRC14OSifI-1w5dAe-OsiJGri5ynU0Qi</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1EDeJZBv7uSJR-_dokYsYroemSxQJBGQe</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>EVO115TF</t>
+          <t>EVO180LA</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>EVOL0224.png</t>
+          <t>EVO115TF.png</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16TDaATiPzZEt23MZVZ6tlJ42ciFq7YrM</t>
+          <t>1RRC14OSifI-1w5dAe-OsiJGri5ynU0Qi</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/16TDaATiPzZEt23MZVZ6tlJ42ciFq7YrM/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1RRC14OSifI-1w5dAe-OsiJGri5ynU0Qi/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=16TDaATiPzZEt23MZVZ6tlJ42ciFq7YrM</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1RRC14OSifI-1w5dAe-OsiJGri5ynU0Qi</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>EVOL0224</t>
+          <t>EVO115TF</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>EVOL1208.png</t>
+          <t>EVOL0224.png</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1FYOCBYNRBYVv1scwGIYMsC8JT-SqrRw2</t>
+          <t>16TDaATiPzZEt23MZVZ6tlJ42ciFq7YrM</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1FYOCBYNRBYVv1scwGIYMsC8JT-SqrRw2/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/16TDaATiPzZEt23MZVZ6tlJ42ciFq7YrM/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1FYOCBYNRBYVv1scwGIYMsC8JT-SqrRw2</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=16TDaATiPzZEt23MZVZ6tlJ42ciFq7YrM</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>EVOL1208</t>
+          <t>EVOL0224</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>EVOL0135.png</t>
+          <t>EVOL1208.png</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1Z3lQgkeXUJr8Eatj6VeMofuFP6FodDKc</t>
+          <t>1FYOCBYNRBYVv1scwGIYMsC8JT-SqrRw2</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Z3lQgkeXUJr8Eatj6VeMofuFP6FodDKc/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1FYOCBYNRBYVv1scwGIYMsC8JT-SqrRw2/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Z3lQgkeXUJr8Eatj6VeMofuFP6FodDKc</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1FYOCBYNRBYVv1scwGIYMsC8JT-SqrRw2</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>EVOL0135</t>
+          <t>EVOL1208</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>EVOL2135.png</t>
+          <t>EVOL0135.png</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1olYmdhMIr_eFZFwfKZLENH6-kaRhAYY2</t>
+          <t>1Z3lQgkeXUJr8Eatj6VeMofuFP6FodDKc</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1olYmdhMIr_eFZFwfKZLENH6-kaRhAYY2/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Z3lQgkeXUJr8Eatj6VeMofuFP6FodDKc/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1olYmdhMIr_eFZFwfKZLENH6-kaRhAYY2</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Z3lQgkeXUJr8Eatj6VeMofuFP6FodDKc</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>EVOL2135</t>
+          <t>EVOL0135</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>EVOL1200.png</t>
+          <t>EVOL2135.png</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1Rm9BBRImLieuYju8WsEZ3m5ezvQAO47j</t>
+          <t>1olYmdhMIr_eFZFwfKZLENH6-kaRhAYY2</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Rm9BBRImLieuYju8WsEZ3m5ezvQAO47j/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1olYmdhMIr_eFZFwfKZLENH6-kaRhAYY2/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Rm9BBRImLieuYju8WsEZ3m5ezvQAO47j</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1olYmdhMIr_eFZFwfKZLENH6-kaRhAYY2</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>EVOL1200</t>
+          <t>EVOL2135</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>EVOL1631.png</t>
+          <t>EVOL1200.png</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>13z80AE4-qQfFh2mSZDaCCb2jDo-OZLNN</t>
+          <t>1Rm9BBRImLieuYju8WsEZ3m5ezvQAO47j</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/13z80AE4-qQfFh2mSZDaCCb2jDo-OZLNN/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Rm9BBRImLieuYju8WsEZ3m5ezvQAO47j/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=13z80AE4-qQfFh2mSZDaCCb2jDo-OZLNN</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Rm9BBRImLieuYju8WsEZ3m5ezvQAO47j</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>EVOL1631</t>
+          <t>EVOL1200</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>EVOL0108.png</t>
+          <t>EVOL1631.png</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1CrRWGci78tG63-mOTBZd4pBA8QBUfJ16</t>
+          <t>13z80AE4-qQfFh2mSZDaCCb2jDo-OZLNN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1CrRWGci78tG63-mOTBZd4pBA8QBUfJ16/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/13z80AE4-qQfFh2mSZDaCCb2jDo-OZLNN/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1CrRWGci78tG63-mOTBZd4pBA8QBUfJ16</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=13z80AE4-qQfFh2mSZDaCCb2jDo-OZLNN</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>EVOL0108</t>
+          <t>EVOL1631</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>EVOL0340.png</t>
+          <t>EVOL0108.png</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1eNc8s9f6SvIp_OYtCmvflwSyvavrgOD_</t>
+          <t>1CrRWGci78tG63-mOTBZd4pBA8QBUfJ16</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1eNc8s9f6SvIp_OYtCmvflwSyvavrgOD_/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1CrRWGci78tG63-mOTBZd4pBA8QBUfJ16/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1eNc8s9f6SvIp_OYtCmvflwSyvavrgOD_</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1CrRWGci78tG63-mOTBZd4pBA8QBUfJ16</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>EVOL0340</t>
+          <t>EVOL0108</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>EVOL5100.png</t>
+          <t>EVOL0340.png</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1Ia3JNimwL4w3s98MGiXd1_f-vyZ6lBuf</t>
+          <t>1eNc8s9f6SvIp_OYtCmvflwSyvavrgOD_</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Ia3JNimwL4w3s98MGiXd1_f-vyZ6lBuf/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1eNc8s9f6SvIp_OYtCmvflwSyvavrgOD_/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Ia3JNimwL4w3s98MGiXd1_f-vyZ6lBuf</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1eNc8s9f6SvIp_OYtCmvflwSyvavrgOD_</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>EVOL5100</t>
+          <t>EVOL0340</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>EVOL0144.png</t>
+          <t>EVOL5100.png</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>15TWcTMqD_AFXZ_Zxwb5Ta2xpXkvySowE</t>
+          <t>1Ia3JNimwL4w3s98MGiXd1_f-vyZ6lBuf</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/15TWcTMqD_AFXZ_Zxwb5Ta2xpXkvySowE/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Ia3JNimwL4w3s98MGiXd1_f-vyZ6lBuf/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=15TWcTMqD_AFXZ_Zxwb5Ta2xpXkvySowE</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Ia3JNimwL4w3s98MGiXd1_f-vyZ6lBuf</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>EVOL0144</t>
+          <t>EVOL5100</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>EVOL4753.png</t>
+          <t>EVOL0144.png</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t</t>
+          <t>15TWcTMqD_AFXZ_Zxwb5Ta2xpXkvySowE</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/15TWcTMqD_AFXZ_Zxwb5Ta2xpXkvySowE/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=15TWcTMqD_AFXZ_Zxwb5Ta2xpXkvySowE</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>EVOL4753</t>
+          <t>EVOL0144</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>EVOL4755.png</t>
+          <t>EVOL4753.png</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1MdUoOX1z27tO24PDAFNxtWye61T69a8Z</t>
+          <t>1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1MdUoOX1z27tO24PDAFNxtWye61T69a8Z/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1MdUoOX1z27tO24PDAFNxtWye61T69a8Z</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>EVOL4755</t>
+          <t>EVOL4753</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>EVOL5530.png</t>
+          <t>EVOL4755.png</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1JrJHwCRw-twjmcec9_dOUmV31dTdvauq</t>
+          <t>1MdUoOX1z27tO24PDAFNxtWye61T69a8Z</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1JrJHwCRw-twjmcec9_dOUmV31dTdvauq/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1MdUoOX1z27tO24PDAFNxtWye61T69a8Z/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1JrJHwCRw-twjmcec9_dOUmV31dTdvauq</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1MdUoOX1z27tO24PDAFNxtWye61T69a8Z</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>EVOL5530</t>
+          <t>EVOL4755</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>EVOL3420.png</t>
+          <t>EVOL5530.png</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz</t>
+          <t>1JrJHwCRw-twjmcec9_dOUmV31dTdvauq</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1JrJHwCRw-twjmcec9_dOUmV31dTdvauq/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1JrJHwCRw-twjmcec9_dOUmV31dTdvauq</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>EVOL3420</t>
+          <t>EVOL5530</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>EVOL0043.png</t>
+          <t>EVOL3420.png</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m</t>
+          <t>1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>EVOL0043</t>
+          <t>EVOL3420</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SAHANAF2H.png</t>
+          <t>EVOL0043.png</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c</t>
+          <t>1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SAHANAF2H</t>
+          <t>EVOL0043</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SAHANAF1H.png</t>
+          <t>SAHANAF2H.png</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0</t>
+          <t>1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>SAHANAF1H</t>
+          <t>SAHANAF2H</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>evol0088.png</t>
+          <t>SAHANAF1H.png</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8</t>
+          <t>1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>evol0088</t>
+          <t>SAHANAF1H</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>CON205.png</t>
+          <t>evol0088.png</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu</t>
+          <t>1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>CON205</t>
+          <t>evol0088</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>EVOL3975.jpg</t>
+          <t>CON205.png</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM</t>
+          <t>1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>EVOL3975</t>
+          <t>CON205</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>TF.414.png</t>
+          <t>EVOL3975.jpg</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
+          <t>1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>TF.414</t>
+          <t>EVOL3975</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>GAG1685AR.png</t>
+          <t>TF.414.png</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq</t>
+          <t>1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>GAG1685AR</t>
+          <t>TF.414</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>GAG1910AR.png</t>
+          <t>GAG1685AR.png</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl</t>
+          <t>1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>GAG1910AR</t>
+          <t>GAG1685AR</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ISAALAMF16.png</t>
+          <t>GAG1910AR.png</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>14BogV6rHDIcL1bJzvKgItflTszBh2Yjx</t>
+          <t>1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/14BogV6rHDIcL1bJzvKgItflTszBh2Yjx/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=14BogV6rHDIcL1bJzvKgItflTszBh2Yjx</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ISAALAMF16</t>
+          <t>GAG1910AR</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>EA5310MT.png</t>
+          <t>ISAALAMF16.png</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>168x1fBgYxstgD60EyOUekzYk21Cswij6</t>
+          <t>14BogV6rHDIcL1bJzvKgItflTszBh2Yjx</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/168x1fBgYxstgD60EyOUekzYk21Cswij6/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/14BogV6rHDIcL1bJzvKgItflTszBh2Yjx/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=168x1fBgYxstgD60EyOUekzYk21Cswij6</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=14BogV6rHDIcL1bJzvKgItflTszBh2Yjx</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>EA5310MT</t>
+          <t>ISAALAMF16</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>EVOL0174.png</t>
+          <t>EA5310MT.png</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt</t>
+          <t>168x1fBgYxstgD60EyOUekzYk21Cswij6</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/168x1fBgYxstgD60EyOUekzYk21Cswij6/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=168x1fBgYxstgD60EyOUekzYk21Cswij6</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>EVOL0174</t>
+          <t>EA5310MT</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ALI70.png</t>
+          <t>EVOL0174.png</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>118_Mew5CJz8YNrVjxiGgKooC9GHL40wA</t>
+          <t>1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/118_Mew5CJz8YNrVjxiGgKooC9GHL40wA/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=118_Mew5CJz8YNrVjxiGgKooC9GHL40wA</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ALI70</t>
+          <t>EVOL0174</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SIM18310.png</t>
+          <t>ALI70.png</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>13cioMVntBUSCdPldxG-2kDu8-KoWxIa5</t>
+          <t>118_Mew5CJz8YNrVjxiGgKooC9GHL40wA</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/13cioMVntBUSCdPldxG-2kDu8-KoWxIa5/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/118_Mew5CJz8YNrVjxiGgKooC9GHL40wA/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=13cioMVntBUSCdPldxG-2kDu8-KoWxIa5</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=118_Mew5CJz8YNrVjxiGgKooC9GHL40wA</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>SIM18310</t>
+          <t>ALI70</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>KIMERAC1.png</t>
+          <t>SIM18310.png</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS</t>
+          <t>13cioMVntBUSCdPldxG-2kDu8-KoWxIa5</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/13cioMVntBUSCdPldxG-2kDu8-KoWxIa5/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=13cioMVntBUSCdPldxG-2kDu8-KoWxIa5</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>KIMERAC1</t>
+          <t>SIM18310</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>PROBOT41.png</t>
+          <t>KIMERAC1.png</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_</t>
+          <t>1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>PROBOT41</t>
+          <t>KIMERAC1</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>evorieg0153.jpg</t>
+          <t>PROBOT41.png</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG</t>
+          <t>1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>evorieg0153</t>
+          <t>PROBOT41</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>EGWX 01.png</t>
+          <t>evorieg0153.jpg</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ</t>
+          <t>1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>EGWX 01</t>
+          <t>evorieg0153</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>EGWX 02.png</t>
+          <t>EGWX 01.png</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H</t>
+          <t>1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>EGWX 02</t>
+          <t>EGWX 01</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>PX120314.png</t>
+          <t>EGWX 02.png</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l</t>
+          <t>1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>PX120314</t>
+          <t>EGWX 02</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PERFA0261.png</t>
+          <t>PX120314.png</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>1scmMs1xhcGnLuy7pA0GHx61dgeWNUjXb</t>
+          <t>1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1scmMs1xhcGnLuy7pA0GHx61dgeWNUjXb/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1scmMs1xhcGnLuy7pA0GHx61dgeWNUjXb</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>PERFA0261</t>
+          <t>PX120314</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>evol1000.png</t>
+          <t>PERFA0261.png</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k</t>
+          <t>1scmMs1xhcGnLuy7pA0GHx61dgeWNUjXb</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1scmMs1xhcGnLuy7pA0GHx61dgeWNUjXb/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1scmMs1xhcGnLuy7pA0GHx61dgeWNUjXb</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>evol1000</t>
+          <t>PERFA0261</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>evol0330.png</t>
+          <t>evol1000.png</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>1_woEN7ahCyphJcQooMGZU51SaSrhcw2H</t>
+          <t>1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1_woEN7ahCyphJcQooMGZU51SaSrhcw2H/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1_woEN7ahCyphJcQooMGZU51SaSrhcw2H</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>evol0330</t>
+          <t>evol1000</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>GAG12103AR.jpg</t>
+          <t>evol0330.png</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM</t>
+          <t>1_woEN7ahCyphJcQooMGZU51SaSrhcw2H</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1_woEN7ahCyphJcQooMGZU51SaSrhcw2H/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1_woEN7ahCyphJcQooMGZU51SaSrhcw2H</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>GAG12103AR</t>
+          <t>evol0330</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>TOR01522.jpg</t>
+          <t>GAG12103AR.jpg</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx</t>
+          <t>19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>TOR01522</t>
+          <t>GAG12103AR</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>logo-ferremax.png</t>
+          <t>TOR01522.jpg</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq</t>
+          <t>1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>logo-ferremax</t>
+          <t>TOR01522</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>login-bg.png</t>
+          <t>logo-ferremax.png</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn</t>
+          <t>1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>login-bg</t>
+          <t>logo-ferremax</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>evol0025.jpg</t>
+          <t>login-bg.png</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO</t>
+          <t>1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>evol0025</t>
+          <t>login-bg</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>evol3245.jpg</t>
+          <t>evol0025.jpg</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM</t>
+          <t>1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>evol3245</t>
+          <t>evol0025</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>evol1970.jpg</t>
+          <t>evol3245.jpg</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn</t>
+          <t>1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>evol1970</t>
+          <t>evol3245</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>evo115tu.jpg</t>
+          <t>evol1970.jpg</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g</t>
+          <t>14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>evo115tu</t>
+          <t>evol1970</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>evol0028.jpg</t>
+          <t>evo115tu.jpg</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7</t>
+          <t>1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>evol0028</t>
+          <t>evo115tu</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>evol3510.jpg</t>
+          <t>evol0028.jpg</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV</t>
+          <t>1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>evol3510</t>
+          <t>evol0028</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>evol0070.jpg</t>
+          <t>evol3510.jpg</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ</t>
+          <t>1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>evol0070</t>
+          <t>evol3510</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>evol2530.jpg</t>
+          <t>evol0070.jpg</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No</t>
+          <t>1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>evol2530</t>
+          <t>evol0070</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>evol0107.jpg</t>
+          <t>evol2530.jpg</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV</t>
+          <t>18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>evol0107</t>
+          <t>evol2530</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>evol0435.jpg</t>
+          <t>evol0107.jpg</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x</t>
+          <t>13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>evol0435</t>
+          <t>evol0107</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>evol0111.jpg</t>
+          <t>evol0435.jpg</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>18PywtpchMGSXpToC9emFelBbnkIO851b</t>
+          <t>1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/18PywtpchMGSXpToC9emFelBbnkIO851b/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=18PywtpchMGSXpToC9emFelBbnkIO851b</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>evol0111</t>
+          <t>evol0435</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>evol3970.jpg</t>
+          <t>evol0111.jpg</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls</t>
+          <t>18PywtpchMGSXpToC9emFelBbnkIO851b</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/18PywtpchMGSXpToC9emFelBbnkIO851b/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=18PywtpchMGSXpToC9emFelBbnkIO851b</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>evol3970</t>
+          <t>evol0111</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>evol0177.jpg</t>
+          <t>evol3970.jpg</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn</t>
+          <t>1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>evol0177</t>
+          <t>evol3970</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>evol2205.jpg</t>
+          <t>evol0177.jpg</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK</t>
+          <t>1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>evol2205</t>
+          <t>evol0177</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>evol1361.jpg</t>
+          <t>evol2205.jpg</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8</t>
+          <t>18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>evol1361</t>
+          <t>evol2205</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>evol3210.jpg</t>
+          <t>evol1361.jpg</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>1TArjaa7JzfoYKxuitLH3gEeurJie_XEr</t>
+          <t>19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1TArjaa7JzfoYKxuitLH3gEeurJie_XEr/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1TArjaa7JzfoYKxuitLH3gEeurJie_XEr</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>evol3210</t>
+          <t>evol1361</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>evo115co.jpg</t>
+          <t>evol3210.jpg</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>1OFRhg3wSMFQ6TYNMMxMweX1JIEsXmKdY</t>
+          <t>1TArjaa7JzfoYKxuitLH3gEeurJie_XEr</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1OFRhg3wSMFQ6TYNMMxMweX1JIEsXmKdY/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1TArjaa7JzfoYKxuitLH3gEeurJie_XEr/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1OFRhg3wSMFQ6TYNMMxMweX1JIEsXmKdY</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1TArjaa7JzfoYKxuitLH3gEeurJie_XEr</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>evo115co</t>
+          <t>evol3210</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
+          <t>evo115co.jpg</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>1OFRhg3wSMFQ6TYNMMxMweX1JIEsXmKdY</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1OFRhg3wSMFQ6TYNMMxMweX1JIEsXmKdY/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1OFRhg3wSMFQ6TYNMMxMweX1JIEsXmKdY</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>evo115co</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
           <t>logo.png</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>1NqGegsSTudgffTUAt2bJbBFYufezJv7I</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>https://drive.google.com/file/d/1NqGegsSTudgffTUAt2bJbBFYufezJv7I/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="D187" t="inlineStr">
         <is>
           <t>https://drive.google.com/uc?export=view&amp;id=1NqGegsSTudgffTUAt2bJbBFYufezJv7I</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>logo</t>
         </is>

--- a/imagenes_drive.xlsx
+++ b/imagenes_drive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E187"/>
+  <dimension ref="A1:E309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,5020 +463,8314 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PERFA0192.png</t>
+          <t>BM4255.png</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1o-0XWeAwepPI1a0a6fbRDbOfucPZdlyt</t>
+          <t>1iK01DyjwQqwdd0RNbu6MJwGMaxYmsXvR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1o-0XWeAwepPI1a0a6fbRDbOfucPZdlyt/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1iK01DyjwQqwdd0RNbu6MJwGMaxYmsXvR/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1o-0XWeAwepPI1a0a6fbRDbOfucPZdlyt</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1iK01DyjwQqwdd0RNbu6MJwGMaxYmsXvR</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PERFA0192</t>
+          <t>BM4255</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EVOL3088.png</t>
+          <t>BM5608.png</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1eIiLw76jRpOSREMEBPIDpjFFqkxjchM2</t>
+          <t>1JwRhsFzHkaLHec2Xnd6-6UVIOQz33AgY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1eIiLw76jRpOSREMEBPIDpjFFqkxjchM2/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1JwRhsFzHkaLHec2Xnd6-6UVIOQz33AgY/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1eIiLw76jRpOSREMEBPIDpjFFqkxjchM2</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1JwRhsFzHkaLHec2Xnd6-6UVIOQz33AgY</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EVOL3088</t>
+          <t>BM5608</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EVOL3087.png</t>
+          <t>BM5352.png</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1po1vu4rn4nYzrCkc62BP4VTXYT0ECK8h</t>
+          <t>1Bcf3_mcsiwD_ikIN5-fu9wkiEP2_fFyh</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1po1vu4rn4nYzrCkc62BP4VTXYT0ECK8h/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Bcf3_mcsiwD_ikIN5-fu9wkiEP2_fFyh/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1po1vu4rn4nYzrCkc62BP4VTXYT0ECK8h</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Bcf3_mcsiwD_ikIN5-fu9wkiEP2_fFyh</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EVOL3087</t>
+          <t>BM5352</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EVOL3086.png</t>
+          <t>BM2760EX.png</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1BvURk9_AZvhv7bu5cU165dzxtk54lrfP</t>
+          <t>1eJPsxtgEtnKOK34SfGBrbnJZHHLB4K6_</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1BvURk9_AZvhv7bu5cU165dzxtk54lrfP/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1eJPsxtgEtnKOK34SfGBrbnJZHHLB4K6_/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1BvURk9_AZvhv7bu5cU165dzxtk54lrfP</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1eJPsxtgEtnKOK34SfGBrbnJZHHLB4K6_</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EVOL3086</t>
+          <t>BM2760EX</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EVOL3089.png</t>
+          <t>BM6761.png</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1lkFpCsC8W2m3LUIiKnNyq5iQ5T4dSGWY</t>
+          <t>14Mr9tbtECjvyxSq9kV3wIQm8jT5eZOJo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1lkFpCsC8W2m3LUIiKnNyq5iQ5T4dSGWY/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/14Mr9tbtECjvyxSq9kV3wIQm8jT5eZOJo/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1lkFpCsC8W2m3LUIiKnNyq5iQ5T4dSGWY</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=14Mr9tbtECjvyxSq9kV3wIQm8jT5eZOJo</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EVOL3089</t>
+          <t>BM6761</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EVOL0011.png</t>
+          <t>BM5948.png</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1SQ4RO0DwgN6iB16qKKJW4nOKO-P-9AZ3</t>
+          <t>1V-Zam2wKFaD8HNlHGhegKYws7-Skwpaf</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1SQ4RO0DwgN6iB16qKKJW4nOKO-P-9AZ3/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1V-Zam2wKFaD8HNlHGhegKYws7-Skwpaf/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1SQ4RO0DwgN6iB16qKKJW4nOKO-P-9AZ3</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1V-Zam2wKFaD8HNlHGhegKYws7-Skwpaf</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EVOL0011</t>
+          <t>BM5948</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EVOL0010.png</t>
+          <t>BM2823.png</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1GxnmEGjpuhLnIQTUrBPOHbaKsMVc8ztN</t>
+          <t>1hncjANl_jM3s-JHjJp-CUTyPzUM6sLWI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1GxnmEGjpuhLnIQTUrBPOHbaKsMVc8ztN/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1hncjANl_jM3s-JHjJp-CUTyPzUM6sLWI/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1GxnmEGjpuhLnIQTUrBPOHbaKsMVc8ztN</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1hncjANl_jM3s-JHjJp-CUTyPzUM6sLWI</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EVOL0010</t>
+          <t>BM2823</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EVOL0009.png</t>
+          <t>BM2824.png</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>17ABzRsKQ-aAb7OOIy4gjt7EM2XOgeKi3</t>
+          <t>1BFmph4qt1WnVQVFW6e5YTSTt4XXs_A4_</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/17ABzRsKQ-aAb7OOIy4gjt7EM2XOgeKi3/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1BFmph4qt1WnVQVFW6e5YTSTt4XXs_A4_/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=17ABzRsKQ-aAb7OOIy4gjt7EM2XOgeKi3</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1BFmph4qt1WnVQVFW6e5YTSTt4XXs_A4_</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EVOL0009</t>
+          <t>BM2824</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EVOL0008.png</t>
+          <t>BM2822.png</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1io205s0lr5DzUCVGViGbT2u_eoQJZb2C</t>
+          <t>1FdxI9o0rr4RzOQDcjrQhhpXDtBz2GH7d</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1io205s0lr5DzUCVGViGbT2u_eoQJZb2C/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1FdxI9o0rr4RzOQDcjrQhhpXDtBz2GH7d/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1io205s0lr5DzUCVGViGbT2u_eoQJZb2C</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1FdxI9o0rr4RzOQDcjrQhhpXDtBz2GH7d</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>EVOL0008</t>
+          <t>BM2822</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EVOL6765.jpg</t>
+          <t>BM2825.png</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>15gfbTSnSVxp3RepFCtm2oOGlz219oyZh</t>
+          <t>1i7z0oF0g6dYqvH9iE1_EjWoFGj116gXQ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/15gfbTSnSVxp3RepFCtm2oOGlz219oyZh/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1i7z0oF0g6dYqvH9iE1_EjWoFGj116gXQ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=15gfbTSnSVxp3RepFCtm2oOGlz219oyZh</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1i7z0oF0g6dYqvH9iE1_EjWoFGj116gXQ</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>EVOL6765</t>
+          <t>BM2825</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EVOL6760.png</t>
+          <t>BM5947.png</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1vn8sI2ITt5XjGHLb23Z05vILv_DVLw05</t>
+          <t>1VENOmnomreVc1YCbd7KpXsDFO_e9JZnq</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1vn8sI2ITt5XjGHLb23Z05vILv_DVLw05/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1VENOmnomreVc1YCbd7KpXsDFO_e9JZnq/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1vn8sI2ITt5XjGHLb23Z05vILv_DVLw05</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1VENOmnomreVc1YCbd7KpXsDFO_e9JZnq</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>EVOL6760</t>
+          <t>BM5947</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EVOL6715.png</t>
+          <t>BM6213.png</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1SN4-JQEpjlD5Q-TDn2v5lNQ1hFyKVot1</t>
+          <t>15SagG2bHOoC-r3MUx1Ej_5dUOmoD37sA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1SN4-JQEpjlD5Q-TDn2v5lNQ1hFyKVot1/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/15SagG2bHOoC-r3MUx1Ej_5dUOmoD37sA/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1SN4-JQEpjlD5Q-TDn2v5lNQ1hFyKVot1</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=15SagG2bHOoC-r3MUx1Ej_5dUOmoD37sA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>EVOL6715</t>
+          <t>BM6213</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EVOL6222.png</t>
+          <t>BM6216.png</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1O-xOhjMBTW4WINz5wsnhNFHCn5EnT0Ki</t>
+          <t>172du_YUWzwnUb1L1XoEYf-3RsGUgC-G3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1O-xOhjMBTW4WINz5wsnhNFHCn5EnT0Ki/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/172du_YUWzwnUb1L1XoEYf-3RsGUgC-G3/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1O-xOhjMBTW4WINz5wsnhNFHCn5EnT0Ki</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=172du_YUWzwnUb1L1XoEYf-3RsGUgC-G3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>EVOL6222</t>
+          <t>BM6216</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EVOL6221.png</t>
+          <t>BM6208.png</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>19iuIRdeE_RammaNztz1KygdNq1tGTL8C</t>
+          <t>1Ebgt1bg1fZJc2TRHXo_Iz93kit5mSVpk</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/19iuIRdeE_RammaNztz1KygdNq1tGTL8C/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Ebgt1bg1fZJc2TRHXo_Iz93kit5mSVpk/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=19iuIRdeE_RammaNztz1KygdNq1tGTL8C</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Ebgt1bg1fZJc2TRHXo_Iz93kit5mSVpk</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>EVOL6221</t>
+          <t>BM6208</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EVOL6210.png</t>
+          <t>BM6212.png</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15mNv1wWkmsHpiLiWlg8jgv5yQVZt4Z1l</t>
+          <t>1DjOMDQOama13axLPZUWp5tCw0HftWVTl</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/15mNv1wWkmsHpiLiWlg8jgv5yQVZt4Z1l/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1DjOMDQOama13axLPZUWp5tCw0HftWVTl/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=15mNv1wWkmsHpiLiWlg8jgv5yQVZt4Z1l</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1DjOMDQOama13axLPZUWp5tCw0HftWVTl</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>EVOL6210</t>
+          <t>BM6212</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EVOL6205.png</t>
+          <t>BM6214.png</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11hBmjH-q6kh0_CNOGWTw6LnsXjbves0f</t>
+          <t>1y8vhx2PMeHixaFOHAZyf8rSzrJ_D8Tk1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/11hBmjH-q6kh0_CNOGWTw6LnsXjbves0f/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1y8vhx2PMeHixaFOHAZyf8rSzrJ_D8Tk1/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=11hBmjH-q6kh0_CNOGWTw6LnsXjbves0f</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1y8vhx2PMeHixaFOHAZyf8rSzrJ_D8Tk1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>EVOL6205</t>
+          <t>BM6214</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EVOL3957.png</t>
+          <t>BM6209.png</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>14c8KBXNh6nrKA5S4u67BmU7nOAZL4Adk</t>
+          <t>1e29ZMqVwTusTu5Wzx32Tq_oa6GQ1WgBg</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/14c8KBXNh6nrKA5S4u67BmU7nOAZL4Adk/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1e29ZMqVwTusTu5Wzx32Tq_oa6GQ1WgBg/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=14c8KBXNh6nrKA5S4u67BmU7nOAZL4Adk</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1e29ZMqVwTusTu5Wzx32Tq_oa6GQ1WgBg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>EVOL3957</t>
+          <t>BM6209</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EVOL3953.png</t>
+          <t>BM6215.png</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1PWg5nUjF3Lzsf6MSF9eUD0K364TAsO1O</t>
+          <t>1ErvODDg7Zc-OecTZKvhP866yS2MguDRX</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1PWg5nUjF3Lzsf6MSF9eUD0K364TAsO1O/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1ErvODDg7Zc-OecTZKvhP866yS2MguDRX/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1PWg5nUjF3Lzsf6MSF9eUD0K364TAsO1O</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1ErvODDg7Zc-OecTZKvhP866yS2MguDRX</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>EVOL3953</t>
+          <t>BM6215</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EVOL3959.png</t>
+          <t>BM7394.png</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1MtgmhF4llFOz-8-Kg3Xk0eOPlIrE6NqZ</t>
+          <t>17a2Mwon8UY3hae09cV9LLXBlw7XdAbCb</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1MtgmhF4llFOz-8-Kg3Xk0eOPlIrE6NqZ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/17a2Mwon8UY3hae09cV9LLXBlw7XdAbCb/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1MtgmhF4llFOz-8-Kg3Xk0eOPlIrE6NqZ</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=17a2Mwon8UY3hae09cV9LLXBlw7XdAbCb</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EVOL3959</t>
+          <t>BM7394</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EVOL3955.png</t>
+          <t>BM2821.png</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1sRu-iyXG_A4UpHTtmWy4m_O-1eVKvO-f</t>
+          <t>1m8izccvG6WUIBOhD63lcrAdT5POsFy6n</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1sRu-iyXG_A4UpHTtmWy4m_O-1eVKvO-f/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1m8izccvG6WUIBOhD63lcrAdT5POsFy6n/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1sRu-iyXG_A4UpHTtmWy4m_O-1eVKvO-f</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1m8izccvG6WUIBOhD63lcrAdT5POsFy6n</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>EVOL3955</t>
+          <t>BM2821</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EVOL3961.png</t>
+          <t>BM2818.png</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1h2_X5ZaWr3LDrgj_YErdS25QazR7X0od</t>
+          <t>1CFuNqxUJx8uPtBXn1mYNHh3ycdZTviE9</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1h2_X5ZaWr3LDrgj_YErdS25QazR7X0od/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1CFuNqxUJx8uPtBXn1mYNHh3ycdZTviE9/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1h2_X5ZaWr3LDrgj_YErdS25QazR7X0od</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1CFuNqxUJx8uPtBXn1mYNHh3ycdZTviE9</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>EVOL3961</t>
+          <t>BM2818</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>EVOL0440.png</t>
+          <t>BM2820.png</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1Ms54HbfpRLBZCKT8PoD-2ajd7x6LXc-z</t>
+          <t>1n3tcwJ4fYhHQIUM1TgZwNI5Z7bgFxdJY</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Ms54HbfpRLBZCKT8PoD-2ajd7x6LXc-z/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1n3tcwJ4fYhHQIUM1TgZwNI5Z7bgFxdJY/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Ms54HbfpRLBZCKT8PoD-2ajd7x6LXc-z</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1n3tcwJ4fYhHQIUM1TgZwNI5Z7bgFxdJY</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>EVOL0440</t>
+          <t>BM2820</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EVOL0095.png</t>
+          <t>BM2819.png</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1zFOPytbsjigQ_-zvlzRuhie_qc3O1XTI</t>
+          <t>1r2dd0KRlk0zrZYqLXxqEN3jXMzXvXbZp</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1zFOPytbsjigQ_-zvlzRuhie_qc3O1XTI/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1r2dd0KRlk0zrZYqLXxqEN3jXMzXvXbZp/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1zFOPytbsjigQ_-zvlzRuhie_qc3O1XTI</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1r2dd0KRlk0zrZYqLXxqEN3jXMzXvXbZp</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>EVOL0095</t>
+          <t>BM2819</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EVOL0094.png</t>
+          <t>BM6422.png</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>13BYafNl3xIdLli4HunqUgXbTtleRAuYP</t>
+          <t>12SjHzcl2JCYIXiyPsup4C40IIzidQ_wX</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/13BYafNl3xIdLli4HunqUgXbTtleRAuYP/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/12SjHzcl2JCYIXiyPsup4C40IIzidQ_wX/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=13BYafNl3xIdLli4HunqUgXbTtleRAuYP</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=12SjHzcl2JCYIXiyPsup4C40IIzidQ_wX</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EVOL0094</t>
+          <t>BM6422</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EVOL0470.png</t>
+          <t>BM7173.png</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1MuD89hp02bERhenW5uVzmupIp_6Unva-</t>
+          <t>1LTwYlUigYNie1wmNQKlbsR89uVWA5xme</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1MuD89hp02bERhenW5uVzmupIp_6Unva-/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1LTwYlUigYNie1wmNQKlbsR89uVWA5xme/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1MuD89hp02bERhenW5uVzmupIp_6Unva-</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1LTwYlUigYNie1wmNQKlbsR89uVWA5xme</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>EVOL0470</t>
+          <t>BM7173</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EVOL0460.png</t>
+          <t>BM7170.png</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1KbN7qY3oM8eiVO6sfydUs8UxgZb-hpGM</t>
+          <t>1HNJ6jyMg4nEyrXFdrWPH2CA91cGNSDxF</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1KbN7qY3oM8eiVO6sfydUs8UxgZb-hpGM/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1HNJ6jyMg4nEyrXFdrWPH2CA91cGNSDxF/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1KbN7qY3oM8eiVO6sfydUs8UxgZb-hpGM</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1HNJ6jyMg4nEyrXFdrWPH2CA91cGNSDxF</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>EVOL0460</t>
+          <t>BM7170</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EVOL0430.png</t>
+          <t>BM6763.png</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1a6UzFZ1FG_r_KwyRHHyPOQ2U1AgHcZVx</t>
+          <t>1rWUUBtlgBBVIyF0iJ3OtgxoAS8tFobNl</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1a6UzFZ1FG_r_KwyRHHyPOQ2U1AgHcZVx/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1rWUUBtlgBBVIyF0iJ3OtgxoAS8tFobNl/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1a6UzFZ1FG_r_KwyRHHyPOQ2U1AgHcZVx</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1rWUUBtlgBBVIyF0iJ3OtgxoAS8tFobNl</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>EVOL0430</t>
+          <t>BM6763</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EVOL0420.png</t>
+          <t>BM5161.png</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1F_Cm1j9kVlYzNi2UiF23z313uKdu63V3</t>
+          <t>1QPji327RVoF70S4rFhEDo8-8ENX3DDjV</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1F_Cm1j9kVlYzNi2UiF23z313uKdu63V3/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1QPji327RVoF70S4rFhEDo8-8ENX3DDjV/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1F_Cm1j9kVlYzNi2UiF23z313uKdu63V3</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1QPji327RVoF70S4rFhEDo8-8ENX3DDjV</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>EVOL0420</t>
+          <t>BM5161</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EVOL0410.png</t>
+          <t>BM6230.png</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1LUfV3jDmpQumlwkFHF8LMZiZwpAEdXyO</t>
+          <t>1gd1dkpLL82iGAju2mqaHnJ3KAcyodpes</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1LUfV3jDmpQumlwkFHF8LMZiZwpAEdXyO/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1gd1dkpLL82iGAju2mqaHnJ3KAcyodpes/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1LUfV3jDmpQumlwkFHF8LMZiZwpAEdXyO</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1gd1dkpLL82iGAju2mqaHnJ3KAcyodpes</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>EVOL0410</t>
+          <t>BM6230</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EVOL0400.png</t>
+          <t>BM6118.png</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1lSQ7MfgvUvQy9wedDJIf0VblCwB1gQVE</t>
+          <t>1bbzuoS0zVoVjf1DNZNAF7oV4u0K7Z8TG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1lSQ7MfgvUvQy9wedDJIf0VblCwB1gQVE/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1bbzuoS0zVoVjf1DNZNAF7oV4u0K7Z8TG/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1lSQ7MfgvUvQy9wedDJIf0VblCwB1gQVE</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1bbzuoS0zVoVjf1DNZNAF7oV4u0K7Z8TG</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>EVOL0400</t>
+          <t>BM6118</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EVOL3630.png</t>
+          <t>BM5397.png</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1OVB6y73WtqDGZ2sutSFD2I01NQ5DAAbf</t>
+          <t>1BO-e_IEZZSCVgY1HQswJtHHcmrtb57Wp</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1OVB6y73WtqDGZ2sutSFD2I01NQ5DAAbf/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1BO-e_IEZZSCVgY1HQswJtHHcmrtb57Wp/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1OVB6y73WtqDGZ2sutSFD2I01NQ5DAAbf</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1BO-e_IEZZSCVgY1HQswJtHHcmrtb57Wp</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>EVOL3630</t>
+          <t>BM5397</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EVOL3620.png</t>
+          <t>BM5537.png</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>14AHbLsGEWMuxVSU7sEf8DPavOFFDwVwS</t>
+          <t>1eMPjLJgmJLgVZ0OclW6zhqBMz1V6vCVi</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/14AHbLsGEWMuxVSU7sEf8DPavOFFDwVwS/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1eMPjLJgmJLgVZ0OclW6zhqBMz1V6vCVi/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=14AHbLsGEWMuxVSU7sEf8DPavOFFDwVwS</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1eMPjLJgmJLgVZ0OclW6zhqBMz1V6vCVi</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>EVOL3620</t>
+          <t>BM5537</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EVOL3650.png</t>
+          <t>BM5009.png</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>13wkth3nmjrfecz2QGxymQBq00BhqUVcc</t>
+          <t>13wdnCxbdC4oRdaRzp53cXf6UyYNbf35A</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/13wkth3nmjrfecz2QGxymQBq00BhqUVcc/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/13wdnCxbdC4oRdaRzp53cXf6UyYNbf35A/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=13wkth3nmjrfecz2QGxymQBq00BhqUVcc</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=13wdnCxbdC4oRdaRzp53cXf6UyYNbf35A</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>EVOL3650</t>
+          <t>BM5009</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EVOL0192.png</t>
+          <t>BM5008.png</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16XOV3qr23_83laSeE-ZAokJLru73uTZG</t>
+          <t>1bYjei7KGuwCyovd14gldtMT8B9x_Q6fz</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/16XOV3qr23_83laSeE-ZAokJLru73uTZG/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1bYjei7KGuwCyovd14gldtMT8B9x_Q6fz/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=16XOV3qr23_83laSeE-ZAokJLru73uTZG</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1bYjei7KGuwCyovd14gldtMT8B9x_Q6fz</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>EVOL0192</t>
+          <t>BM5008</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>EVOL3820.png</t>
+          <t>BM4125.png</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>190KI9EkKPW5Q08mwU5HZxUfG4jhzal_9</t>
+          <t>1FjwZs_8dKwK9SyUMoGE0xstW_5BP0y6H</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/190KI9EkKPW5Q08mwU5HZxUfG4jhzal_9/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1FjwZs_8dKwK9SyUMoGE0xstW_5BP0y6H/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=190KI9EkKPW5Q08mwU5HZxUfG4jhzal_9</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1FjwZs_8dKwK9SyUMoGE0xstW_5BP0y6H</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>EVOL3820</t>
+          <t>BM4125</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>EVOL3810.png</t>
+          <t>BM4558.png</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10gC9zGGNx9BnvdRNlpoOtpJOrVUSZw6I</t>
+          <t>1F7LfwKe5SjcDr0Lz52iJItALdJxt-8LU</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/10gC9zGGNx9BnvdRNlpoOtpJOrVUSZw6I/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1F7LfwKe5SjcDr0Lz52iJItALdJxt-8LU/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=10gC9zGGNx9BnvdRNlpoOtpJOrVUSZw6I</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1F7LfwKe5SjcDr0Lz52iJItALdJxt-8LU</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>EVOL3810</t>
+          <t>BM4558</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EVOL3800.png</t>
+          <t>BM4124.png</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1pFdn2H9GtPLW6z7LH6lk48ncqPFoCHtO</t>
+          <t>1Qp_LaCN3ZmXPS3lo_6Y6dSG-g2ikQK2K</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1pFdn2H9GtPLW6z7LH6lk48ncqPFoCHtO/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Qp_LaCN3ZmXPS3lo_6Y6dSG-g2ikQK2K/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1pFdn2H9GtPLW6z7LH6lk48ncqPFoCHtO</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Qp_LaCN3ZmXPS3lo_6Y6dSG-g2ikQK2K</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>EVOL3800</t>
+          <t>BM4124</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EVOL3740.png</t>
+          <t>BM4040.png</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1nqsl_r_OUzPDOdpf2Q9gXTXTC75M_UIz</t>
+          <t>1X6qqqwaQODqB85d0hTaWsn-16B8HCebq</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1nqsl_r_OUzPDOdpf2Q9gXTXTC75M_UIz/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1X6qqqwaQODqB85d0hTaWsn-16B8HCebq/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1nqsl_r_OUzPDOdpf2Q9gXTXTC75M_UIz</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1X6qqqwaQODqB85d0hTaWsn-16B8HCebq</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>EVOL3740</t>
+          <t>BM4040</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EVOL3700.png</t>
+          <t>BM6764.png</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1YBiE3ntEMD3QifQcmOSRstxEsbILx2Ir</t>
+          <t>1-ckRONqAbCNjJcT1kw76CED2Xh37tDBN</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1YBiE3ntEMD3QifQcmOSRstxEsbILx2Ir/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1-ckRONqAbCNjJcT1kw76CED2Xh37tDBN/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1YBiE3ntEMD3QifQcmOSRstxEsbILx2Ir</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1-ckRONqAbCNjJcT1kw76CED2Xh37tDBN</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>EVOL3700</t>
+          <t>BM6764</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EVOL3730.png</t>
+          <t>BM4198.png</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1JJqO6FgENBwXKUc4HZJLWJSu31GnFJ_G</t>
+          <t>1zosTTBTl5bsvHmBlBVLkq5ol2LTtLgm8</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1JJqO6FgENBwXKUc4HZJLWJSu31GnFJ_G/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1zosTTBTl5bsvHmBlBVLkq5ol2LTtLgm8/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1JJqO6FgENBwXKUc4HZJLWJSu31GnFJ_G</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1zosTTBTl5bsvHmBlBVLkq5ol2LTtLgm8</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>EVOL3730</t>
+          <t>BM4198</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EVOL3720.png</t>
+          <t>BM4202.png</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>149DWgSpxOVwyQkFSVzG5UAx8HvFmgw4C</t>
+          <t>1JgbFThBIw6aa7_YQKOvF_L_N1tkKzHrP</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/149DWgSpxOVwyQkFSVzG5UAx8HvFmgw4C/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1JgbFThBIw6aa7_YQKOvF_L_N1tkKzHrP/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=149DWgSpxOVwyQkFSVzG5UAx8HvFmgw4C</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1JgbFThBIw6aa7_YQKOvF_L_N1tkKzHrP</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>EVOL3720</t>
+          <t>BM4202</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>EVOL3710.png</t>
+          <t>BM4197.png</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1C4wZhl9SvavLY0MucvdkBqxEDXDczYVY</t>
+          <t>1VgG8im-tcQXzcdrd8oY7rP-GeEnvG2WP</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1C4wZhl9SvavLY0MucvdkBqxEDXDczYVY/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1VgG8im-tcQXzcdrd8oY7rP-GeEnvG2WP/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1C4wZhl9SvavLY0MucvdkBqxEDXDczYVY</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1VgG8im-tcQXzcdrd8oY7rP-GeEnvG2WP</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>EVOL3710</t>
+          <t>BM4197</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>EVOL0130.png</t>
+          <t>BM41201.png</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1k1DpdDzRRZBf3vXlx5WQAcEIcExyo4D1</t>
+          <t>1ByeFNZ-vJAzj3qfl6J5Pl_ZL4ORDRf_i</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1k1DpdDzRRZBf3vXlx5WQAcEIcExyo4D1/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1ByeFNZ-vJAzj3qfl6J5Pl_ZL4ORDRf_i/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1k1DpdDzRRZBf3vXlx5WQAcEIcExyo4D1</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1ByeFNZ-vJAzj3qfl6J5Pl_ZL4ORDRf_i</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>EVOL0130</t>
+          <t>BM41201</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>EVOL0004.png</t>
+          <t>BM4200.png</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1dIXEp6OZxhmZDc49TAe6H5aUEgnoaD1d</t>
+          <t>1PUzQukCeDF64nViTUgdphwgUGnOvggtY</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1dIXEp6OZxhmZDc49TAe6H5aUEgnoaD1d/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1PUzQukCeDF64nViTUgdphwgUGnOvggtY/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1dIXEp6OZxhmZDc49TAe6H5aUEgnoaD1d</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1PUzQukCeDF64nViTUgdphwgUGnOvggtY</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>EVOL0004</t>
+          <t>BM4200</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>EVOL1774.png</t>
+          <t>BM6229.png</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>114rmUbCFM6npyleoLq8K_BUtqHU7zKDO</t>
+          <t>1SzO4i9mU8OiHeLvloxbWxxu1c-yOljPq</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/114rmUbCFM6npyleoLq8K_BUtqHU7zKDO/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1SzO4i9mU8OiHeLvloxbWxxu1c-yOljPq/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=114rmUbCFM6npyleoLq8K_BUtqHU7zKDO</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1SzO4i9mU8OiHeLvloxbWxxu1c-yOljPq</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>EVOL1774</t>
+          <t>BM6229</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>EVOL0003.png</t>
+          <t>BM6225.png</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1MkuKAmbN0cM8mf-ca0od7TQn9E5p_Omr</t>
+          <t>1tfkyeNdsy5MHHEg_l2TYfWDENey6cJJk</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1MkuKAmbN0cM8mf-ca0od7TQn9E5p_Omr/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1tfkyeNdsy5MHHEg_l2TYfWDENey6cJJk/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1MkuKAmbN0cM8mf-ca0od7TQn9E5p_Omr</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1tfkyeNdsy5MHHEg_l2TYfWDENey6cJJk</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>EVOL0003</t>
+          <t>BM6225</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>EVOL0097.png</t>
+          <t>BM6220.png</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1X3_7pJg4S62os5CCwKmkMVW2r5EwJ_Ml</t>
+          <t>1K4v-xujmjMloYQrjnX55wJVncyYBvTjx</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1X3_7pJg4S62os5CCwKmkMVW2r5EwJ_Ml/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1K4v-xujmjMloYQrjnX55wJVncyYBvTjx/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1X3_7pJg4S62os5CCwKmkMVW2r5EwJ_Ml</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1K4v-xujmjMloYQrjnX55wJVncyYBvTjx</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>EVOL0097</t>
+          <t>BM6220</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>EVOL0096.png</t>
+          <t>BM6223.png</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1BSgIHp-uf9-LOzraEWfFkdMG_3BsseM4</t>
+          <t>1jUBdhDkE3j3FHMUdKyZZf8GkLo2eZm9_</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1BSgIHp-uf9-LOzraEWfFkdMG_3BsseM4/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1jUBdhDkE3j3FHMUdKyZZf8GkLo2eZm9_/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1BSgIHp-uf9-LOzraEWfFkdMG_3BsseM4</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1jUBdhDkE3j3FHMUdKyZZf8GkLo2eZm9_</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>EVOL0096</t>
+          <t>BM6223</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>EVOL0007.png</t>
+          <t>BM6222.png</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1voESolULU-KfuIJ2MYcYTv2ZXrYWQMDr</t>
+          <t>1pNw7mDgionEWEqKaTP8z4VZX7pyoPkm4</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1voESolULU-KfuIJ2MYcYTv2ZXrYWQMDr/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1pNw7mDgionEWEqKaTP8z4VZX7pyoPkm4/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1voESolULU-KfuIJ2MYcYTv2ZXrYWQMDr</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1pNw7mDgionEWEqKaTP8z4VZX7pyoPkm4</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>EVOL0007</t>
+          <t>BM6222</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>EVOL1768.png</t>
+          <t>BM6217.png</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1e21zBxKUF_CpEiHPPLQXqWmB0dIjogu4</t>
+          <t>1bG1sPbXlzrUfTy_HN2EQtNQ0-PppNdSQ</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1e21zBxKUF_CpEiHPPLQXqWmB0dIjogu4/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1bG1sPbXlzrUfTy_HN2EQtNQ0-PppNdSQ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1e21zBxKUF_CpEiHPPLQXqWmB0dIjogu4</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1bG1sPbXlzrUfTy_HN2EQtNQ0-PppNdSQ</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>EVOL1768</t>
+          <t>BM6217</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>EVOL1770.png</t>
+          <t>BM6227.png</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1u92ZJFqxJNmb5aGyX5nHx5iwg-7cb35A</t>
+          <t>1ntCW70CAqwuZMlVYQ_9mypoZNkohOjPj</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1u92ZJFqxJNmb5aGyX5nHx5iwg-7cb35A/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1ntCW70CAqwuZMlVYQ_9mypoZNkohOjPj/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1u92ZJFqxJNmb5aGyX5nHx5iwg-7cb35A</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1ntCW70CAqwuZMlVYQ_9mypoZNkohOjPj</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>EVOL1770</t>
+          <t>BM6227</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>EVOL0006.png</t>
+          <t>BM6228.png</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>12O7eCmeafQKB9oSwvsQ_jmx8G0V3l-bW</t>
+          <t>1bvJJrGnS-XNRQWPTo7_nTVpUM_SY4nhi</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/12O7eCmeafQKB9oSwvsQ_jmx8G0V3l-bW/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1bvJJrGnS-XNRQWPTo7_nTVpUM_SY4nhi/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=12O7eCmeafQKB9oSwvsQ_jmx8G0V3l-bW</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1bvJJrGnS-XNRQWPTo7_nTVpUM_SY4nhi</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>EVOL0006</t>
+          <t>BM6228</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>EVOL1097.png</t>
+          <t>BM6224.png</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1cccsXwoJkJPzk-eL73v5VJN_V94bUeqt</t>
+          <t>1hE7353HwiWSwemej6-CO8BdcnqwpnHgB</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1cccsXwoJkJPzk-eL73v5VJN_V94bUeqt/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1hE7353HwiWSwemej6-CO8BdcnqwpnHgB/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1cccsXwoJkJPzk-eL73v5VJN_V94bUeqt</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1hE7353HwiWSwemej6-CO8BdcnqwpnHgB</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>EVOL1097</t>
+          <t>BM6224</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>EVOL1096.png</t>
+          <t>BM6221.png</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1hXxGnVwWjeM8A3aQX2X2iUqJQo9rJwHL</t>
+          <t>1rpkksRPA0eIqzUYH243cn-ojD2Uk2dja</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1hXxGnVwWjeM8A3aQX2X2iUqJQo9rJwHL/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1rpkksRPA0eIqzUYH243cn-ojD2Uk2dja/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1hXxGnVwWjeM8A3aQX2X2iUqJQo9rJwHL</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1rpkksRPA0eIqzUYH243cn-ojD2Uk2dja</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>EVOL1096</t>
+          <t>BM6221</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>EVOL0035.png</t>
+          <t>BM6218.png</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1NxT2qROgt7W8-v5nyOVkMi71PohZ-FkQ</t>
+          <t>1R8zHJeuKbbnHiERwIqSuR5cNJZrwsuji</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1NxT2qROgt7W8-v5nyOVkMi71PohZ-FkQ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1R8zHJeuKbbnHiERwIqSuR5cNJZrwsuji/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1NxT2qROgt7W8-v5nyOVkMi71PohZ-FkQ</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1R8zHJeuKbbnHiERwIqSuR5cNJZrwsuji</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>EVOL0035</t>
+          <t>BM6218</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>EVOL1772.png</t>
+          <t>BM6226.png</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1iXMOoDNWMaC2sZIT8DqhR8oxwJxfIz6E</t>
+          <t>1XYanDY2cHA-7VO_P4BxLhQ8RxmJnZCjt</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1iXMOoDNWMaC2sZIT8DqhR8oxwJxfIz6E/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1XYanDY2cHA-7VO_P4BxLhQ8RxmJnZCjt/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1iXMOoDNWMaC2sZIT8DqhR8oxwJxfIz6E</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1XYanDY2cHA-7VO_P4BxLhQ8RxmJnZCjt</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>EVOL1772</t>
+          <t>BM6226</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>EVOL0002.png</t>
+          <t>BM4199.png</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1m4WGbazGIB0enbXyuJmAtourcCX4k-Hh</t>
+          <t>1gCok7-HSWeFoQPW43wOnRNAmxRSG4MYG</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1m4WGbazGIB0enbXyuJmAtourcCX4k-Hh/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1gCok7-HSWeFoQPW43wOnRNAmxRSG4MYG/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1m4WGbazGIB0enbXyuJmAtourcCX4k-Hh</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1gCok7-HSWeFoQPW43wOnRNAmxRSG4MYG</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>EVOL0002</t>
+          <t>BM4199</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>EVOL1776.png</t>
+          <t>BM4203.png</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1_2SYYR_oqTFYUzNjTLJNbzG65TBFhf3v</t>
+          <t>1kFOonUigmysUh_a-7WrWx6vgIPAPTlyO</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1_2SYYR_oqTFYUzNjTLJNbzG65TBFhf3v/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1kFOonUigmysUh_a-7WrWx6vgIPAPTlyO/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1_2SYYR_oqTFYUzNjTLJNbzG65TBFhf3v</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1kFOonUigmysUh_a-7WrWx6vgIPAPTlyO</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>EVOL1776</t>
+          <t>BM4203</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>EVOL0030.png</t>
+          <t>BM2735.png</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1Kv9UiV-aVZz0t6pCBErjb3nZx5LG4_RI</t>
+          <t>1vIBTMkNaLvCl8_EjfNQhDxuWL0knYoM6</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Kv9UiV-aVZz0t6pCBErjb3nZx5LG4_RI/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1vIBTMkNaLvCl8_EjfNQhDxuWL0knYoM6/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Kv9UiV-aVZz0t6pCBErjb3nZx5LG4_RI</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1vIBTMkNaLvCl8_EjfNQhDxuWL0knYoM6</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>EVOL0030</t>
+          <t>BM2735</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>EVOL0234.png</t>
+          <t>BM2741.png</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1N0BRoX5I3N6uKLoDo_bRkdIlqkKKm_C1</t>
+          <t>1GroQdUmu3bxW6v5YfyNX6eiEj5_QAbQF</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1N0BRoX5I3N6uKLoDo_bRkdIlqkKKm_C1/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1GroQdUmu3bxW6v5YfyNX6eiEj5_QAbQF/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1N0BRoX5I3N6uKLoDo_bRkdIlqkKKm_C1</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1GroQdUmu3bxW6v5YfyNX6eiEj5_QAbQF</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>EVOL0234</t>
+          <t>BM2741</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>EVOL4930.png</t>
+          <t>BM2737.png</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16Q1nyVDVbNkBCILbD_FvkA3FBqJPeOCq</t>
+          <t>1_TrChiceNpw90_pspIKo0RKyZqB1BfRn</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/16Q1nyVDVbNkBCILbD_FvkA3FBqJPeOCq/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1_TrChiceNpw90_pspIKo0RKyZqB1BfRn/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=16Q1nyVDVbNkBCILbD_FvkA3FBqJPeOCq</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1_TrChiceNpw90_pspIKo0RKyZqB1BfRn</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>EVOL4930</t>
+          <t>BM2737</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>EVOL4920.png</t>
+          <t>BM6738.png</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1REQnGnDonL2LwsNYqDEA6_Rq7rW9R6qy</t>
+          <t>1XZv7FOSi18yJglo8mCtLIMtHz_c7IZla</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1REQnGnDonL2LwsNYqDEA6_Rq7rW9R6qy/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1XZv7FOSi18yJglo8mCtLIMtHz_c7IZla/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1REQnGnDonL2LwsNYqDEA6_Rq7rW9R6qy</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1XZv7FOSi18yJglo8mCtLIMtHz_c7IZla</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>EVOL4920</t>
+          <t>BM6738</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>EVOL4910.png</t>
+          <t>BM6211.png</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1HoEkUgtSYonZeE4s57eT8cljKWeP573z</t>
+          <t>1mL5uB56qKglxD0DIMuoSKBEGKXCM8sko</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1HoEkUgtSYonZeE4s57eT8cljKWeP573z/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1mL5uB56qKglxD0DIMuoSKBEGKXCM8sko/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1HoEkUgtSYonZeE4s57eT8cljKWeP573z</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1mL5uB56qKglxD0DIMuoSKBEGKXCM8sko</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>EVOL4910</t>
+          <t>BM6211</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>EVOL4900.png</t>
+          <t>BM6210.png</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1Zfv9tHlh8Ll9b1DAhLgrtNRQaf-IeUCp</t>
+          <t>1439NF-weQ2BtMLRHYiVtj38Qp_aXxl03</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Zfv9tHlh8Ll9b1DAhLgrtNRQaf-IeUCp/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1439NF-weQ2BtMLRHYiVtj38Qp_aXxl03/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Zfv9tHlh8Ll9b1DAhLgrtNRQaf-IeUCp</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1439NF-weQ2BtMLRHYiVtj38Qp_aXxl03</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>EVOL4900</t>
+          <t>BM6210</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>EVOL0217.png</t>
+          <t>BM6219.png</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1r10j9c5BSbOiMx-z6cYvsnEI2J8UgCbf</t>
+          <t>14ieJKU0O50_vBgqUJHcEQczlnDTq7O-y</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1r10j9c5BSbOiMx-z6cYvsnEI2J8UgCbf/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/14ieJKU0O50_vBgqUJHcEQczlnDTq7O-y/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1r10j9c5BSbOiMx-z6cYvsnEI2J8UgCbf</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=14ieJKU0O50_vBgqUJHcEQczlnDTq7O-y</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>EVOL0217</t>
+          <t>BM6219</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>EVOL0216.png</t>
+          <t>BM3048.png</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1vPCn8eIOa0SDbWj6itkXYhQdlMiWBGZs</t>
+          <t>1BgKcrUDUzxnqStR3B1o7q0w1Xg9eBULl</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1vPCn8eIOa0SDbWj6itkXYhQdlMiWBGZs/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1BgKcrUDUzxnqStR3B1o7q0w1Xg9eBULl/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1vPCn8eIOa0SDbWj6itkXYhQdlMiWBGZs</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1BgKcrUDUzxnqStR3B1o7q0w1Xg9eBULl</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>EVOL0216</t>
+          <t>BM3048</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>EVOL0218.png</t>
+          <t>BM4529.png</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1Mwt1mPTwPc0hPt9TU9EbG4N26r6L2O49</t>
+          <t>1foXvnaLSA_LJtTMa69grncLPj95g_Ipw</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Mwt1mPTwPc0hPt9TU9EbG4N26r6L2O49/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1foXvnaLSA_LJtTMa69grncLPj95g_Ipw/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Mwt1mPTwPc0hPt9TU9EbG4N26r6L2O49</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1foXvnaLSA_LJtTMa69grncLPj95g_Ipw</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>EVOL0218</t>
+          <t>BM4529</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>EVOL0215.png</t>
+          <t>BM7294.png</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>138slbY27NquKx-NwShQif9lmmK4eK70x</t>
+          <t>1fW4HqO-NV6kzpuL7xp9wzgMinQQYsWr6</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/138slbY27NquKx-NwShQif9lmmK4eK70x/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1fW4HqO-NV6kzpuL7xp9wzgMinQQYsWr6/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=138slbY27NquKx-NwShQif9lmmK4eK70x</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1fW4HqO-NV6kzpuL7xp9wzgMinQQYsWr6</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>EVOL0215</t>
+          <t>BM7294</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>EVOL0214.png</t>
+          <t>BM4664.png</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1l-krPbtKcvrTpd7hqwQ6Vw27GgqPP3q3</t>
+          <t>1D__1rOyIuLjVyjTNZXFAYTlSG54eDlC1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1l-krPbtKcvrTpd7hqwQ6Vw27GgqPP3q3/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1D__1rOyIuLjVyjTNZXFAYTlSG54eDlC1/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1l-krPbtKcvrTpd7hqwQ6Vw27GgqPP3q3</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1D__1rOyIuLjVyjTNZXFAYTlSG54eDlC1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>EVOL0214</t>
+          <t>BM4664</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>EVOL0028.png</t>
+          <t>BM6921.png</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1WfEiYmUivHfKn1E2tUtaQ0e_hSIfxuQ0</t>
+          <t>1Anxv-X9d0GNIjUYjm5IKMMnqbF3nEAC1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1WfEiYmUivHfKn1E2tUtaQ0e_hSIfxuQ0/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Anxv-X9d0GNIjUYjm5IKMMnqbF3nEAC1/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1WfEiYmUivHfKn1E2tUtaQ0e_hSIfxuQ0</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Anxv-X9d0GNIjUYjm5IKMMnqbF3nEAC1</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>EVOL0028</t>
+          <t>BM6921</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>EVOL0208.png</t>
+          <t>BM6920.png</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1AR4SwXMD3H0YBs7467V9Wt-XVh2SMUBX</t>
+          <t>1MTxm-BVO17Jqw5B18xMoXTfLi2jlDA67</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1AR4SwXMD3H0YBs7467V9Wt-XVh2SMUBX/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1MTxm-BVO17Jqw5B18xMoXTfLi2jlDA67/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1AR4SwXMD3H0YBs7467V9Wt-XVh2SMUBX</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1MTxm-BVO17Jqw5B18xMoXTfLi2jlDA67</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>EVOL0208</t>
+          <t>BM6920</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>EVOL0024.png</t>
+          <t>BM7284.png</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1i8Pj32xqXS2EAK_nx5wKta_K8DdR_sca</t>
+          <t>1kz2QPBEyCSXkJ6xoD6DCyHnofHyMlGET</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1i8Pj32xqXS2EAK_nx5wKta_K8DdR_sca/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1kz2QPBEyCSXkJ6xoD6DCyHnofHyMlGET/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1i8Pj32xqXS2EAK_nx5wKta_K8DdR_sca</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1kz2QPBEyCSXkJ6xoD6DCyHnofHyMlGET</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>EVOL0024</t>
+          <t>BM7284</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>EVOL0023.png</t>
+          <t>BM7280.png</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1Taa-Rnb68NPS1z5tUjJLgUeRdTTa-mri</t>
+          <t>1T7UZKT5wrQk-WwKOuRk41eknZ0_EnEBg</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Taa-Rnb68NPS1z5tUjJLgUeRdTTa-mri/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1T7UZKT5wrQk-WwKOuRk41eknZ0_EnEBg/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Taa-Rnb68NPS1z5tUjJLgUeRdTTa-mri</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1T7UZKT5wrQk-WwKOuRk41eknZ0_EnEBg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>EVOL0023</t>
+          <t>BM7280</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EVOL0022.png</t>
+          <t>BM7598.png</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1hguUm8nfTno3Kaqj8l7fNWzN6hLuAeko</t>
+          <t>1JIiCdTfZQO2Sp3O4p74xhbVJDimbZaky</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1hguUm8nfTno3Kaqj8l7fNWzN6hLuAeko/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1JIiCdTfZQO2Sp3O4p74xhbVJDimbZaky/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1hguUm8nfTno3Kaqj8l7fNWzN6hLuAeko</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1JIiCdTfZQO2Sp3O4p74xhbVJDimbZaky</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>EVOL0022</t>
+          <t>BM7598</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>EVOL0021.png</t>
+          <t>BM6739.png</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>19Q5ns8Z0-XwZ3WAF5Mq6JfDViF97HpQG</t>
+          <t>1Pub5C8n_8Wkxe6gzwfxDx8FD5neVSKeU</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/19Q5ns8Z0-XwZ3WAF5Mq6JfDViF97HpQG/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Pub5C8n_8Wkxe6gzwfxDx8FD5neVSKeU/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=19Q5ns8Z0-XwZ3WAF5Mq6JfDViF97HpQG</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Pub5C8n_8Wkxe6gzwfxDx8FD5neVSKeU</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>EVOL0021</t>
+          <t>BM6739</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>EVOL0086.png</t>
+          <t>BM4671.png</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1cAKfzEHPw0N8IFMyM35w2R-4ULo-UKQZ</t>
+          <t>1zamblaJyxwMC4FXhTYdgcC0fLCQT8TYj</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1cAKfzEHPw0N8IFMyM35w2R-4ULo-UKQZ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1zamblaJyxwMC4FXhTYdgcC0fLCQT8TYj/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1cAKfzEHPw0N8IFMyM35w2R-4ULo-UKQZ</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1zamblaJyxwMC4FXhTYdgcC0fLCQT8TYj</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>EVOL0086</t>
+          <t>BM4671</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>EVOL0001.png</t>
+          <t>BM7236.png</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1wRrrcUN2Ha5Z49bPQ3gVqmH9EwUaQ_s1</t>
+          <t>1GEqR22bvwFgucUAASpaP5yLNn03RTQEr</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1wRrrcUN2Ha5Z49bPQ3gVqmH9EwUaQ_s1/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1GEqR22bvwFgucUAASpaP5yLNn03RTQEr/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1wRrrcUN2Ha5Z49bPQ3gVqmH9EwUaQ_s1</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1GEqR22bvwFgucUAASpaP5yLNn03RTQEr</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>EVOL0001</t>
+          <t>BM7236</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>EVOL1429.png</t>
+          <t>BM7235.png</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1IYxYM8E6sVM65uXDL4GPz7iLt5afnKmk</t>
+          <t>1dQMrchOqnjonh0U8CE-Xe_P1z5LZEy4K</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1IYxYM8E6sVM65uXDL4GPz7iLt5afnKmk/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1dQMrchOqnjonh0U8CE-Xe_P1z5LZEy4K/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1IYxYM8E6sVM65uXDL4GPz7iLt5afnKmk</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1dQMrchOqnjonh0U8CE-Xe_P1z5LZEy4K</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>EVOL1429</t>
+          <t>BM7235</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>EVOL1430.png</t>
+          <t>BM2732.png</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>15WskeyrKY0HX9dN1limtsDXvAZYX-OpB</t>
+          <t>1jLy3HEsLfoVpTrjIK3H8NCDa_4aeIz0P</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/15WskeyrKY0HX9dN1limtsDXvAZYX-OpB/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1jLy3HEsLfoVpTrjIK3H8NCDa_4aeIz0P/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=15WskeyrKY0HX9dN1limtsDXvAZYX-OpB</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1jLy3HEsLfoVpTrjIK3H8NCDa_4aeIz0P</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>EVOL1430</t>
+          <t>BM2732</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>EVOL1960.png</t>
+          <t>BM2717.png</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1xsmHRyemq1RoHVDkuRKK8F8Y3No0vbBV</t>
+          <t>1irtaut8F2_d43ZgnZ30YBKSYE5ki59-9</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1xsmHRyemq1RoHVDkuRKK8F8Y3No0vbBV/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1irtaut8F2_d43ZgnZ30YBKSYE5ki59-9/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1xsmHRyemq1RoHVDkuRKK8F8Y3No0vbBV</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1irtaut8F2_d43ZgnZ30YBKSYE5ki59-9</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>EVOL1960</t>
+          <t>BM2717</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>EVOMYR5810.png</t>
+          <t>BM258.png</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1l3AkRxk9SbyegXuHuFlxFSjiLe-aYl6L</t>
+          <t>1G83jz_1hA-PVxdw4XeGhjJaV52j551Z5</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1l3AkRxk9SbyegXuHuFlxFSjiLe-aYl6L/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1G83jz_1hA-PVxdw4XeGhjJaV52j551Z5/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1l3AkRxk9SbyegXuHuFlxFSjiLe-aYl6L</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1G83jz_1hA-PVxdw4XeGhjJaV52j551Z5</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>EVOMYR5810</t>
+          <t>BM258</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>EVOMYR5808.png</t>
+          <t>BM2497.png</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1W0tkVZcDQObIbEEeFT_prtJorpjy5OZ7</t>
+          <t>13T7_flbvjKlMLthZQt-kHpcwKS4MaY-F</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1W0tkVZcDQObIbEEeFT_prtJorpjy5OZ7/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/13T7_flbvjKlMLthZQt-kHpcwKS4MaY-F/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1W0tkVZcDQObIbEEeFT_prtJorpjy5OZ7</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=13T7_flbvjKlMLthZQt-kHpcwKS4MaY-F</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>EVOMYR5808</t>
+          <t>BM2497</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>EVOMYR5807.png</t>
+          <t>BM2493.png</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1_z2vl1A9cSx5TsLQ9EIYrkXQ9PQTglpP</t>
+          <t>1ZRJwRc3g8GLVDoiM3y4nxOy8uE29aoKK</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1_z2vl1A9cSx5TsLQ9EIYrkXQ9PQTglpP/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1ZRJwRc3g8GLVDoiM3y4nxOy8uE29aoKK/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1_z2vl1A9cSx5TsLQ9EIYrkXQ9PQTglpP</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1ZRJwRc3g8GLVDoiM3y4nxOy8uE29aoKK</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>EVOMYR5807</t>
+          <t>BM2493</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>EVOL1470.png</t>
+          <t>BM2485.png</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1Vyvd63vWgdwiCO-n9Q6wIyuHgI7koikH</t>
+          <t>1AedCHO4vzkQoDnm9TkprUBoCIf0gxbu1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Vyvd63vWgdwiCO-n9Q6wIyuHgI7koikH/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1AedCHO4vzkQoDnm9TkprUBoCIf0gxbu1/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Vyvd63vWgdwiCO-n9Q6wIyuHgI7koikH</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1AedCHO4vzkQoDnm9TkprUBoCIf0gxbu1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>EVOL1470</t>
+          <t>BM2485</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>EVOL0211.png</t>
+          <t>BM2484.png</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1OsTMZVeQjHDATTIPkLVtbHTHasxl0I50</t>
+          <t>1d3ezo6VSQSeeAAVH65P9II0Erzx_ACAU</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1OsTMZVeQjHDATTIPkLVtbHTHasxl0I50/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1d3ezo6VSQSeeAAVH65P9II0Erzx_ACAU/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1OsTMZVeQjHDATTIPkLVtbHTHasxl0I50</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1d3ezo6VSQSeeAAVH65P9II0Erzx_ACAU</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>EVOL0211</t>
+          <t>BM2484</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>EVOL0248.png</t>
+          <t>BM2372.png</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1t8kPA0zlnmC3ZByzSeuiRNg5kazjWkny</t>
+          <t>1NCy49f35AaRYQK395-NPt2PKnoOWS_dj</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1t8kPA0zlnmC3ZByzSeuiRNg5kazjWkny/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1NCy49f35AaRYQK395-NPt2PKnoOWS_dj/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1t8kPA0zlnmC3ZByzSeuiRNg5kazjWkny</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1NCy49f35AaRYQK395-NPt2PKnoOWS_dj</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>EVOL0248</t>
+          <t>BM2372</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>EVOL0249.png</t>
+          <t>BM2371.png</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>141PZXYKcbHr1Kkg4W09BRFc_2Wpo00wl</t>
+          <t>1gJ2OVKs6v4ZZHrDs06ZdqqaGAs1h04b2</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/141PZXYKcbHr1Kkg4W09BRFc_2Wpo00wl/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1gJ2OVKs6v4ZZHrDs06ZdqqaGAs1h04b2/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=141PZXYKcbHr1Kkg4W09BRFc_2Wpo00wl</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1gJ2OVKs6v4ZZHrDs06ZdqqaGAs1h04b2</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>EVOL0249</t>
+          <t>BM2371</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>EVOMYR1927.png</t>
+          <t>BM2363.png</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1LZ8TY9rTLl0ZBgcxJ3Iis5M3RYVnEjEd</t>
+          <t>1EHVRc01inK4N_mulhjnL_YPCTGOWwcEq</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1LZ8TY9rTLl0ZBgcxJ3Iis5M3RYVnEjEd/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1EHVRc01inK4N_mulhjnL_YPCTGOWwcEq/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1LZ8TY9rTLl0ZBgcxJ3Iis5M3RYVnEjEd</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1EHVRc01inK4N_mulhjnL_YPCTGOWwcEq</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>EVOMYR1927</t>
+          <t>BM2363</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>EVOMYR1931.png</t>
+          <t>BM2330.png</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1UFdmLxPD3nnusXUBvJjXZXHsUmzFC1kJ</t>
+          <t>1ZD9J5nroVKBsej7VLCAWKfYcDAAvQ7_Z</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1UFdmLxPD3nnusXUBvJjXZXHsUmzFC1kJ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1ZD9J5nroVKBsej7VLCAWKfYcDAAvQ7_Z/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1UFdmLxPD3nnusXUBvJjXZXHsUmzFC1kJ</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1ZD9J5nroVKBsej7VLCAWKfYcDAAvQ7_Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>EVOMYR1931</t>
+          <t>BM2330</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>EVOMYR1929.png</t>
+          <t>BM2329.png</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1gsNnPfkmtgYIv0M_TfC-yn8gA865w_Q7</t>
+          <t>1EbuyWtPQJuplMYPLW-M880IqoxvVwt8L</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1gsNnPfkmtgYIv0M_TfC-yn8gA865w_Q7/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1EbuyWtPQJuplMYPLW-M880IqoxvVwt8L/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1gsNnPfkmtgYIv0M_TfC-yn8gA865w_Q7</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1EbuyWtPQJuplMYPLW-M880IqoxvVwt8L</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>EVOMYR1929</t>
+          <t>BM2329</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>EVOMYR1928.png</t>
+          <t>BM2328.png</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1I_TwZcgIZQo6wbiTs5uE4UbL0flyrhCe</t>
+          <t>1WwcQ1qq0FyuHa5Csy9Ass9KuVK_rY1lJ</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1I_TwZcgIZQo6wbiTs5uE4UbL0flyrhCe/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1WwcQ1qq0FyuHa5Csy9Ass9KuVK_rY1lJ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1I_TwZcgIZQo6wbiTs5uE4UbL0flyrhCe</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1WwcQ1qq0FyuHa5Csy9Ass9KuVK_rY1lJ</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>EVOMYR1928</t>
+          <t>BM2328</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>EVOL0045.png</t>
+          <t>BM0344.png</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1P9Pe2iCczReo4mill8xuSGp0GYTfxkeG</t>
+          <t>1g9BTcY09lvBbfAEOBFfhk68PmkjAX4XY</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1P9Pe2iCczReo4mill8xuSGp0GYTfxkeG/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1g9BTcY09lvBbfAEOBFfhk68PmkjAX4XY/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1P9Pe2iCczReo4mill8xuSGp0GYTfxkeG</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1g9BTcY09lvBbfAEOBFfhk68PmkjAX4XY</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>EVOL0045</t>
+          <t>BM0344</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>EVOL0044.png</t>
+          <t>BM3542.png</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1BoxP8N1UqCCSogHLWBq97tRiRoz84UdJ</t>
+          <t>1wdgmi9s_ldMaZS29C56t_poTfXo-q6g9</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1BoxP8N1UqCCSogHLWBq97tRiRoz84UdJ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1wdgmi9s_ldMaZS29C56t_poTfXo-q6g9/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1BoxP8N1UqCCSogHLWBq97tRiRoz84UdJ</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1wdgmi9s_ldMaZS29C56t_poTfXo-q6g9</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>EVOL0044</t>
+          <t>BM3542</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>EVOL0148.png</t>
+          <t>BM5518.png</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1LjJtEpQm09MhzesfSzgLQtb8axi-NOC3</t>
+          <t>1ionYmVg4QpZq1enaEYcq5Y21-tDh9SLp</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1LjJtEpQm09MhzesfSzgLQtb8axi-NOC3/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1ionYmVg4QpZq1enaEYcq5Y21-tDh9SLp/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1LjJtEpQm09MhzesfSzgLQtb8axi-NOC3</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1ionYmVg4QpZq1enaEYcq5Y21-tDh9SLp</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>EVOL0148</t>
+          <t>BM5518</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>EVOL0147.png</t>
+          <t>BM3543.png</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1mbtJN63TojM6KAfyjugTEEGe91RPLfVi</t>
+          <t>1J0BSywX4oYBUfAr96HUAUHyEmtJkzkYM</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1mbtJN63TojM6KAfyjugTEEGe91RPLfVi/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1J0BSywX4oYBUfAr96HUAUHyEmtJkzkYM/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1mbtJN63TojM6KAfyjugTEEGe91RPLfVi</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1J0BSywX4oYBUfAr96HUAUHyEmtJkzkYM</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>EVOL0147</t>
+          <t>BM3543</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>EVOL0145.png</t>
+          <t>BM3541.png</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1thr8eSQLi5m0A3R_uD3DzpuvGvaBe8O9</t>
+          <t>1vx_PpVkI17QUXg7pDsE5acI1wxjW-0bI</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1thr8eSQLi5m0A3R_uD3DzpuvGvaBe8O9/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1vx_PpVkI17QUXg7pDsE5acI1wxjW-0bI/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1thr8eSQLi5m0A3R_uD3DzpuvGvaBe8O9</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1vx_PpVkI17QUXg7pDsE5acI1wxjW-0bI</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>EVOL0145</t>
+          <t>BM3541</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>EVOL0146.png</t>
+          <t>BM6136.png</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1aEusQyqbR4npgl-rCDrEvrnJcuIz5ek9</t>
+          <t>1UY3Nx9gOSbGAzMRT7dFDGeSyKPzo9F0I</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1aEusQyqbR4npgl-rCDrEvrnJcuIz5ek9/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1UY3Nx9gOSbGAzMRT7dFDGeSyKPzo9F0I/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1aEusQyqbR4npgl-rCDrEvrnJcuIz5ek9</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1UY3Nx9gOSbGAzMRT7dFDGeSyKPzo9F0I</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>EVOL0146</t>
+          <t>BM6136</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>EVOL0229.png</t>
+          <t>BM6350.png</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1ZZtGTIAIVjG2cZcmwZ0znPI39X35as55</t>
+          <t>1f_-1s-ODQ7vJb0U9UcchrOvPy5xNZ_4H</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1ZZtGTIAIVjG2cZcmwZ0znPI39X35as55/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1f_-1s-ODQ7vJb0U9UcchrOvPy5xNZ_4H/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1ZZtGTIAIVjG2cZcmwZ0znPI39X35as55</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1f_-1s-ODQ7vJb0U9UcchrOvPy5xNZ_4H</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>EVOL0229</t>
+          <t>BM6350</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>EVOL1331.png</t>
+          <t>BM6784.png</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1ZIbc-yFETgZW0ll3EBizduVKC7P3KDAC</t>
+          <t>1IteVukP0ASOZ1OIQTZiGPM85tUk9sKyx</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1ZIbc-yFETgZW0ll3EBizduVKC7P3KDAC/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1IteVukP0ASOZ1OIQTZiGPM85tUk9sKyx/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1ZIbc-yFETgZW0ll3EBizduVKC7P3KDAC</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1IteVukP0ASOZ1OIQTZiGPM85tUk9sKyx</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>EVOL1331</t>
+          <t>BM6784</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>EVOL1351.png</t>
+          <t>BM2566.png</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1hnbAMUjVoPlO4Y1VBBpvSP-lR8_DoBjo</t>
+          <t>116rZ_GCyW9RJePZgB5NU4zEwIp1z2nK1</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1hnbAMUjVoPlO4Y1VBBpvSP-lR8_DoBjo/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/116rZ_GCyW9RJePZgB5NU4zEwIp1z2nK1/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1hnbAMUjVoPlO4Y1VBBpvSP-lR8_DoBjo</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=116rZ_GCyW9RJePZgB5NU4zEwIp1z2nK1</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>EVOL1351</t>
+          <t>BM2566</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>EVOL3415.png</t>
+          <t>BM6187.png</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1CCCCuHxA1pCpdNO1qT3RCi29q_-vd1an</t>
+          <t>1BqpwyH7wQQbDR8WWp_j8M2Zf-eliipEx</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1CCCCuHxA1pCpdNO1qT3RCi29q_-vd1an/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1BqpwyH7wQQbDR8WWp_j8M2Zf-eliipEx/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1CCCCuHxA1pCpdNO1qT3RCi29q_-vd1an</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1BqpwyH7wQQbDR8WWp_j8M2Zf-eliipEx</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>EVOL3415</t>
+          <t>BM6187</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>EVOL0089.png</t>
+          <t>BM2914.png</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1dH1ZE8m1mrmCLZQpIkQtnGLzIqmyzqYp</t>
+          <t>1Z-Jnmsg6qFnHP_OmTfdZ8-PiKc-TkSn3</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1dH1ZE8m1mrmCLZQpIkQtnGLzIqmyzqYp/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Z-Jnmsg6qFnHP_OmTfdZ8-PiKc-TkSn3/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1dH1ZE8m1mrmCLZQpIkQtnGLzIqmyzqYp</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Z-Jnmsg6qFnHP_OmTfdZ8-PiKc-TkSn3</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>EVOL0089</t>
+          <t>BM2914</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>EVOL0033.png</t>
+          <t>BM5478.png</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1jg3UbW4U1qJn4GZ6Qq-JlS27McjoGlY1</t>
+          <t>1WJVYfEe8aJ99ZjyUdly030qCAExMPMwb</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1jg3UbW4U1qJn4GZ6Qq-JlS27McjoGlY1/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1WJVYfEe8aJ99ZjyUdly030qCAExMPMwb/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1jg3UbW4U1qJn4GZ6Qq-JlS27McjoGlY1</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1WJVYfEe8aJ99ZjyUdly030qCAExMPMwb</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>EVOL0033</t>
+          <t>BM5478</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>EVOL0320.png</t>
+          <t>BM7712.png</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1qopXTWXaCsoCSdy9K9kcd5xTOE7pt1rf</t>
+          <t>1puQUgD5xAxyzSd_0IbOjfBH7E3PAl39R</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1qopXTWXaCsoCSdy9K9kcd5xTOE7pt1rf/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1puQUgD5xAxyzSd_0IbOjfBH7E3PAl39R/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1qopXTWXaCsoCSdy9K9kcd5xTOE7pt1rf</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1puQUgD5xAxyzSd_0IbOjfBH7E3PAl39R</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>EVOL0320</t>
+          <t>BM7712</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>EVOL0223.png</t>
+          <t>BM7039.png</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1EsiZgOyTg_IgUNzfOK-oRDpCxHrUsRtG</t>
+          <t>1XftfDtj1RS_A3ru13THyqro8Ws65JYAa</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1EsiZgOyTg_IgUNzfOK-oRDpCxHrUsRtG/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1XftfDtj1RS_A3ru13THyqro8Ws65JYAa/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1EsiZgOyTg_IgUNzfOK-oRDpCxHrUsRtG</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1XftfDtj1RS_A3ru13THyqro8Ws65JYAa</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>EVOL0223</t>
+          <t>BM7039</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>EVOL0139.png</t>
+          <t>BM7031.png</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1l3Dj5NU9TR-PtSvfmQjxEfCsQxmqAqor</t>
+          <t>1Y0x6VtycwQWjf62y75rWDHN4OPirNtJI</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1l3Dj5NU9TR-PtSvfmQjxEfCsQxmqAqor/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Y0x6VtycwQWjf62y75rWDHN4OPirNtJI/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1l3Dj5NU9TR-PtSvfmQjxEfCsQxmqAqor</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Y0x6VtycwQWjf62y75rWDHN4OPirNtJI</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>EVOL0139</t>
+          <t>BM7031</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>EVOL0138.png</t>
+          <t>BM7030.png</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1sQpSD4exEhgRBuaPg9caxRD8gJZ_1oUo</t>
+          <t>16kYRaRJ2rr-S-NqENeRmunV-jLYwxTJj</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1sQpSD4exEhgRBuaPg9caxRD8gJZ_1oUo/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/16kYRaRJ2rr-S-NqENeRmunV-jLYwxTJj/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1sQpSD4exEhgRBuaPg9caxRD8gJZ_1oUo</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=16kYRaRJ2rr-S-NqENeRmunV-jLYwxTJj</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>EVOL0138</t>
+          <t>BM7030</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>EVOL0071.png</t>
+          <t>BM7029.png</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>10zbPoE1ceqG_5Ym7mtW0nqLaIcX0wpUP</t>
+          <t>1m3azanbgDpvK4Zy5uShPyt4fu94upptu</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/10zbPoE1ceqG_5Ym7mtW0nqLaIcX0wpUP/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1m3azanbgDpvK4Zy5uShPyt4fu94upptu/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=10zbPoE1ceqG_5Ym7mtW0nqLaIcX0wpUP</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1m3azanbgDpvK4Zy5uShPyt4fu94upptu</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>EVOL0071</t>
+          <t>BM7029</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>EVOL4000.png</t>
+          <t>BM3766.png</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1GlxlUZUr8DpaAuH3UceEUIw8R73FF-Eu</t>
+          <t>1O2l3m64hgg-qYVdqyLV3OZ9LirK0g5Xv</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1GlxlUZUr8DpaAuH3UceEUIw8R73FF-Eu/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1O2l3m64hgg-qYVdqyLV3OZ9LirK0g5Xv/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1GlxlUZUr8DpaAuH3UceEUIw8R73FF-Eu</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1O2l3m64hgg-qYVdqyLV3OZ9LirK0g5Xv</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>EVOL4000</t>
+          <t>BM3766</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>EVOL4050.png</t>
+          <t>BM3767.png</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>1dwkW4HBqrRnBooqNVxsmBWLPYW-xiHFm</t>
+          <t>1H6UQqedDxtH3KMRpMpCJZ3w3euT_h2UP</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1dwkW4HBqrRnBooqNVxsmBWLPYW-xiHFm/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1H6UQqedDxtH3KMRpMpCJZ3w3euT_h2UP/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1dwkW4HBqrRnBooqNVxsmBWLPYW-xiHFm</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1H6UQqedDxtH3KMRpMpCJZ3w3euT_h2UP</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>EVOL4050</t>
+          <t>BM3767</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>EVOL1154.png</t>
+          <t>BM3770.png</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1AXsDyi20NTrPHfxF0kR575sCVSw0ms-v</t>
+          <t>1SXoj5lgS7_zwo-3aHvaGNB1TfdX2M6Pi</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1AXsDyi20NTrPHfxF0kR575sCVSw0ms-v/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1SXoj5lgS7_zwo-3aHvaGNB1TfdX2M6Pi/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1AXsDyi20NTrPHfxF0kR575sCVSw0ms-v</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1SXoj5lgS7_zwo-3aHvaGNB1TfdX2M6Pi</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>EVOL1154</t>
+          <t>BM3770</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>EVOL1152.png</t>
+          <t>BM3765.png</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1WIL5-OlkISb4Jgw7r4Z-MY3GQlaymSLF</t>
+          <t>17xPlfWC1JHgwfIOzzA0JC2EodN8UnYyw</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1WIL5-OlkISb4Jgw7r4Z-MY3GQlaymSLF/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/17xPlfWC1JHgwfIOzzA0JC2EodN8UnYyw/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1WIL5-OlkISb4Jgw7r4Z-MY3GQlaymSLF</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=17xPlfWC1JHgwfIOzzA0JC2EodN8UnYyw</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>EVOL1152</t>
+          <t>BM3765</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>EVOL1150.png</t>
+          <t>BM3768.png</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>140FdaGH8uQQ35bKF6UxfK-GcsNRfi6Vd</t>
+          <t>18uUKFCx_9KN4KOAowyS1dIUKMtGSOWq-</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/140FdaGH8uQQ35bKF6UxfK-GcsNRfi6Vd/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/18uUKFCx_9KN4KOAowyS1dIUKMtGSOWq-/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=140FdaGH8uQQ35bKF6UxfK-GcsNRfi6Vd</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=18uUKFCx_9KN4KOAowyS1dIUKMtGSOWq-</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>EVOL1150</t>
+          <t>BM3768</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>EVOL1165.png</t>
+          <t>BM3769.png</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>1vEf6OOzcfBVbZfbXB0YWrvIwOG4TeEIO</t>
+          <t>1bO5jolZWrwnTGChXrEjjQ42JuhmXL0vs</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1vEf6OOzcfBVbZfbXB0YWrvIwOG4TeEIO/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1bO5jolZWrwnTGChXrEjjQ42JuhmXL0vs/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1vEf6OOzcfBVbZfbXB0YWrvIwOG4TeEIO</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1bO5jolZWrwnTGChXrEjjQ42JuhmXL0vs</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>EVOL1165</t>
+          <t>BM3769</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>EVOL1160.png</t>
+          <t>BM5830.png</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>1hhox9FvrlvQQzBpx43_mRx6BX6jbPCFY</t>
+          <t>1MVNxZ9JKoxlNNRhFazSgvK_JmiEK9bKS</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1hhox9FvrlvQQzBpx43_mRx6BX6jbPCFY/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1MVNxZ9JKoxlNNRhFazSgvK_JmiEK9bKS/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1hhox9FvrlvQQzBpx43_mRx6BX6jbPCFY</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1MVNxZ9JKoxlNNRhFazSgvK_JmiEK9bKS</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>EVOL1160</t>
+          <t>BM5830</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>EVOL2215.png</t>
+          <t>BM5833.png</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1JC2spLFD9wfeL21RGXw7k7tOmtBoxW37</t>
+          <t>1n4hKFrb8H0wo8sGYWxTUM9YoBGU1ksEI</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1JC2spLFD9wfeL21RGXw7k7tOmtBoxW37/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1n4hKFrb8H0wo8sGYWxTUM9YoBGU1ksEI/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1JC2spLFD9wfeL21RGXw7k7tOmtBoxW37</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1n4hKFrb8H0wo8sGYWxTUM9YoBGU1ksEI</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>EVOL2215</t>
+          <t>BM5833</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>EVOL2213.png</t>
+          <t>BM5831.png</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1DNP9gvL6lqvp6wXj3562s916dUaZvsVI</t>
+          <t>1KYIZzPQ2uhlxcCeIamh4AFgcwE1OzjbW</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1DNP9gvL6lqvp6wXj3562s916dUaZvsVI/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1KYIZzPQ2uhlxcCeIamh4AFgcwE1OzjbW/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1DNP9gvL6lqvp6wXj3562s916dUaZvsVI</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1KYIZzPQ2uhlxcCeIamh4AFgcwE1OzjbW</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>EVOL2213</t>
+          <t>BM5831</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>EVOL2210.png</t>
+          <t>BM5832.png</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1_wu8PGak1QJESDVjKPgGGuFu6K8qwGIH</t>
+          <t>1eATbKRlKgc2FaFlR7eyjb-jaNB4wrr5I</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1_wu8PGak1QJESDVjKPgGGuFu6K8qwGIH/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1eATbKRlKgc2FaFlR7eyjb-jaNB4wrr5I/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1_wu8PGak1QJESDVjKPgGGuFu6K8qwGIH</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1eATbKRlKgc2FaFlR7eyjb-jaNB4wrr5I</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>EVOL2210</t>
+          <t>BM5832</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>EVOL2205.png</t>
+          <t>BM5406.png</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>19EgWFY7ggYEd14bqAT5O8Btzy4a5AikH</t>
+          <t>1W9UxjqIJzR9oN8p6d3ptb-EPyCQevhvF</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/19EgWFY7ggYEd14bqAT5O8Btzy4a5AikH/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1W9UxjqIJzR9oN8p6d3ptb-EPyCQevhvF/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=19EgWFY7ggYEd14bqAT5O8Btzy4a5AikH</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1W9UxjqIJzR9oN8p6d3ptb-EPyCQevhvF</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>EVOL2205</t>
+          <t>BM5406</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>EVOL2200.png</t>
+          <t>BM6797.png</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1h9vsrBzW0Xv1iQQLj1jp8r7OhQvm5xt5</t>
+          <t>17nDeAGNcEnVSo5etiNsJWwfsTVlPInvj</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1h9vsrBzW0Xv1iQQLj1jp8r7OhQvm5xt5/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/17nDeAGNcEnVSo5etiNsJWwfsTVlPInvj/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1h9vsrBzW0Xv1iQQLj1jp8r7OhQvm5xt5</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=17nDeAGNcEnVSo5etiNsJWwfsTVlPInvj</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>EVOL2200</t>
+          <t>BM6797</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>EVO230TU.png</t>
+          <t>BM6796.png</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1lfwn_2PGMJg_bWOfV1-SOfH2D2Zxka5E</t>
+          <t>1EGLm_t4O3SQUbOVK_jayDu2jJgNVNaWH</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1lfwn_2PGMJg_bWOfV1-SOfH2D2Zxka5E/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1EGLm_t4O3SQUbOVK_jayDu2jJgNVNaWH/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1lfwn_2PGMJg_bWOfV1-SOfH2D2Zxka5E</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1EGLm_t4O3SQUbOVK_jayDu2jJgNVNaWH</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>EVO230TU</t>
+          <t>BM6796</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>EVO180TU.png</t>
+          <t>BM2508.png</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1WVkT2L7MnVLJ66_a5VaVG7DD6O4kKMmW</t>
+          <t>1mhRHmPsu-6oK5Yr1sFJxnY1K3J0MUHIm</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1WVkT2L7MnVLJ66_a5VaVG7DD6O4kKMmW/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1mhRHmPsu-6oK5Yr1sFJxnY1K3J0MUHIm/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1WVkT2L7MnVLJ66_a5VaVG7DD6O4kKMmW</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1mhRHmPsu-6oK5Yr1sFJxnY1K3J0MUHIm</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>EVO180TU</t>
+          <t>BM2508</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>EVO230CO.png</t>
+          <t>PERFA0192.png</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1k0kPpz5lEqKuPCuNObrxtXqylrrHY9MZ</t>
+          <t>1o-0XWeAwepPI1a0a6fbRDbOfucPZdlyt</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1k0kPpz5lEqKuPCuNObrxtXqylrrHY9MZ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1o-0XWeAwepPI1a0a6fbRDbOfucPZdlyt/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1k0kPpz5lEqKuPCuNObrxtXqylrrHY9MZ</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1o-0XWeAwepPI1a0a6fbRDbOfucPZdlyt</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>EVO230CO</t>
+          <t>PERFA0192</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>EVO115LA.png</t>
+          <t>EVOL3088.png</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1CK8kNuk4AClU1c3ubeahyF7fCj4UJje0</t>
+          <t>1eIiLw76jRpOSREMEBPIDpjFFqkxjchM2</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1CK8kNuk4AClU1c3ubeahyF7fCj4UJje0/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1eIiLw76jRpOSREMEBPIDpjFFqkxjchM2/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1CK8kNuk4AClU1c3ubeahyF7fCj4UJje0</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1eIiLw76jRpOSREMEBPIDpjFFqkxjchM2</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>EVO115LA</t>
+          <t>EVOL3088</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>EVO180CO.png</t>
+          <t>EVOL3087.png</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1RWh4i639_R8TbOlxf7nQ75cZMmsVmPvt</t>
+          <t>1po1vu4rn4nYzrCkc62BP4VTXYT0ECK8h</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1RWh4i639_R8TbOlxf7nQ75cZMmsVmPvt/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1po1vu4rn4nYzrCkc62BP4VTXYT0ECK8h/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1RWh4i639_R8TbOlxf7nQ75cZMmsVmPvt</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1po1vu4rn4nYzrCkc62BP4VTXYT0ECK8h</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>EVO180CO</t>
+          <t>EVOL3087</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>EVO180LA.png</t>
+          <t>EVOL3086.png</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1EDeJZBv7uSJR-_dokYsYroemSxQJBGQe</t>
+          <t>1BvURk9_AZvhv7bu5cU165dzxtk54lrfP</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1EDeJZBv7uSJR-_dokYsYroemSxQJBGQe/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1BvURk9_AZvhv7bu5cU165dzxtk54lrfP/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1EDeJZBv7uSJR-_dokYsYroemSxQJBGQe</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1BvURk9_AZvhv7bu5cU165dzxtk54lrfP</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>EVO180LA</t>
+          <t>EVOL3086</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>EVO115TF.png</t>
+          <t>EVOL3089.png</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1RRC14OSifI-1w5dAe-OsiJGri5ynU0Qi</t>
+          <t>1lkFpCsC8W2m3LUIiKnNyq5iQ5T4dSGWY</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1RRC14OSifI-1w5dAe-OsiJGri5ynU0Qi/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1lkFpCsC8W2m3LUIiKnNyq5iQ5T4dSGWY/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1RRC14OSifI-1w5dAe-OsiJGri5ynU0Qi</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1lkFpCsC8W2m3LUIiKnNyq5iQ5T4dSGWY</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>EVO115TF</t>
+          <t>EVOL3089</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>EVOL0224.png</t>
+          <t>EVOL0011.png</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16TDaATiPzZEt23MZVZ6tlJ42ciFq7YrM</t>
+          <t>1SQ4RO0DwgN6iB16qKKJW4nOKO-P-9AZ3</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/16TDaATiPzZEt23MZVZ6tlJ42ciFq7YrM/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1SQ4RO0DwgN6iB16qKKJW4nOKO-P-9AZ3/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=16TDaATiPzZEt23MZVZ6tlJ42ciFq7YrM</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1SQ4RO0DwgN6iB16qKKJW4nOKO-P-9AZ3</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>EVOL0224</t>
+          <t>EVOL0011</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>EVOL1208.png</t>
+          <t>EVOL0010.png</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1FYOCBYNRBYVv1scwGIYMsC8JT-SqrRw2</t>
+          <t>1GxnmEGjpuhLnIQTUrBPOHbaKsMVc8ztN</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1FYOCBYNRBYVv1scwGIYMsC8JT-SqrRw2/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1GxnmEGjpuhLnIQTUrBPOHbaKsMVc8ztN/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1FYOCBYNRBYVv1scwGIYMsC8JT-SqrRw2</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1GxnmEGjpuhLnIQTUrBPOHbaKsMVc8ztN</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>EVOL1208</t>
+          <t>EVOL0010</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>EVOL0135.png</t>
+          <t>EVOL0009.png</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1Z3lQgkeXUJr8Eatj6VeMofuFP6FodDKc</t>
+          <t>17ABzRsKQ-aAb7OOIy4gjt7EM2XOgeKi3</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Z3lQgkeXUJr8Eatj6VeMofuFP6FodDKc/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/17ABzRsKQ-aAb7OOIy4gjt7EM2XOgeKi3/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Z3lQgkeXUJr8Eatj6VeMofuFP6FodDKc</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=17ABzRsKQ-aAb7OOIy4gjt7EM2XOgeKi3</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>EVOL0135</t>
+          <t>EVOL0009</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>EVOL2135.png</t>
+          <t>EVOL0008.png</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1olYmdhMIr_eFZFwfKZLENH6-kaRhAYY2</t>
+          <t>1io205s0lr5DzUCVGViGbT2u_eoQJZb2C</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1olYmdhMIr_eFZFwfKZLENH6-kaRhAYY2/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1io205s0lr5DzUCVGViGbT2u_eoQJZb2C/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1olYmdhMIr_eFZFwfKZLENH6-kaRhAYY2</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1io205s0lr5DzUCVGViGbT2u_eoQJZb2C</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>EVOL2135</t>
+          <t>EVOL0008</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>EVOL1200.png</t>
+          <t>EVOL6765.jpg</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1Rm9BBRImLieuYju8WsEZ3m5ezvQAO47j</t>
+          <t>15gfbTSnSVxp3RepFCtm2oOGlz219oyZh</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Rm9BBRImLieuYju8WsEZ3m5ezvQAO47j/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/15gfbTSnSVxp3RepFCtm2oOGlz219oyZh/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Rm9BBRImLieuYju8WsEZ3m5ezvQAO47j</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=15gfbTSnSVxp3RepFCtm2oOGlz219oyZh</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>EVOL1200</t>
+          <t>EVOL6765</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>EVOL1631.png</t>
+          <t>EVOL6760.png</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>13z80AE4-qQfFh2mSZDaCCb2jDo-OZLNN</t>
+          <t>1vn8sI2ITt5XjGHLb23Z05vILv_DVLw05</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/13z80AE4-qQfFh2mSZDaCCb2jDo-OZLNN/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1vn8sI2ITt5XjGHLb23Z05vILv_DVLw05/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=13z80AE4-qQfFh2mSZDaCCb2jDo-OZLNN</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1vn8sI2ITt5XjGHLb23Z05vILv_DVLw05</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>EVOL1631</t>
+          <t>EVOL6760</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>EVOL0108.png</t>
+          <t>EVOL6715.png</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1CrRWGci78tG63-mOTBZd4pBA8QBUfJ16</t>
+          <t>1SN4-JQEpjlD5Q-TDn2v5lNQ1hFyKVot1</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1CrRWGci78tG63-mOTBZd4pBA8QBUfJ16/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1SN4-JQEpjlD5Q-TDn2v5lNQ1hFyKVot1/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1CrRWGci78tG63-mOTBZd4pBA8QBUfJ16</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1SN4-JQEpjlD5Q-TDn2v5lNQ1hFyKVot1</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>EVOL0108</t>
+          <t>EVOL6715</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>EVOL0340.png</t>
+          <t>EVOL6222.png</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1eNc8s9f6SvIp_OYtCmvflwSyvavrgOD_</t>
+          <t>1O-xOhjMBTW4WINz5wsnhNFHCn5EnT0Ki</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1eNc8s9f6SvIp_OYtCmvflwSyvavrgOD_/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1O-xOhjMBTW4WINz5wsnhNFHCn5EnT0Ki/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1eNc8s9f6SvIp_OYtCmvflwSyvavrgOD_</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1O-xOhjMBTW4WINz5wsnhNFHCn5EnT0Ki</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>EVOL0340</t>
+          <t>EVOL6222</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>EVOL5100.png</t>
+          <t>EVOL6221.png</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1Ia3JNimwL4w3s98MGiXd1_f-vyZ6lBuf</t>
+          <t>19iuIRdeE_RammaNztz1KygdNq1tGTL8C</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Ia3JNimwL4w3s98MGiXd1_f-vyZ6lBuf/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/19iuIRdeE_RammaNztz1KygdNq1tGTL8C/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Ia3JNimwL4w3s98MGiXd1_f-vyZ6lBuf</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=19iuIRdeE_RammaNztz1KygdNq1tGTL8C</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>EVOL5100</t>
+          <t>EVOL6221</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>EVOL0144.png</t>
+          <t>EVOL6210.png</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>15TWcTMqD_AFXZ_Zxwb5Ta2xpXkvySowE</t>
+          <t>15mNv1wWkmsHpiLiWlg8jgv5yQVZt4Z1l</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/15TWcTMqD_AFXZ_Zxwb5Ta2xpXkvySowE/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/15mNv1wWkmsHpiLiWlg8jgv5yQVZt4Z1l/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=15TWcTMqD_AFXZ_Zxwb5Ta2xpXkvySowE</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=15mNv1wWkmsHpiLiWlg8jgv5yQVZt4Z1l</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>EVOL0144</t>
+          <t>EVOL6210</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>EVOL4753.png</t>
+          <t>EVOL6205.png</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t</t>
+          <t>11hBmjH-q6kh0_CNOGWTw6LnsXjbves0f</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/11hBmjH-q6kh0_CNOGWTw6LnsXjbves0f/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=11hBmjH-q6kh0_CNOGWTw6LnsXjbves0f</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>EVOL4753</t>
+          <t>EVOL6205</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>EVOL4755.png</t>
+          <t>EVOL3957.png</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1MdUoOX1z27tO24PDAFNxtWye61T69a8Z</t>
+          <t>14c8KBXNh6nrKA5S4u67BmU7nOAZL4Adk</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1MdUoOX1z27tO24PDAFNxtWye61T69a8Z/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/14c8KBXNh6nrKA5S4u67BmU7nOAZL4Adk/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1MdUoOX1z27tO24PDAFNxtWye61T69a8Z</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=14c8KBXNh6nrKA5S4u67BmU7nOAZL4Adk</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>EVOL4755</t>
+          <t>EVOL3957</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>EVOL5530.png</t>
+          <t>EVOL3953.png</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1JrJHwCRw-twjmcec9_dOUmV31dTdvauq</t>
+          <t>1PWg5nUjF3Lzsf6MSF9eUD0K364TAsO1O</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1JrJHwCRw-twjmcec9_dOUmV31dTdvauq/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1PWg5nUjF3Lzsf6MSF9eUD0K364TAsO1O/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1JrJHwCRw-twjmcec9_dOUmV31dTdvauq</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1PWg5nUjF3Lzsf6MSF9eUD0K364TAsO1O</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>EVOL5530</t>
+          <t>EVOL3953</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>EVOL3420.png</t>
+          <t>EVOL3959.png</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz</t>
+          <t>1MtgmhF4llFOz-8-Kg3Xk0eOPlIrE6NqZ</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1MtgmhF4llFOz-8-Kg3Xk0eOPlIrE6NqZ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1MtgmhF4llFOz-8-Kg3Xk0eOPlIrE6NqZ</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>EVOL3420</t>
+          <t>EVOL3959</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>EVOL0043.png</t>
+          <t>EVOL3955.png</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m</t>
+          <t>1sRu-iyXG_A4UpHTtmWy4m_O-1eVKvO-f</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1sRu-iyXG_A4UpHTtmWy4m_O-1eVKvO-f/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1sRu-iyXG_A4UpHTtmWy4m_O-1eVKvO-f</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>EVOL0043</t>
+          <t>EVOL3955</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SAHANAF2H.png</t>
+          <t>EVOL3961.png</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c</t>
+          <t>1h2_X5ZaWr3LDrgj_YErdS25QazR7X0od</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1h2_X5ZaWr3LDrgj_YErdS25QazR7X0od/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1h2_X5ZaWr3LDrgj_YErdS25QazR7X0od</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>SAHANAF2H</t>
+          <t>EVOL3961</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SAHANAF1H.png</t>
+          <t>EVOL0440.png</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0</t>
+          <t>1Ms54HbfpRLBZCKT8PoD-2ajd7x6LXc-z</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Ms54HbfpRLBZCKT8PoD-2ajd7x6LXc-z/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Ms54HbfpRLBZCKT8PoD-2ajd7x6LXc-z</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>SAHANAF1H</t>
+          <t>EVOL0440</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>evol0088.png</t>
+          <t>EVOL0095.png</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8</t>
+          <t>1zFOPytbsjigQ_-zvlzRuhie_qc3O1XTI</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1zFOPytbsjigQ_-zvlzRuhie_qc3O1XTI/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1zFOPytbsjigQ_-zvlzRuhie_qc3O1XTI</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>evol0088</t>
+          <t>EVOL0095</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>CON205.png</t>
+          <t>EVOL0094.png</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu</t>
+          <t>13BYafNl3xIdLli4HunqUgXbTtleRAuYP</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/13BYafNl3xIdLli4HunqUgXbTtleRAuYP/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=13BYafNl3xIdLli4HunqUgXbTtleRAuYP</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>CON205</t>
+          <t>EVOL0094</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>EVOL3975.jpg</t>
+          <t>EVOL0470.png</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM</t>
+          <t>1MuD89hp02bERhenW5uVzmupIp_6Unva-</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1MuD89hp02bERhenW5uVzmupIp_6Unva-/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1MuD89hp02bERhenW5uVzmupIp_6Unva-</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>EVOL3975</t>
+          <t>EVOL0470</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>TF.414.png</t>
+          <t>EVOL0460.png</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
+          <t>1KbN7qY3oM8eiVO6sfydUs8UxgZb-hpGM</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1KbN7qY3oM8eiVO6sfydUs8UxgZb-hpGM/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1KbN7qY3oM8eiVO6sfydUs8UxgZb-hpGM</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>TF.414</t>
+          <t>EVOL0460</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>GAG1685AR.png</t>
+          <t>EVOL0430.png</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq</t>
+          <t>1a6UzFZ1FG_r_KwyRHHyPOQ2U1AgHcZVx</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1a6UzFZ1FG_r_KwyRHHyPOQ2U1AgHcZVx/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1a6UzFZ1FG_r_KwyRHHyPOQ2U1AgHcZVx</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>GAG1685AR</t>
+          <t>EVOL0430</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>GAG1910AR.png</t>
+          <t>EVOL0420.png</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl</t>
+          <t>1F_Cm1j9kVlYzNi2UiF23z313uKdu63V3</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1F_Cm1j9kVlYzNi2UiF23z313uKdu63V3/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1F_Cm1j9kVlYzNi2UiF23z313uKdu63V3</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>GAG1910AR</t>
+          <t>EVOL0420</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ISAALAMF16.png</t>
+          <t>EVOL0410.png</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>14BogV6rHDIcL1bJzvKgItflTszBh2Yjx</t>
+          <t>1LUfV3jDmpQumlwkFHF8LMZiZwpAEdXyO</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/14BogV6rHDIcL1bJzvKgItflTszBh2Yjx/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1LUfV3jDmpQumlwkFHF8LMZiZwpAEdXyO/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=14BogV6rHDIcL1bJzvKgItflTszBh2Yjx</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1LUfV3jDmpQumlwkFHF8LMZiZwpAEdXyO</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ISAALAMF16</t>
+          <t>EVOL0410</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>EA5310MT.png</t>
+          <t>EVOL0400.png</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>168x1fBgYxstgD60EyOUekzYk21Cswij6</t>
+          <t>1lSQ7MfgvUvQy9wedDJIf0VblCwB1gQVE</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/168x1fBgYxstgD60EyOUekzYk21Cswij6/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1lSQ7MfgvUvQy9wedDJIf0VblCwB1gQVE/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=168x1fBgYxstgD60EyOUekzYk21Cswij6</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1lSQ7MfgvUvQy9wedDJIf0VblCwB1gQVE</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>EA5310MT</t>
+          <t>EVOL0400</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>EVOL0174.png</t>
+          <t>EVOL3630.png</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt</t>
+          <t>1OVB6y73WtqDGZ2sutSFD2I01NQ5DAAbf</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1OVB6y73WtqDGZ2sutSFD2I01NQ5DAAbf/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1OVB6y73WtqDGZ2sutSFD2I01NQ5DAAbf</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>EVOL0174</t>
+          <t>EVOL3630</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ALI70.png</t>
+          <t>EVOL3620.png</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>118_Mew5CJz8YNrVjxiGgKooC9GHL40wA</t>
+          <t>14AHbLsGEWMuxVSU7sEf8DPavOFFDwVwS</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/118_Mew5CJz8YNrVjxiGgKooC9GHL40wA/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/14AHbLsGEWMuxVSU7sEf8DPavOFFDwVwS/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=118_Mew5CJz8YNrVjxiGgKooC9GHL40wA</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=14AHbLsGEWMuxVSU7sEf8DPavOFFDwVwS</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ALI70</t>
+          <t>EVOL3620</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SIM18310.png</t>
+          <t>EVOL3650.png</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>13cioMVntBUSCdPldxG-2kDu8-KoWxIa5</t>
+          <t>13wkth3nmjrfecz2QGxymQBq00BhqUVcc</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/13cioMVntBUSCdPldxG-2kDu8-KoWxIa5/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/13wkth3nmjrfecz2QGxymQBq00BhqUVcc/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=13cioMVntBUSCdPldxG-2kDu8-KoWxIa5</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=13wkth3nmjrfecz2QGxymQBq00BhqUVcc</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>SIM18310</t>
+          <t>EVOL3650</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>KIMERAC1.png</t>
+          <t>EVOL0192.png</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS</t>
+          <t>16XOV3qr23_83laSeE-ZAokJLru73uTZG</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/16XOV3qr23_83laSeE-ZAokJLru73uTZG/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=16XOV3qr23_83laSeE-ZAokJLru73uTZG</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>KIMERAC1</t>
+          <t>EVOL0192</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>PROBOT41.png</t>
+          <t>EVOL3820.png</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_</t>
+          <t>190KI9EkKPW5Q08mwU5HZxUfG4jhzal_9</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/190KI9EkKPW5Q08mwU5HZxUfG4jhzal_9/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=190KI9EkKPW5Q08mwU5HZxUfG4jhzal_9</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>PROBOT41</t>
+          <t>EVOL3820</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>evorieg0153.jpg</t>
+          <t>EVOL3810.png</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG</t>
+          <t>10gC9zGGNx9BnvdRNlpoOtpJOrVUSZw6I</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/10gC9zGGNx9BnvdRNlpoOtpJOrVUSZw6I/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=10gC9zGGNx9BnvdRNlpoOtpJOrVUSZw6I</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>evorieg0153</t>
+          <t>EVOL3810</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>EGWX 01.png</t>
+          <t>EVOL3800.png</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ</t>
+          <t>1pFdn2H9GtPLW6z7LH6lk48ncqPFoCHtO</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1pFdn2H9GtPLW6z7LH6lk48ncqPFoCHtO/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1pFdn2H9GtPLW6z7LH6lk48ncqPFoCHtO</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>EGWX 01</t>
+          <t>EVOL3800</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>EGWX 02.png</t>
+          <t>EVOL3740.png</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H</t>
+          <t>1nqsl_r_OUzPDOdpf2Q9gXTXTC75M_UIz</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1nqsl_r_OUzPDOdpf2Q9gXTXTC75M_UIz/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1nqsl_r_OUzPDOdpf2Q9gXTXTC75M_UIz</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>EGWX 02</t>
+          <t>EVOL3740</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PX120314.png</t>
+          <t>EVOL3700.png</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l</t>
+          <t>1YBiE3ntEMD3QifQcmOSRstxEsbILx2Ir</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1YBiE3ntEMD3QifQcmOSRstxEsbILx2Ir/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1YBiE3ntEMD3QifQcmOSRstxEsbILx2Ir</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>PX120314</t>
+          <t>EVOL3700</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>PERFA0261.png</t>
+          <t>EVOL3730.png</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>1scmMs1xhcGnLuy7pA0GHx61dgeWNUjXb</t>
+          <t>1JJqO6FgENBwXKUc4HZJLWJSu31GnFJ_G</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1scmMs1xhcGnLuy7pA0GHx61dgeWNUjXb/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1JJqO6FgENBwXKUc4HZJLWJSu31GnFJ_G/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1scmMs1xhcGnLuy7pA0GHx61dgeWNUjXb</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1JJqO6FgENBwXKUc4HZJLWJSu31GnFJ_G</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>PERFA0261</t>
+          <t>EVOL3730</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>evol1000.png</t>
+          <t>EVOL3720.png</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k</t>
+          <t>149DWgSpxOVwyQkFSVzG5UAx8HvFmgw4C</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/149DWgSpxOVwyQkFSVzG5UAx8HvFmgw4C/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=149DWgSpxOVwyQkFSVzG5UAx8HvFmgw4C</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>evol1000</t>
+          <t>EVOL3720</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>evol0330.png</t>
+          <t>EVOL3710.png</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1_woEN7ahCyphJcQooMGZU51SaSrhcw2H</t>
+          <t>1C4wZhl9SvavLY0MucvdkBqxEDXDczYVY</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1_woEN7ahCyphJcQooMGZU51SaSrhcw2H/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1C4wZhl9SvavLY0MucvdkBqxEDXDczYVY/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1_woEN7ahCyphJcQooMGZU51SaSrhcw2H</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1C4wZhl9SvavLY0MucvdkBqxEDXDczYVY</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>evol0330</t>
+          <t>EVOL3710</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>GAG12103AR.jpg</t>
+          <t>EVOL0130.png</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM</t>
+          <t>1k1DpdDzRRZBf3vXlx5WQAcEIcExyo4D1</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1k1DpdDzRRZBf3vXlx5WQAcEIcExyo4D1/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1k1DpdDzRRZBf3vXlx5WQAcEIcExyo4D1</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>GAG12103AR</t>
+          <t>EVOL0130</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>TOR01522.jpg</t>
+          <t>EVOL0004.png</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx</t>
+          <t>1dIXEp6OZxhmZDc49TAe6H5aUEgnoaD1d</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1dIXEp6OZxhmZDc49TAe6H5aUEgnoaD1d/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1dIXEp6OZxhmZDc49TAe6H5aUEgnoaD1d</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>TOR01522</t>
+          <t>EVOL0004</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>logo-ferremax.png</t>
+          <t>EVOL1774.png</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq</t>
+          <t>114rmUbCFM6npyleoLq8K_BUtqHU7zKDO</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/114rmUbCFM6npyleoLq8K_BUtqHU7zKDO/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=114rmUbCFM6npyleoLq8K_BUtqHU7zKDO</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>logo-ferremax</t>
+          <t>EVOL1774</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>login-bg.png</t>
+          <t>EVOL0003.png</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn</t>
+          <t>1MkuKAmbN0cM8mf-ca0od7TQn9E5p_Omr</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1MkuKAmbN0cM8mf-ca0od7TQn9E5p_Omr/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1MkuKAmbN0cM8mf-ca0od7TQn9E5p_Omr</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>login-bg</t>
+          <t>EVOL0003</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>evol0025.jpg</t>
+          <t>EVOL0097.png</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO</t>
+          <t>1X3_7pJg4S62os5CCwKmkMVW2r5EwJ_Ml</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1X3_7pJg4S62os5CCwKmkMVW2r5EwJ_Ml/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1X3_7pJg4S62os5CCwKmkMVW2r5EwJ_Ml</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>evol0025</t>
+          <t>EVOL0097</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>evol3245.jpg</t>
+          <t>EVOL0096.png</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM</t>
+          <t>1BSgIHp-uf9-LOzraEWfFkdMG_3BsseM4</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1BSgIHp-uf9-LOzraEWfFkdMG_3BsseM4/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1BSgIHp-uf9-LOzraEWfFkdMG_3BsseM4</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>evol3245</t>
+          <t>EVOL0096</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>evol1970.jpg</t>
+          <t>EVOL0007.png</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn</t>
+          <t>1voESolULU-KfuIJ2MYcYTv2ZXrYWQMDr</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1voESolULU-KfuIJ2MYcYTv2ZXrYWQMDr/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1voESolULU-KfuIJ2MYcYTv2ZXrYWQMDr</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>evol1970</t>
+          <t>EVOL0007</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>evo115tu.jpg</t>
+          <t>EVOL1768.png</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g</t>
+          <t>1e21zBxKUF_CpEiHPPLQXqWmB0dIjogu4</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1e21zBxKUF_CpEiHPPLQXqWmB0dIjogu4/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1e21zBxKUF_CpEiHPPLQXqWmB0dIjogu4</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>evo115tu</t>
+          <t>EVOL1768</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>evol0028.jpg</t>
+          <t>EVOL1770.png</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7</t>
+          <t>1u92ZJFqxJNmb5aGyX5nHx5iwg-7cb35A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1u92ZJFqxJNmb5aGyX5nHx5iwg-7cb35A/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1u92ZJFqxJNmb5aGyX5nHx5iwg-7cb35A</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>evol0028</t>
+          <t>EVOL1770</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>evol3510.jpg</t>
+          <t>EVOL0006.png</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV</t>
+          <t>12O7eCmeafQKB9oSwvsQ_jmx8G0V3l-bW</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/12O7eCmeafQKB9oSwvsQ_jmx8G0V3l-bW/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=12O7eCmeafQKB9oSwvsQ_jmx8G0V3l-bW</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>evol3510</t>
+          <t>EVOL0006</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>evol0070.jpg</t>
+          <t>EVOL1097.png</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ</t>
+          <t>1cccsXwoJkJPzk-eL73v5VJN_V94bUeqt</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1cccsXwoJkJPzk-eL73v5VJN_V94bUeqt/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1cccsXwoJkJPzk-eL73v5VJN_V94bUeqt</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>evol0070</t>
+          <t>EVOL1097</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>evol2530.jpg</t>
+          <t>EVOL1096.png</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No</t>
+          <t>1hXxGnVwWjeM8A3aQX2X2iUqJQo9rJwHL</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1hXxGnVwWjeM8A3aQX2X2iUqJQo9rJwHL/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1hXxGnVwWjeM8A3aQX2X2iUqJQo9rJwHL</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>evol2530</t>
+          <t>EVOL1096</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>evol0107.jpg</t>
+          <t>EVOL0035.png</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV</t>
+          <t>1NxT2qROgt7W8-v5nyOVkMi71PohZ-FkQ</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1NxT2qROgt7W8-v5nyOVkMi71PohZ-FkQ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1NxT2qROgt7W8-v5nyOVkMi71PohZ-FkQ</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>evol0107</t>
+          <t>EVOL0035</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>evol0435.jpg</t>
+          <t>EVOL1772.png</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x</t>
+          <t>1iXMOoDNWMaC2sZIT8DqhR8oxwJxfIz6E</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1iXMOoDNWMaC2sZIT8DqhR8oxwJxfIz6E/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1iXMOoDNWMaC2sZIT8DqhR8oxwJxfIz6E</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>evol0435</t>
+          <t>EVOL1772</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>evol0111.jpg</t>
+          <t>EVOL0002.png</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>18PywtpchMGSXpToC9emFelBbnkIO851b</t>
+          <t>1m4WGbazGIB0enbXyuJmAtourcCX4k-Hh</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/18PywtpchMGSXpToC9emFelBbnkIO851b/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1m4WGbazGIB0enbXyuJmAtourcCX4k-Hh/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=18PywtpchMGSXpToC9emFelBbnkIO851b</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1m4WGbazGIB0enbXyuJmAtourcCX4k-Hh</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>evol0111</t>
+          <t>EVOL0002</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>evol3970.jpg</t>
+          <t>EVOL1776.png</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls</t>
+          <t>1_2SYYR_oqTFYUzNjTLJNbzG65TBFhf3v</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1_2SYYR_oqTFYUzNjTLJNbzG65TBFhf3v/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1_2SYYR_oqTFYUzNjTLJNbzG65TBFhf3v</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>evol3970</t>
+          <t>EVOL1776</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>evol0177.jpg</t>
+          <t>EVOL0030.png</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn</t>
+          <t>1Kv9UiV-aVZz0t6pCBErjb3nZx5LG4_RI</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Kv9UiV-aVZz0t6pCBErjb3nZx5LG4_RI/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Kv9UiV-aVZz0t6pCBErjb3nZx5LG4_RI</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>evol0177</t>
+          <t>EVOL0030</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>evol2205.jpg</t>
+          <t>EVOL0234.png</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK</t>
+          <t>1N0BRoX5I3N6uKLoDo_bRkdIlqkKKm_C1</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1N0BRoX5I3N6uKLoDo_bRkdIlqkKKm_C1/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1N0BRoX5I3N6uKLoDo_bRkdIlqkKKm_C1</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>evol2205</t>
+          <t>EVOL0234</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>evol1361.jpg</t>
+          <t>EVOL4930.png</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8</t>
+          <t>16Q1nyVDVbNkBCILbD_FvkA3FBqJPeOCq</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/16Q1nyVDVbNkBCILbD_FvkA3FBqJPeOCq/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=16Q1nyVDVbNkBCILbD_FvkA3FBqJPeOCq</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>evol1361</t>
+          <t>EVOL4930</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>evol3210.jpg</t>
+          <t>EVOL4920.png</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>1TArjaa7JzfoYKxuitLH3gEeurJie_XEr</t>
+          <t>1REQnGnDonL2LwsNYqDEA6_Rq7rW9R6qy</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1TArjaa7JzfoYKxuitLH3gEeurJie_XEr/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1REQnGnDonL2LwsNYqDEA6_Rq7rW9R6qy/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1TArjaa7JzfoYKxuitLH3gEeurJie_XEr</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1REQnGnDonL2LwsNYqDEA6_Rq7rW9R6qy</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>evol3210</t>
+          <t>EVOL4920</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>evo115co.jpg</t>
+          <t>EVOL4910.png</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>1OFRhg3wSMFQ6TYNMMxMweX1JIEsXmKdY</t>
+          <t>1HoEkUgtSYonZeE4s57eT8cljKWeP573z</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1OFRhg3wSMFQ6TYNMMxMweX1JIEsXmKdY/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1HoEkUgtSYonZeE4s57eT8cljKWeP573z/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?export=view&amp;id=1OFRhg3wSMFQ6TYNMMxMweX1JIEsXmKdY</t>
+          <t>https://drive.google.com/uc?export=view&amp;id=1HoEkUgtSYonZeE4s57eT8cljKWeP573z</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>evo115co</t>
+          <t>EVOL4910</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
+          <t>EVOL4900.png</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>1Zfv9tHlh8Ll9b1DAhLgrtNRQaf-IeUCp</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Zfv9tHlh8Ll9b1DAhLgrtNRQaf-IeUCp/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Zfv9tHlh8Ll9b1DAhLgrtNRQaf-IeUCp</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>EVOL4900</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>EVOL0217.png</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>1r10j9c5BSbOiMx-z6cYvsnEI2J8UgCbf</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1r10j9c5BSbOiMx-z6cYvsnEI2J8UgCbf/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1r10j9c5BSbOiMx-z6cYvsnEI2J8UgCbf</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>EVOL0217</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>EVOL0216.png</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>1vPCn8eIOa0SDbWj6itkXYhQdlMiWBGZs</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1vPCn8eIOa0SDbWj6itkXYhQdlMiWBGZs/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1vPCn8eIOa0SDbWj6itkXYhQdlMiWBGZs</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>EVOL0216</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>EVOL0218.png</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>1Mwt1mPTwPc0hPt9TU9EbG4N26r6L2O49</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Mwt1mPTwPc0hPt9TU9EbG4N26r6L2O49/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Mwt1mPTwPc0hPt9TU9EbG4N26r6L2O49</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>EVOL0218</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>EVOL0215.png</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>138slbY27NquKx-NwShQif9lmmK4eK70x</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/138slbY27NquKx-NwShQif9lmmK4eK70x/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=138slbY27NquKx-NwShQif9lmmK4eK70x</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>EVOL0215</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>EVOL0214.png</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>1l-krPbtKcvrTpd7hqwQ6Vw27GgqPP3q3</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1l-krPbtKcvrTpd7hqwQ6Vw27GgqPP3q3/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1l-krPbtKcvrTpd7hqwQ6Vw27GgqPP3q3</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>EVOL0214</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>EVOL0028.png</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>1WfEiYmUivHfKn1E2tUtaQ0e_hSIfxuQ0</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1WfEiYmUivHfKn1E2tUtaQ0e_hSIfxuQ0/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1WfEiYmUivHfKn1E2tUtaQ0e_hSIfxuQ0</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>EVOL0028</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>EVOL0208.png</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>1AR4SwXMD3H0YBs7467V9Wt-XVh2SMUBX</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1AR4SwXMD3H0YBs7467V9Wt-XVh2SMUBX/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1AR4SwXMD3H0YBs7467V9Wt-XVh2SMUBX</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>EVOL0208</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>EVOL0024.png</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>1i8Pj32xqXS2EAK_nx5wKta_K8DdR_sca</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1i8Pj32xqXS2EAK_nx5wKta_K8DdR_sca/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1i8Pj32xqXS2EAK_nx5wKta_K8DdR_sca</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>EVOL0024</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>EVOL0023.png</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>1Taa-Rnb68NPS1z5tUjJLgUeRdTTa-mri</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Taa-Rnb68NPS1z5tUjJLgUeRdTTa-mri/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Taa-Rnb68NPS1z5tUjJLgUeRdTTa-mri</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>EVOL0023</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>EVOL0022.png</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>1hguUm8nfTno3Kaqj8l7fNWzN6hLuAeko</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1hguUm8nfTno3Kaqj8l7fNWzN6hLuAeko/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1hguUm8nfTno3Kaqj8l7fNWzN6hLuAeko</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>EVOL0022</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>EVOL0021.png</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>19Q5ns8Z0-XwZ3WAF5Mq6JfDViF97HpQG</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/19Q5ns8Z0-XwZ3WAF5Mq6JfDViF97HpQG/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=19Q5ns8Z0-XwZ3WAF5Mq6JfDViF97HpQG</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>EVOL0021</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>EVOL0086.png</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>1cAKfzEHPw0N8IFMyM35w2R-4ULo-UKQZ</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1cAKfzEHPw0N8IFMyM35w2R-4ULo-UKQZ/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1cAKfzEHPw0N8IFMyM35w2R-4ULo-UKQZ</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>EVOL0086</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>EVOL0001.png</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>1wRrrcUN2Ha5Z49bPQ3gVqmH9EwUaQ_s1</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1wRrrcUN2Ha5Z49bPQ3gVqmH9EwUaQ_s1/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1wRrrcUN2Ha5Z49bPQ3gVqmH9EwUaQ_s1</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>EVOL0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>EVOL1429.png</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>1IYxYM8E6sVM65uXDL4GPz7iLt5afnKmk</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1IYxYM8E6sVM65uXDL4GPz7iLt5afnKmk/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1IYxYM8E6sVM65uXDL4GPz7iLt5afnKmk</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>EVOL1429</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>EVOL1430.png</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>15WskeyrKY0HX9dN1limtsDXvAZYX-OpB</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/15WskeyrKY0HX9dN1limtsDXvAZYX-OpB/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=15WskeyrKY0HX9dN1limtsDXvAZYX-OpB</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>EVOL1430</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>EVOL1960.png</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1xsmHRyemq1RoHVDkuRKK8F8Y3No0vbBV</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1xsmHRyemq1RoHVDkuRKK8F8Y3No0vbBV/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1xsmHRyemq1RoHVDkuRKK8F8Y3No0vbBV</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>EVOL1960</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>EVOMYR5810.png</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1l3AkRxk9SbyegXuHuFlxFSjiLe-aYl6L</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1l3AkRxk9SbyegXuHuFlxFSjiLe-aYl6L/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1l3AkRxk9SbyegXuHuFlxFSjiLe-aYl6L</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>EVOMYR5810</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>EVOMYR5808.png</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1W0tkVZcDQObIbEEeFT_prtJorpjy5OZ7</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1W0tkVZcDQObIbEEeFT_prtJorpjy5OZ7/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1W0tkVZcDQObIbEEeFT_prtJorpjy5OZ7</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>EVOMYR5808</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>EVOMYR5807.png</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1_z2vl1A9cSx5TsLQ9EIYrkXQ9PQTglpP</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1_z2vl1A9cSx5TsLQ9EIYrkXQ9PQTglpP/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1_z2vl1A9cSx5TsLQ9EIYrkXQ9PQTglpP</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>EVOMYR5807</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>EVOL1470.png</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1Vyvd63vWgdwiCO-n9Q6wIyuHgI7koikH</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Vyvd63vWgdwiCO-n9Q6wIyuHgI7koikH/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Vyvd63vWgdwiCO-n9Q6wIyuHgI7koikH</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>EVOL1470</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>EVOL0211.png</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1OsTMZVeQjHDATTIPkLVtbHTHasxl0I50</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1OsTMZVeQjHDATTIPkLVtbHTHasxl0I50/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1OsTMZVeQjHDATTIPkLVtbHTHasxl0I50</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>EVOL0211</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>EVOL0248.png</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1t8kPA0zlnmC3ZByzSeuiRNg5kazjWkny</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1t8kPA0zlnmC3ZByzSeuiRNg5kazjWkny/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1t8kPA0zlnmC3ZByzSeuiRNg5kazjWkny</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>EVOL0248</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>EVOL0249.png</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>141PZXYKcbHr1Kkg4W09BRFc_2Wpo00wl</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/141PZXYKcbHr1Kkg4W09BRFc_2Wpo00wl/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=141PZXYKcbHr1Kkg4W09BRFc_2Wpo00wl</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>EVOL0249</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>EVOMYR1927.png</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1LZ8TY9rTLl0ZBgcxJ3Iis5M3RYVnEjEd</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1LZ8TY9rTLl0ZBgcxJ3Iis5M3RYVnEjEd/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1LZ8TY9rTLl0ZBgcxJ3Iis5M3RYVnEjEd</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>EVOMYR1927</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>EVOMYR1931.png</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1UFdmLxPD3nnusXUBvJjXZXHsUmzFC1kJ</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1UFdmLxPD3nnusXUBvJjXZXHsUmzFC1kJ/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1UFdmLxPD3nnusXUBvJjXZXHsUmzFC1kJ</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>EVOMYR1931</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>EVOMYR1929.png</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1gsNnPfkmtgYIv0M_TfC-yn8gA865w_Q7</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1gsNnPfkmtgYIv0M_TfC-yn8gA865w_Q7/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1gsNnPfkmtgYIv0M_TfC-yn8gA865w_Q7</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>EVOMYR1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>EVOMYR1928.png</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1I_TwZcgIZQo6wbiTs5uE4UbL0flyrhCe</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1I_TwZcgIZQo6wbiTs5uE4UbL0flyrhCe/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1I_TwZcgIZQo6wbiTs5uE4UbL0flyrhCe</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>EVOMYR1928</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>EVOL0045.png</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1P9Pe2iCczReo4mill8xuSGp0GYTfxkeG</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1P9Pe2iCczReo4mill8xuSGp0GYTfxkeG/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1P9Pe2iCczReo4mill8xuSGp0GYTfxkeG</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>EVOL0045</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>EVOL0044.png</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1BoxP8N1UqCCSogHLWBq97tRiRoz84UdJ</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1BoxP8N1UqCCSogHLWBq97tRiRoz84UdJ/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1BoxP8N1UqCCSogHLWBq97tRiRoz84UdJ</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>EVOL0044</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>EVOL0148.png</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1LjJtEpQm09MhzesfSzgLQtb8axi-NOC3</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1LjJtEpQm09MhzesfSzgLQtb8axi-NOC3/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1LjJtEpQm09MhzesfSzgLQtb8axi-NOC3</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>EVOL0148</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>EVOL0147.png</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1mbtJN63TojM6KAfyjugTEEGe91RPLfVi</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1mbtJN63TojM6KAfyjugTEEGe91RPLfVi/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1mbtJN63TojM6KAfyjugTEEGe91RPLfVi</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>EVOL0147</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>EVOL0145.png</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1thr8eSQLi5m0A3R_uD3DzpuvGvaBe8O9</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1thr8eSQLi5m0A3R_uD3DzpuvGvaBe8O9/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1thr8eSQLi5m0A3R_uD3DzpuvGvaBe8O9</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>EVOL0145</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>EVOL0146.png</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1aEusQyqbR4npgl-rCDrEvrnJcuIz5ek9</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1aEusQyqbR4npgl-rCDrEvrnJcuIz5ek9/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1aEusQyqbR4npgl-rCDrEvrnJcuIz5ek9</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>EVOL0146</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>EVOL0229.png</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1ZZtGTIAIVjG2cZcmwZ0znPI39X35as55</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1ZZtGTIAIVjG2cZcmwZ0znPI39X35as55/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1ZZtGTIAIVjG2cZcmwZ0znPI39X35as55</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>EVOL0229</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>EVOL1331.png</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1ZIbc-yFETgZW0ll3EBizduVKC7P3KDAC</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1ZIbc-yFETgZW0ll3EBizduVKC7P3KDAC/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1ZIbc-yFETgZW0ll3EBizduVKC7P3KDAC</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>EVOL1331</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>EVOL1351.png</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1hnbAMUjVoPlO4Y1VBBpvSP-lR8_DoBjo</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1hnbAMUjVoPlO4Y1VBBpvSP-lR8_DoBjo/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1hnbAMUjVoPlO4Y1VBBpvSP-lR8_DoBjo</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>EVOL1351</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>EVOL3415.png</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1CCCCuHxA1pCpdNO1qT3RCi29q_-vd1an</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1CCCCuHxA1pCpdNO1qT3RCi29q_-vd1an/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1CCCCuHxA1pCpdNO1qT3RCi29q_-vd1an</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>EVOL3415</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>EVOL0089.png</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1dH1ZE8m1mrmCLZQpIkQtnGLzIqmyzqYp</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1dH1ZE8m1mrmCLZQpIkQtnGLzIqmyzqYp/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1dH1ZE8m1mrmCLZQpIkQtnGLzIqmyzqYp</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>EVOL0089</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>EVOL0033.png</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1jg3UbW4U1qJn4GZ6Qq-JlS27McjoGlY1</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1jg3UbW4U1qJn4GZ6Qq-JlS27McjoGlY1/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1jg3UbW4U1qJn4GZ6Qq-JlS27McjoGlY1</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>EVOL0033</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>EVOL0320.png</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1qopXTWXaCsoCSdy9K9kcd5xTOE7pt1rf</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1qopXTWXaCsoCSdy9K9kcd5xTOE7pt1rf/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1qopXTWXaCsoCSdy9K9kcd5xTOE7pt1rf</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>EVOL0320</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>EVOL0223.png</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1EsiZgOyTg_IgUNzfOK-oRDpCxHrUsRtG</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1EsiZgOyTg_IgUNzfOK-oRDpCxHrUsRtG/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1EsiZgOyTg_IgUNzfOK-oRDpCxHrUsRtG</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>EVOL0223</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>EVOL0139.png</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1l3Dj5NU9TR-PtSvfmQjxEfCsQxmqAqor</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1l3Dj5NU9TR-PtSvfmQjxEfCsQxmqAqor/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1l3Dj5NU9TR-PtSvfmQjxEfCsQxmqAqor</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>EVOL0139</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>EVOL0138.png</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1sQpSD4exEhgRBuaPg9caxRD8gJZ_1oUo</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1sQpSD4exEhgRBuaPg9caxRD8gJZ_1oUo/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1sQpSD4exEhgRBuaPg9caxRD8gJZ_1oUo</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>EVOL0138</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>EVOL0071.png</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>10zbPoE1ceqG_5Ym7mtW0nqLaIcX0wpUP</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/10zbPoE1ceqG_5Ym7mtW0nqLaIcX0wpUP/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=10zbPoE1ceqG_5Ym7mtW0nqLaIcX0wpUP</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>EVOL0071</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>EVOL4000.png</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1GlxlUZUr8DpaAuH3UceEUIw8R73FF-Eu</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1GlxlUZUr8DpaAuH3UceEUIw8R73FF-Eu/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1GlxlUZUr8DpaAuH3UceEUIw8R73FF-Eu</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>EVOL4000</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>EVOL4050.png</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1dwkW4HBqrRnBooqNVxsmBWLPYW-xiHFm</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1dwkW4HBqrRnBooqNVxsmBWLPYW-xiHFm/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1dwkW4HBqrRnBooqNVxsmBWLPYW-xiHFm</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>EVOL4050</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>EVOL1154.png</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1AXsDyi20NTrPHfxF0kR575sCVSw0ms-v</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1AXsDyi20NTrPHfxF0kR575sCVSw0ms-v/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1AXsDyi20NTrPHfxF0kR575sCVSw0ms-v</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>EVOL1154</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>EVOL1152.png</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1WIL5-OlkISb4Jgw7r4Z-MY3GQlaymSLF</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1WIL5-OlkISb4Jgw7r4Z-MY3GQlaymSLF/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1WIL5-OlkISb4Jgw7r4Z-MY3GQlaymSLF</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>EVOL1152</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>EVOL1150.png</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>140FdaGH8uQQ35bKF6UxfK-GcsNRfi6Vd</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/140FdaGH8uQQ35bKF6UxfK-GcsNRfi6Vd/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=140FdaGH8uQQ35bKF6UxfK-GcsNRfi6Vd</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>EVOL1150</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>EVOL1165.png</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1vEf6OOzcfBVbZfbXB0YWrvIwOG4TeEIO</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1vEf6OOzcfBVbZfbXB0YWrvIwOG4TeEIO/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1vEf6OOzcfBVbZfbXB0YWrvIwOG4TeEIO</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>EVOL1165</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>EVOL1160.png</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1hhox9FvrlvQQzBpx43_mRx6BX6jbPCFY</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1hhox9FvrlvQQzBpx43_mRx6BX6jbPCFY/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1hhox9FvrlvQQzBpx43_mRx6BX6jbPCFY</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>EVOL1160</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>EVOL2215.png</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1JC2spLFD9wfeL21RGXw7k7tOmtBoxW37</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1JC2spLFD9wfeL21RGXw7k7tOmtBoxW37/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1JC2spLFD9wfeL21RGXw7k7tOmtBoxW37</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>EVOL2215</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>EVOL2213.png</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1DNP9gvL6lqvp6wXj3562s916dUaZvsVI</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1DNP9gvL6lqvp6wXj3562s916dUaZvsVI/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1DNP9gvL6lqvp6wXj3562s916dUaZvsVI</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>EVOL2213</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>EVOL2210.png</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1_wu8PGak1QJESDVjKPgGGuFu6K8qwGIH</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1_wu8PGak1QJESDVjKPgGGuFu6K8qwGIH/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1_wu8PGak1QJESDVjKPgGGuFu6K8qwGIH</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>EVOL2210</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>EVOL2205.png</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>19EgWFY7ggYEd14bqAT5O8Btzy4a5AikH</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/19EgWFY7ggYEd14bqAT5O8Btzy4a5AikH/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=19EgWFY7ggYEd14bqAT5O8Btzy4a5AikH</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>EVOL2205</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>EVOL2200.png</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1h9vsrBzW0Xv1iQQLj1jp8r7OhQvm5xt5</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1h9vsrBzW0Xv1iQQLj1jp8r7OhQvm5xt5/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1h9vsrBzW0Xv1iQQLj1jp8r7OhQvm5xt5</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>EVOL2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>EVO230TU.png</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1lfwn_2PGMJg_bWOfV1-SOfH2D2Zxka5E</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1lfwn_2PGMJg_bWOfV1-SOfH2D2Zxka5E/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1lfwn_2PGMJg_bWOfV1-SOfH2D2Zxka5E</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>EVO230TU</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>EVO180TU.png</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1WVkT2L7MnVLJ66_a5VaVG7DD6O4kKMmW</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1WVkT2L7MnVLJ66_a5VaVG7DD6O4kKMmW/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1WVkT2L7MnVLJ66_a5VaVG7DD6O4kKMmW</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>EVO180TU</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>EVO230CO.png</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1k0kPpz5lEqKuPCuNObrxtXqylrrHY9MZ</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1k0kPpz5lEqKuPCuNObrxtXqylrrHY9MZ/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1k0kPpz5lEqKuPCuNObrxtXqylrrHY9MZ</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>EVO230CO</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>EVO115LA.png</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1CK8kNuk4AClU1c3ubeahyF7fCj4UJje0</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1CK8kNuk4AClU1c3ubeahyF7fCj4UJje0/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1CK8kNuk4AClU1c3ubeahyF7fCj4UJje0</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>EVO115LA</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>EVO180CO.png</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1RWh4i639_R8TbOlxf7nQ75cZMmsVmPvt</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1RWh4i639_R8TbOlxf7nQ75cZMmsVmPvt/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1RWh4i639_R8TbOlxf7nQ75cZMmsVmPvt</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>EVO180CO</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>EVO180LA.png</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1EDeJZBv7uSJR-_dokYsYroemSxQJBGQe</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1EDeJZBv7uSJR-_dokYsYroemSxQJBGQe/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1EDeJZBv7uSJR-_dokYsYroemSxQJBGQe</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>EVO180LA</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>EVO115TF.png</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1RRC14OSifI-1w5dAe-OsiJGri5ynU0Qi</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1RRC14OSifI-1w5dAe-OsiJGri5ynU0Qi/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1RRC14OSifI-1w5dAe-OsiJGri5ynU0Qi</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>EVO115TF</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>EVOL0224.png</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>16TDaATiPzZEt23MZVZ6tlJ42ciFq7YrM</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/16TDaATiPzZEt23MZVZ6tlJ42ciFq7YrM/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=16TDaATiPzZEt23MZVZ6tlJ42ciFq7YrM</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>EVOL0224</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>EVOL1208.png</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1FYOCBYNRBYVv1scwGIYMsC8JT-SqrRw2</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1FYOCBYNRBYVv1scwGIYMsC8JT-SqrRw2/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1FYOCBYNRBYVv1scwGIYMsC8JT-SqrRw2</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>EVOL1208</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>EVOL0135.png</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1Z3lQgkeXUJr8Eatj6VeMofuFP6FodDKc</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Z3lQgkeXUJr8Eatj6VeMofuFP6FodDKc/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Z3lQgkeXUJr8Eatj6VeMofuFP6FodDKc</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>EVOL0135</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>EVOL2135.png</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1olYmdhMIr_eFZFwfKZLENH6-kaRhAYY2</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1olYmdhMIr_eFZFwfKZLENH6-kaRhAYY2/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1olYmdhMIr_eFZFwfKZLENH6-kaRhAYY2</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>EVOL2135</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>EVOL1200.png</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1Rm9BBRImLieuYju8WsEZ3m5ezvQAO47j</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Rm9BBRImLieuYju8WsEZ3m5ezvQAO47j/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Rm9BBRImLieuYju8WsEZ3m5ezvQAO47j</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>EVOL1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>EVOL1631.png</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>13z80AE4-qQfFh2mSZDaCCb2jDo-OZLNN</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/13z80AE4-qQfFh2mSZDaCCb2jDo-OZLNN/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=13z80AE4-qQfFh2mSZDaCCb2jDo-OZLNN</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>EVOL1631</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>EVOL0108.png</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1CrRWGci78tG63-mOTBZd4pBA8QBUfJ16</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1CrRWGci78tG63-mOTBZd4pBA8QBUfJ16/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1CrRWGci78tG63-mOTBZd4pBA8QBUfJ16</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>EVOL0108</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>EVOL0340.png</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1eNc8s9f6SvIp_OYtCmvflwSyvavrgOD_</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1eNc8s9f6SvIp_OYtCmvflwSyvavrgOD_/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1eNc8s9f6SvIp_OYtCmvflwSyvavrgOD_</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>EVOL0340</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>EVOL5100.png</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1Ia3JNimwL4w3s98MGiXd1_f-vyZ6lBuf</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Ia3JNimwL4w3s98MGiXd1_f-vyZ6lBuf/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Ia3JNimwL4w3s98MGiXd1_f-vyZ6lBuf</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>EVOL5100</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>EVOL0144.png</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>15TWcTMqD_AFXZ_Zxwb5Ta2xpXkvySowE</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/15TWcTMqD_AFXZ_Zxwb5Ta2xpXkvySowE/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=15TWcTMqD_AFXZ_Zxwb5Ta2xpXkvySowE</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>EVOL0144</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>EVOL4753.png</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1A0dBD6_8nn8NEkh6jj1fgbgtudkGqg4t</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>EVOL4753</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>EVOL4755.png</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1MdUoOX1z27tO24PDAFNxtWye61T69a8Z</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1MdUoOX1z27tO24PDAFNxtWye61T69a8Z/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1MdUoOX1z27tO24PDAFNxtWye61T69a8Z</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>EVOL4755</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>EVOL5530.png</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1JrJHwCRw-twjmcec9_dOUmV31dTdvauq</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1JrJHwCRw-twjmcec9_dOUmV31dTdvauq/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1JrJHwCRw-twjmcec9_dOUmV31dTdvauq</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>EVOL5530</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>EVOL3420.png</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1W-t8X0rHxXz_XGxe3K_TpFWFKT0ZlxRz</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>EVOL3420</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>EVOL0043.png</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1tkt_U7kl_aXXIzJIjAOHosS_5uoa2i3m</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>EVOL0043</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>SAHANAF2H.png</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1WF58kS9lk8fGsXcPEtMpv5Hl9icCdI-c</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>SAHANAF2H</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>SAHANAF1H.png</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1XDYyCCwMkSQG7s7aEQboTou8X0cPUGD0</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>SAHANAF1H</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>evol0088.png</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1-9epn6HBNxO5QPJGaq43y0qNi2tXb-v8</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>evol0088</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>CON205.png</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1soHxTD2Mjiub1jc6ndpsSbQQzPRD6Yqu</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>CON205</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>EVOL3975.jpg</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1gmINcnH-kKHMGoqnZDYB3W_ZP2s6mIXM</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>EVOL3975</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>TF.414.png</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1KXEo3cSB5Aj_dPAW8X1-iG2eNGK4oNEr</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>TF.414</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>GAG1685AR.png</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1BEc5fw2mn1pWdTFtKCc1Ac5IPrCo3PFq</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>GAG1685AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>GAG1910AR.png</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1_NpT7wriU18jWyqtbM3aplIrjiJLQXxl</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>GAG1910AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>ISAALAMF16.png</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>14BogV6rHDIcL1bJzvKgItflTszBh2Yjx</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/14BogV6rHDIcL1bJzvKgItflTszBh2Yjx/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=14BogV6rHDIcL1bJzvKgItflTszBh2Yjx</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>ISAALAMF16</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>EA5310MT.png</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>168x1fBgYxstgD60EyOUekzYk21Cswij6</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/168x1fBgYxstgD60EyOUekzYk21Cswij6/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=168x1fBgYxstgD60EyOUekzYk21Cswij6</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>EA5310MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>EVOL0174.png</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1-YJjxDGKGERzcM6ZrMQdU8EXhrcWRnlt</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>EVOL0174</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>ALI70.png</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>118_Mew5CJz8YNrVjxiGgKooC9GHL40wA</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/118_Mew5CJz8YNrVjxiGgKooC9GHL40wA/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=118_Mew5CJz8YNrVjxiGgKooC9GHL40wA</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>ALI70</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>SIM18310.png</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>13cioMVntBUSCdPldxG-2kDu8-KoWxIa5</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/13cioMVntBUSCdPldxG-2kDu8-KoWxIa5/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=13cioMVntBUSCdPldxG-2kDu8-KoWxIa5</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>SIM18310</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>KIMERAC1.png</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1hs0JvOUNyVuX5zfqUIACnXVADRBcgGiS</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>KIMERAC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>PROBOT41.png</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1qrNWZscYLaNY3tjBvyWBCrhyf_YkY9P_</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>PROBOT41</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>evorieg0153.jpg</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1lKfYjkIwKWP0ylRb7kAHB6MEsxMj5AyG</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>evorieg0153</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>EGWX 01.png</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1BgwDF-x074YoMMB-mDYESEaqC2f_yOjJ</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>EGWX 01</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>EGWX 02.png</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1EDLSpqESmqhKp7xv2VUi5tJfPNY87I3H</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>EGWX 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>PX120314.png</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1weDOT_VWkZKZAz4jS8TVZsetiUcvCN9l</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>PX120314</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>PERFA0261.png</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1scmMs1xhcGnLuy7pA0GHx61dgeWNUjXb</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1scmMs1xhcGnLuy7pA0GHx61dgeWNUjXb/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1scmMs1xhcGnLuy7pA0GHx61dgeWNUjXb</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>PERFA0261</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>evol1000.png</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1LktIgDVrU9vZgoZ2NVNIvUR0nreN7E0k</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>evol1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>evol0330.png</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1_woEN7ahCyphJcQooMGZU51SaSrhcw2H</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1_woEN7ahCyphJcQooMGZU51SaSrhcw2H/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1_woEN7ahCyphJcQooMGZU51SaSrhcw2H</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>evol0330</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>GAG12103AR.jpg</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=19PO9oKCI7tFYmwSmls9HncZeKFLKYsHM</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>GAG12103AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>TOR01522.jpg</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1D6zNN_9DGy0dFt9raoWvefgiUeE2dVYx</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>TOR01522</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>logo-ferremax.png</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1QyHbyrm4L_XB5o-DT7UhtvcKO3P1PsQq</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>logo-ferremax</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>login-bg.png</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1KK_TQrE0L6lVvyr8tfVlByktAqgtNhpn</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>login-bg</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>evol0025.jpg</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1iBM7F-xqNihiERpP73UQvQJE0kVFGJKO</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>evol0025</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>evol3245.jpg</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1QQ8ZLm32-FoopDzdjhzc9MNivVFc7fLM</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>evol3245</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>evol1970.jpg</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=14IeVqqroYofkw5cy2sBlHAU3UcX2g6Sn</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>evol1970</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>evo115tu.jpg</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1mr4rYfnhWS8bgSpPkkRNKY8S5CbHYA_g</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>evo115tu</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>evol0028.jpg</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1yRGivdseZJU3_Jm-GwG-n--8hV2TchR7</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>evol0028</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>evol3510.jpg</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1dXUQ9WsxzAZey_wt6G2mS7N6Li-NJbSV</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>evol3510</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>evol0070.jpg</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1J-fMUEInSiroJxGr1U5gDTEMgeOmmmDZ</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>evol0070</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>evol2530.jpg</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=18k2YQNWcz_1BYQNM6bONKlUxSYJrY-No</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>evol2530</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>evol0107.jpg</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=13lnno2tsyVhl9Bl6l3A1L-lgnfiZi5gV</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>evol0107</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>evol0435.jpg</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1ZRBZHzi8Mjue2G8UsgZBb35L-zTImn0x</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>evol0435</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>evol0111.jpg</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>18PywtpchMGSXpToC9emFelBbnkIO851b</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/18PywtpchMGSXpToC9emFelBbnkIO851b/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=18PywtpchMGSXpToC9emFelBbnkIO851b</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>evol0111</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>evol3970.jpg</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1Zj40lKbiQQn6MmKqrYPvwOoJ4Ao_hQls</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>evol3970</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>evol0177.jpg</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1pA1s9ukL2Ucya6RudnbtpvHAxufEyqNn</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>evol0177</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>evol2205.jpg</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=18tyxWko2V2O-a8Ub1xpQ10ZRn8k2g9OK</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>evol2205</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>evol1361.jpg</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=19gc2N8G72IxRFVn4NFzcK_QvqFIegmV8</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>evol1361</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>evol3210.jpg</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1TArjaa7JzfoYKxuitLH3gEeurJie_XEr</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1TArjaa7JzfoYKxuitLH3gEeurJie_XEr/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1TArjaa7JzfoYKxuitLH3gEeurJie_XEr</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>evol3210</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>evo115co.jpg</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1OFRhg3wSMFQ6TYNMMxMweX1JIEsXmKdY</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1OFRhg3wSMFQ6TYNMMxMweX1JIEsXmKdY/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/uc?export=view&amp;id=1OFRhg3wSMFQ6TYNMMxMweX1JIEsXmKdY</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>evo115co</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
           <t>logo.png</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B309" t="inlineStr">
         <is>
           <t>1NqGegsSTudgffTUAt2bJbBFYufezJv7I</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="C309" t="inlineStr">
         <is>
           <t>https://drive.google.com/file/d/1NqGegsSTudgffTUAt2bJbBFYufezJv7I/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="D309" t="inlineStr">
         <is>
           <t>https://drive.google.com/uc?export=view&amp;id=1NqGegsSTudgffTUAt2bJbBFYufezJv7I</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="E309" t="inlineStr">
         <is>
           <t>logo</t>
         </is>
